--- a/database/industries/ravankar/sheranol/product/monthly.xlsx
+++ b/database/industries/ravankar/sheranol/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ravankar\sheranol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3723FB59-6DA9-4607-8D93-2FE876743D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1225B2D3-BDEC-458E-BB33-D7FF651473CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -751,12 +751,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -811,7 +811,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -980,7 +980,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1149,7 +1149,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1361,7 +1361,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1507,77 +1507,77 @@
       <c r="AE11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF11" s="11" t="s">
-        <v>57</v>
+      <c r="AF11" s="11">
+        <v>10822</v>
       </c>
       <c r="AG11" s="11">
-        <v>10822</v>
+        <v>13099</v>
       </c>
       <c r="AH11" s="11">
-        <v>13099</v>
+        <v>8769</v>
       </c>
       <c r="AI11" s="11">
-        <v>8769</v>
+        <v>7390</v>
       </c>
       <c r="AJ11" s="11">
-        <v>7390</v>
+        <v>8996</v>
       </c>
       <c r="AK11" s="11">
-        <v>8996</v>
+        <v>13152</v>
       </c>
       <c r="AL11" s="11">
-        <v>13152</v>
+        <v>6747</v>
       </c>
       <c r="AM11" s="11">
-        <v>6747</v>
+        <v>7499</v>
       </c>
       <c r="AN11" s="11">
-        <v>7499</v>
+        <v>8585</v>
       </c>
       <c r="AO11" s="11">
-        <v>8585</v>
+        <v>7270</v>
       </c>
       <c r="AP11" s="11">
-        <v>7270</v>
+        <v>6529</v>
       </c>
       <c r="AQ11" s="11">
-        <v>6529</v>
+        <v>4163</v>
       </c>
       <c r="AR11" s="11">
-        <v>4163</v>
+        <v>8056</v>
       </c>
       <c r="AS11" s="11">
-        <v>8056</v>
+        <v>11939</v>
       </c>
       <c r="AT11" s="11">
-        <v>11939</v>
+        <v>7146</v>
       </c>
       <c r="AU11" s="11">
-        <v>7146</v>
+        <v>4914</v>
       </c>
       <c r="AV11" s="11">
-        <v>4914</v>
+        <v>11626</v>
       </c>
       <c r="AW11" s="11">
-        <v>11626</v>
+        <v>9591</v>
       </c>
       <c r="AX11" s="11">
-        <v>9591</v>
+        <v>10473</v>
       </c>
       <c r="AY11" s="11">
-        <v>10473</v>
+        <v>6997</v>
       </c>
       <c r="AZ11" s="11">
-        <v>6997</v>
+        <v>4913</v>
       </c>
       <c r="BA11" s="11">
-        <v>4913</v>
+        <v>6985</v>
       </c>
       <c r="BB11" s="11">
-        <v>6985</v>
+        <v>6911</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1586,157 +1586,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="F12" s="13">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G12" s="13">
+        <v>18</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>208</v>
+      </c>
+      <c r="J12" s="13">
         <v>20</v>
       </c>
-      <c r="H12" s="13">
+      <c r="K12" s="13">
+        <v>329</v>
+      </c>
+      <c r="L12" s="13">
+        <v>336</v>
+      </c>
+      <c r="M12" s="13">
+        <v>1</v>
+      </c>
+      <c r="N12" s="13">
+        <v>112</v>
+      </c>
+      <c r="O12" s="13">
+        <v>32</v>
+      </c>
+      <c r="P12" s="13">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>66</v>
+      </c>
+      <c r="R12" s="13">
+        <v>21</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <v>24</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
+      <c r="W12" s="13">
+        <v>510</v>
+      </c>
+      <c r="X12" s="13">
+        <v>84</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>332</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>89</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>183</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>44</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>94</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>409</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>538</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>454</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>184</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>33</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>105</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>133</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>7</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>166</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>212</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>435</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>354</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>387</v>
+      </c>
+      <c r="AY12" s="13">
+        <v>99</v>
+      </c>
+      <c r="AZ12" s="13">
         <v>18</v>
       </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>208</v>
-      </c>
-      <c r="K12" s="13">
-        <v>20</v>
-      </c>
-      <c r="L12" s="13">
-        <v>329</v>
-      </c>
-      <c r="M12" s="13">
-        <v>336</v>
-      </c>
-      <c r="N12" s="13">
-        <v>1</v>
-      </c>
-      <c r="O12" s="13">
-        <v>112</v>
-      </c>
-      <c r="P12" s="13">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>64</v>
-      </c>
-      <c r="R12" s="13">
-        <v>66</v>
-      </c>
-      <c r="S12" s="13">
+      <c r="BA12" s="13">
         <v>21</v>
       </c>
-      <c r="T12" s="13">
-        <v>0</v>
-      </c>
-      <c r="U12" s="13">
-        <v>0</v>
-      </c>
-      <c r="V12" s="13">
-        <v>24</v>
-      </c>
-      <c r="W12" s="13">
-        <v>0</v>
-      </c>
-      <c r="X12" s="13">
-        <v>510</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>84</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>332</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>89</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>183</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>44</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>10</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>94</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>409</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>538</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>454</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>184</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>33</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>105</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>133</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>7</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>166</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>212</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>435</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>354</v>
-      </c>
-      <c r="AY12" s="13">
-        <v>387</v>
-      </c>
-      <c r="AZ12" s="13">
-        <v>99</v>
-      </c>
-      <c r="BA12" s="13">
-        <v>18</v>
-      </c>
       <c r="BB12" s="13">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1745,89 +1745,89 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>33040</v>
+        <v>40080</v>
       </c>
       <c r="F13" s="11">
-        <v>40080</v>
+        <v>45829</v>
       </c>
       <c r="G13" s="11">
-        <v>45829</v>
+        <v>49656</v>
       </c>
       <c r="H13" s="11">
-        <v>49656</v>
+        <v>31917</v>
       </c>
       <c r="I13" s="11">
-        <v>31917</v>
+        <v>30772</v>
       </c>
       <c r="J13" s="11">
-        <v>30772</v>
+        <v>37448</v>
       </c>
       <c r="K13" s="11">
-        <v>37448</v>
+        <v>40280</v>
       </c>
       <c r="L13" s="11">
-        <v>40280</v>
+        <v>34684</v>
       </c>
       <c r="M13" s="11">
-        <v>34684</v>
+        <v>40273</v>
       </c>
       <c r="N13" s="11">
-        <v>40273</v>
+        <v>40152</v>
       </c>
       <c r="O13" s="11">
-        <v>40152</v>
+        <v>49309</v>
       </c>
       <c r="P13" s="11">
-        <v>49309</v>
+        <v>49616</v>
       </c>
       <c r="Q13" s="11">
-        <v>49616</v>
+        <v>41544</v>
       </c>
       <c r="R13" s="11">
-        <v>41544</v>
+        <v>37630</v>
       </c>
       <c r="S13" s="11">
-        <v>37630</v>
+        <v>50915</v>
       </c>
       <c r="T13" s="11">
-        <v>50915</v>
+        <v>29778</v>
       </c>
       <c r="U13" s="11">
-        <v>29778</v>
+        <v>44428</v>
       </c>
       <c r="V13" s="11">
-        <v>44428</v>
+        <v>39285</v>
       </c>
       <c r="W13" s="11">
-        <v>39285</v>
+        <v>39457</v>
       </c>
       <c r="X13" s="11">
-        <v>39457</v>
+        <v>42401</v>
       </c>
       <c r="Y13" s="11">
-        <v>42401</v>
+        <v>47020</v>
       </c>
       <c r="Z13" s="11">
-        <v>47020</v>
+        <v>39577</v>
       </c>
       <c r="AA13" s="11">
-        <v>39577</v>
+        <v>40962</v>
       </c>
       <c r="AB13" s="11">
-        <v>40962</v>
+        <v>52347</v>
       </c>
       <c r="AC13" s="11">
-        <v>52347</v>
+        <v>41300</v>
       </c>
       <c r="AD13" s="11">
-        <v>41300</v>
+        <v>36353</v>
       </c>
       <c r="AE13" s="11">
-        <v>36353</v>
-      </c>
-      <c r="AF13" s="11">
         <v>52632</v>
       </c>
+      <c r="AF13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AG13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1904,89 +1904,89 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>5685</v>
+        <v>4992</v>
       </c>
       <c r="F14" s="13">
-        <v>4992</v>
+        <v>5289</v>
       </c>
       <c r="G14" s="13">
-        <v>5289</v>
+        <v>4663</v>
       </c>
       <c r="H14" s="13">
-        <v>4663</v>
+        <v>4163</v>
       </c>
       <c r="I14" s="13">
-        <v>4163</v>
+        <v>6542</v>
       </c>
       <c r="J14" s="13">
-        <v>6542</v>
+        <v>4891</v>
       </c>
       <c r="K14" s="13">
-        <v>4891</v>
+        <v>4538</v>
       </c>
       <c r="L14" s="13">
-        <v>4538</v>
+        <v>5536</v>
       </c>
       <c r="M14" s="13">
-        <v>5536</v>
+        <v>5831</v>
       </c>
       <c r="N14" s="13">
-        <v>5831</v>
+        <v>3302</v>
       </c>
       <c r="O14" s="13">
-        <v>3302</v>
+        <v>4217</v>
       </c>
       <c r="P14" s="13">
-        <v>4217</v>
+        <v>3768</v>
       </c>
       <c r="Q14" s="13">
-        <v>3768</v>
+        <v>5029</v>
       </c>
       <c r="R14" s="13">
-        <v>5029</v>
+        <v>4355</v>
       </c>
       <c r="S14" s="13">
-        <v>4355</v>
+        <v>8691</v>
       </c>
       <c r="T14" s="13">
-        <v>8691</v>
+        <v>4825</v>
       </c>
       <c r="U14" s="13">
-        <v>4825</v>
+        <v>6392</v>
       </c>
       <c r="V14" s="13">
-        <v>6392</v>
+        <v>6043</v>
       </c>
       <c r="W14" s="13">
-        <v>6043</v>
+        <v>5928</v>
       </c>
       <c r="X14" s="13">
-        <v>5928</v>
+        <v>5662</v>
       </c>
       <c r="Y14" s="13">
-        <v>5662</v>
+        <v>6190</v>
       </c>
       <c r="Z14" s="13">
-        <v>6190</v>
+        <v>5319</v>
       </c>
       <c r="AA14" s="13">
-        <v>5319</v>
+        <v>5070</v>
       </c>
       <c r="AB14" s="13">
-        <v>5070</v>
+        <v>6431</v>
       </c>
       <c r="AC14" s="13">
-        <v>6431</v>
+        <v>5715</v>
       </c>
       <c r="AD14" s="13">
-        <v>5715</v>
+        <v>4694</v>
       </c>
       <c r="AE14" s="13">
-        <v>4694</v>
-      </c>
-      <c r="AF14" s="13">
         <v>6851</v>
       </c>
+      <c r="AF14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2143,77 +2143,77 @@
       <c r="AE15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF15" s="11" t="s">
-        <v>57</v>
+      <c r="AF15" s="11">
+        <v>1566</v>
       </c>
       <c r="AG15" s="11">
-        <v>1566</v>
+        <v>15969</v>
       </c>
       <c r="AH15" s="11">
-        <v>15969</v>
+        <v>3858</v>
       </c>
       <c r="AI15" s="11">
-        <v>3858</v>
+        <v>10085</v>
       </c>
       <c r="AJ15" s="11">
-        <v>10085</v>
+        <v>1758</v>
       </c>
       <c r="AK15" s="11">
-        <v>1758</v>
+        <v>13391</v>
       </c>
       <c r="AL15" s="11">
-        <v>13391</v>
+        <v>4344</v>
       </c>
       <c r="AM15" s="11">
-        <v>4344</v>
+        <v>20104</v>
       </c>
       <c r="AN15" s="11">
-        <v>20104</v>
+        <v>6385</v>
       </c>
       <c r="AO15" s="11">
-        <v>6385</v>
+        <v>3486</v>
       </c>
       <c r="AP15" s="11">
-        <v>3486</v>
+        <v>16925</v>
       </c>
       <c r="AQ15" s="11">
-        <v>16925</v>
+        <v>3556</v>
       </c>
       <c r="AR15" s="11">
-        <v>3556</v>
+        <v>8144</v>
       </c>
       <c r="AS15" s="11">
-        <v>8144</v>
+        <v>13716</v>
       </c>
       <c r="AT15" s="11">
-        <v>13716</v>
+        <v>11326</v>
       </c>
       <c r="AU15" s="11">
-        <v>11326</v>
+        <v>19751</v>
       </c>
       <c r="AV15" s="11">
-        <v>19751</v>
+        <v>7079</v>
       </c>
       <c r="AW15" s="11">
-        <v>7079</v>
+        <v>9745</v>
       </c>
       <c r="AX15" s="11">
-        <v>9745</v>
+        <v>6943</v>
       </c>
       <c r="AY15" s="11">
-        <v>6943</v>
+        <v>8082</v>
       </c>
       <c r="AZ15" s="11">
-        <v>8082</v>
+        <v>11657</v>
       </c>
       <c r="BA15" s="11">
-        <v>11657</v>
+        <v>7847</v>
       </c>
       <c r="BB15" s="11">
-        <v>7847</v>
+        <v>7853</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2363,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="13">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="BA16" s="13">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="BB16" s="13">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2461,77 +2461,77 @@
       <c r="AE17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF17" s="11" t="s">
-        <v>57</v>
+      <c r="AF17" s="11">
+        <v>5736</v>
       </c>
       <c r="AG17" s="11">
-        <v>5736</v>
+        <v>6399</v>
       </c>
       <c r="AH17" s="11">
-        <v>6399</v>
+        <v>4147</v>
       </c>
       <c r="AI17" s="11">
-        <v>4147</v>
+        <v>3532</v>
       </c>
       <c r="AJ17" s="11">
-        <v>3532</v>
+        <v>5456</v>
       </c>
       <c r="AK17" s="11">
-        <v>5456</v>
+        <v>7660</v>
       </c>
       <c r="AL17" s="11">
-        <v>7660</v>
+        <v>5187</v>
       </c>
       <c r="AM17" s="11">
-        <v>5187</v>
+        <v>7104</v>
       </c>
       <c r="AN17" s="11">
-        <v>7104</v>
+        <v>5894</v>
       </c>
       <c r="AO17" s="11">
-        <v>5894</v>
+        <v>5640</v>
       </c>
       <c r="AP17" s="11">
-        <v>5640</v>
+        <v>6552</v>
       </c>
       <c r="AQ17" s="11">
-        <v>6552</v>
+        <v>5669</v>
       </c>
       <c r="AR17" s="11">
-        <v>5669</v>
+        <v>5578</v>
       </c>
       <c r="AS17" s="11">
-        <v>5578</v>
+        <v>7005</v>
       </c>
       <c r="AT17" s="11">
-        <v>7005</v>
+        <v>5183</v>
       </c>
       <c r="AU17" s="11">
-        <v>5183</v>
+        <v>5337</v>
       </c>
       <c r="AV17" s="11">
-        <v>5337</v>
+        <v>6138</v>
       </c>
       <c r="AW17" s="11">
-        <v>6138</v>
+        <v>6285</v>
       </c>
       <c r="AX17" s="11">
-        <v>6285</v>
+        <v>5748</v>
       </c>
       <c r="AY17" s="11">
-        <v>5748</v>
+        <v>6611</v>
       </c>
       <c r="AZ17" s="11">
-        <v>6611</v>
+        <v>6380</v>
       </c>
       <c r="BA17" s="11">
-        <v>6380</v>
+        <v>4756</v>
       </c>
       <c r="BB17" s="11">
-        <v>4756</v>
+        <v>5415</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2620,77 +2620,77 @@
       <c r="AE18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF18" s="13" t="s">
-        <v>57</v>
+      <c r="AF18" s="13">
+        <v>1548</v>
       </c>
       <c r="AG18" s="13">
-        <v>1548</v>
+        <v>3795</v>
       </c>
       <c r="AH18" s="13">
-        <v>3795</v>
+        <v>3436</v>
       </c>
       <c r="AI18" s="13">
-        <v>3436</v>
+        <v>4486</v>
       </c>
       <c r="AJ18" s="13">
-        <v>4486</v>
+        <v>5615</v>
       </c>
       <c r="AK18" s="13">
-        <v>5615</v>
+        <v>6058</v>
       </c>
       <c r="AL18" s="13">
-        <v>6058</v>
+        <v>4559</v>
       </c>
       <c r="AM18" s="13">
-        <v>4559</v>
+        <v>4545</v>
       </c>
       <c r="AN18" s="13">
-        <v>4545</v>
+        <v>4982</v>
       </c>
       <c r="AO18" s="13">
-        <v>4982</v>
+        <v>5065</v>
       </c>
       <c r="AP18" s="13">
-        <v>5065</v>
+        <v>2471</v>
       </c>
       <c r="AQ18" s="13">
-        <v>2471</v>
+        <v>3479</v>
       </c>
       <c r="AR18" s="13">
-        <v>3479</v>
+        <v>2936</v>
       </c>
       <c r="AS18" s="13">
-        <v>2936</v>
+        <v>2349</v>
       </c>
       <c r="AT18" s="13">
-        <v>2349</v>
+        <v>2393</v>
       </c>
       <c r="AU18" s="13">
-        <v>2393</v>
+        <v>5053</v>
       </c>
       <c r="AV18" s="13">
-        <v>5053</v>
+        <v>4710</v>
       </c>
       <c r="AW18" s="13">
-        <v>4710</v>
+        <v>3467</v>
       </c>
       <c r="AX18" s="13">
-        <v>3467</v>
+        <v>4038</v>
       </c>
       <c r="AY18" s="13">
-        <v>4038</v>
+        <v>6550</v>
       </c>
       <c r="AZ18" s="13">
-        <v>6550</v>
+        <v>5486</v>
       </c>
       <c r="BA18" s="13">
-        <v>5486</v>
+        <v>6893</v>
       </c>
       <c r="BB18" s="13">
-        <v>6893</v>
+        <v>6922</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2779,77 +2779,77 @@
       <c r="AE19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF19" s="11" t="s">
-        <v>57</v>
+      <c r="AF19" s="11">
+        <v>2649</v>
       </c>
       <c r="AG19" s="11">
-        <v>2649</v>
+        <v>3850</v>
       </c>
       <c r="AH19" s="11">
-        <v>3850</v>
+        <v>3672</v>
       </c>
       <c r="AI19" s="11">
-        <v>3672</v>
+        <v>3306</v>
       </c>
       <c r="AJ19" s="11">
-        <v>3306</v>
+        <v>3341</v>
       </c>
       <c r="AK19" s="11">
-        <v>3341</v>
+        <v>5926</v>
       </c>
       <c r="AL19" s="11">
-        <v>5926</v>
+        <v>5166</v>
       </c>
       <c r="AM19" s="11">
-        <v>5166</v>
+        <v>5112</v>
       </c>
       <c r="AN19" s="11">
-        <v>5112</v>
+        <v>4548</v>
       </c>
       <c r="AO19" s="11">
-        <v>4548</v>
+        <v>4803</v>
       </c>
       <c r="AP19" s="11">
-        <v>4803</v>
+        <v>5482</v>
       </c>
       <c r="AQ19" s="11">
-        <v>5482</v>
+        <v>4383</v>
       </c>
       <c r="AR19" s="11">
-        <v>4383</v>
+        <v>3642</v>
       </c>
       <c r="AS19" s="11">
-        <v>3642</v>
+        <v>3803</v>
       </c>
       <c r="AT19" s="11">
-        <v>3803</v>
+        <v>3075</v>
       </c>
       <c r="AU19" s="11">
-        <v>3075</v>
+        <v>5003</v>
       </c>
       <c r="AV19" s="11">
-        <v>5003</v>
+        <v>5637</v>
       </c>
       <c r="AW19" s="11">
-        <v>5637</v>
+        <v>6455</v>
       </c>
       <c r="AX19" s="11">
-        <v>6455</v>
+        <v>5073</v>
       </c>
       <c r="AY19" s="11">
-        <v>5073</v>
+        <v>4394</v>
       </c>
       <c r="AZ19" s="11">
-        <v>4394</v>
+        <v>4998</v>
       </c>
       <c r="BA19" s="11">
-        <v>4998</v>
+        <v>5346</v>
       </c>
       <c r="BB19" s="11">
-        <v>5346</v>
+        <v>4697</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2938,77 +2938,77 @@
       <c r="AE20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF20" s="13" t="s">
-        <v>57</v>
+      <c r="AF20" s="13">
+        <v>1957</v>
       </c>
       <c r="AG20" s="13">
-        <v>1957</v>
+        <v>2273</v>
       </c>
       <c r="AH20" s="13">
-        <v>2273</v>
+        <v>2234</v>
       </c>
       <c r="AI20" s="13">
-        <v>2234</v>
+        <v>1571</v>
       </c>
       <c r="AJ20" s="13">
-        <v>1571</v>
+        <v>1951</v>
       </c>
       <c r="AK20" s="13">
-        <v>1951</v>
+        <v>3277</v>
       </c>
       <c r="AL20" s="13">
-        <v>3277</v>
+        <v>2530</v>
       </c>
       <c r="AM20" s="13">
-        <v>2530</v>
+        <v>3085</v>
       </c>
       <c r="AN20" s="13">
-        <v>3085</v>
+        <v>3299</v>
       </c>
       <c r="AO20" s="13">
-        <v>3299</v>
+        <v>2949</v>
       </c>
       <c r="AP20" s="13">
-        <v>2949</v>
+        <v>3273</v>
       </c>
       <c r="AQ20" s="13">
-        <v>3273</v>
+        <v>2851</v>
       </c>
       <c r="AR20" s="13">
-        <v>2851</v>
+        <v>1888</v>
       </c>
       <c r="AS20" s="13">
-        <v>1888</v>
+        <v>3904</v>
       </c>
       <c r="AT20" s="13">
-        <v>3904</v>
+        <v>2261</v>
       </c>
       <c r="AU20" s="13">
-        <v>2261</v>
+        <v>1814</v>
       </c>
       <c r="AV20" s="13">
-        <v>1814</v>
+        <v>2309</v>
       </c>
       <c r="AW20" s="13">
-        <v>2309</v>
+        <v>2519</v>
       </c>
       <c r="AX20" s="13">
-        <v>2519</v>
+        <v>2053</v>
       </c>
       <c r="AY20" s="13">
-        <v>2053</v>
+        <v>2664</v>
       </c>
       <c r="AZ20" s="13">
-        <v>2664</v>
+        <v>2704</v>
       </c>
       <c r="BA20" s="13">
-        <v>2704</v>
+        <v>3124</v>
       </c>
       <c r="BB20" s="13">
-        <v>3124</v>
+        <v>3067</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3097,77 +3097,77 @@
       <c r="AE21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF21" s="11" t="s">
-        <v>57</v>
+      <c r="AF21" s="11">
+        <v>13596</v>
       </c>
       <c r="AG21" s="11">
-        <v>13596</v>
+        <v>12436</v>
       </c>
       <c r="AH21" s="11">
-        <v>12436</v>
+        <v>13550</v>
       </c>
       <c r="AI21" s="11">
-        <v>13550</v>
+        <v>6573</v>
       </c>
       <c r="AJ21" s="11">
-        <v>6573</v>
+        <v>14443</v>
       </c>
       <c r="AK21" s="11">
-        <v>14443</v>
+        <v>13010</v>
       </c>
       <c r="AL21" s="11">
-        <v>13010</v>
+        <v>8877</v>
       </c>
       <c r="AM21" s="11">
-        <v>8877</v>
+        <v>18295</v>
       </c>
       <c r="AN21" s="11">
-        <v>18295</v>
+        <v>22341</v>
       </c>
       <c r="AO21" s="11">
-        <v>22341</v>
+        <v>14368</v>
       </c>
       <c r="AP21" s="11">
-        <v>14368</v>
+        <v>16297</v>
       </c>
       <c r="AQ21" s="11">
-        <v>16297</v>
+        <v>10097</v>
       </c>
       <c r="AR21" s="11">
-        <v>10097</v>
+        <v>16358</v>
       </c>
       <c r="AS21" s="11">
-        <v>16358</v>
+        <v>17207</v>
       </c>
       <c r="AT21" s="11">
-        <v>17207</v>
+        <v>16980</v>
       </c>
       <c r="AU21" s="11">
-        <v>16980</v>
+        <v>8881</v>
       </c>
       <c r="AV21" s="11">
-        <v>8881</v>
+        <v>15862</v>
       </c>
       <c r="AW21" s="11">
-        <v>15862</v>
+        <v>13292</v>
       </c>
       <c r="AX21" s="11">
-        <v>13292</v>
+        <v>12712</v>
       </c>
       <c r="AY21" s="11">
-        <v>12712</v>
+        <v>14408</v>
       </c>
       <c r="AZ21" s="11">
-        <v>14408</v>
+        <v>13271</v>
       </c>
       <c r="BA21" s="11">
-        <v>13271</v>
+        <v>15468</v>
       </c>
       <c r="BB21" s="11">
-        <v>15468</v>
+        <v>12532</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>68</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="BA22" s="15"/>
       <c r="BB22" s="15"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3284,8 +3284,8 @@
       <c r="V23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W23" s="17" t="s">
-        <v>57</v>
+      <c r="W23" s="17">
+        <v>0</v>
       </c>
       <c r="X23" s="17">
         <v>0</v>
@@ -3381,164 +3381,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19">
-        <v>38988</v>
+        <v>45117</v>
       </c>
       <c r="F24" s="19">
-        <v>45117</v>
+        <v>51138</v>
       </c>
       <c r="G24" s="19">
-        <v>51138</v>
+        <v>54337</v>
       </c>
       <c r="H24" s="19">
-        <v>54337</v>
+        <v>36080</v>
       </c>
       <c r="I24" s="19">
-        <v>36080</v>
+        <v>37522</v>
       </c>
       <c r="J24" s="19">
-        <v>37522</v>
+        <v>42359</v>
       </c>
       <c r="K24" s="19">
-        <v>42359</v>
+        <v>45147</v>
       </c>
       <c r="L24" s="19">
-        <v>45147</v>
+        <v>40556</v>
       </c>
       <c r="M24" s="19">
-        <v>40556</v>
+        <v>46105</v>
       </c>
       <c r="N24" s="19">
-        <v>46105</v>
+        <v>43566</v>
       </c>
       <c r="O24" s="19">
-        <v>43566</v>
+        <v>53558</v>
       </c>
       <c r="P24" s="19">
-        <v>53558</v>
+        <v>53448</v>
       </c>
       <c r="Q24" s="19">
-        <v>53448</v>
+        <v>46639</v>
       </c>
       <c r="R24" s="19">
-        <v>46639</v>
+        <v>42006</v>
       </c>
       <c r="S24" s="19">
-        <v>42006</v>
+        <v>59606</v>
       </c>
       <c r="T24" s="19">
-        <v>59606</v>
+        <v>34603</v>
       </c>
       <c r="U24" s="19">
-        <v>34603</v>
+        <v>50844</v>
       </c>
       <c r="V24" s="19">
-        <v>50844</v>
+        <v>45328</v>
       </c>
       <c r="W24" s="19">
-        <v>45328</v>
+        <v>45895</v>
       </c>
       <c r="X24" s="19">
-        <v>45895</v>
+        <v>48147</v>
       </c>
       <c r="Y24" s="19">
-        <v>48147</v>
+        <v>53542</v>
       </c>
       <c r="Z24" s="19">
-        <v>53542</v>
+        <v>44985</v>
       </c>
       <c r="AA24" s="19">
-        <v>44985</v>
+        <v>46032</v>
       </c>
       <c r="AB24" s="19">
-        <v>46032</v>
+        <v>58961</v>
       </c>
       <c r="AC24" s="19">
-        <v>58961</v>
+        <v>47059</v>
       </c>
       <c r="AD24" s="19">
-        <v>47059</v>
+        <v>41047</v>
       </c>
       <c r="AE24" s="19">
-        <v>41047</v>
+        <v>59493</v>
       </c>
       <c r="AF24" s="19">
-        <v>59493</v>
+        <v>37874</v>
       </c>
       <c r="AG24" s="19">
-        <v>37874</v>
+        <v>57915</v>
       </c>
       <c r="AH24" s="19">
-        <v>57915</v>
+        <v>40075</v>
       </c>
       <c r="AI24" s="19">
-        <v>40075</v>
+        <v>37481</v>
       </c>
       <c r="AJ24" s="19">
-        <v>37481</v>
+        <v>42014</v>
       </c>
       <c r="AK24" s="19">
-        <v>42014</v>
+        <v>62658</v>
       </c>
       <c r="AL24" s="19">
-        <v>62658</v>
+        <v>37443</v>
       </c>
       <c r="AM24" s="19">
-        <v>37443</v>
+        <v>65849</v>
       </c>
       <c r="AN24" s="19">
-        <v>65849</v>
+        <v>56167</v>
       </c>
       <c r="AO24" s="19">
-        <v>56167</v>
+        <v>43588</v>
       </c>
       <c r="AP24" s="19">
-        <v>43588</v>
+        <v>57529</v>
       </c>
       <c r="AQ24" s="19">
-        <v>57529</v>
+        <v>34198</v>
       </c>
       <c r="AR24" s="19">
-        <v>34198</v>
+        <v>46602</v>
       </c>
       <c r="AS24" s="19">
-        <v>46602</v>
+        <v>60089</v>
       </c>
       <c r="AT24" s="19">
-        <v>60089</v>
+        <v>48576</v>
       </c>
       <c r="AU24" s="19">
-        <v>48576</v>
+        <v>50753</v>
       </c>
       <c r="AV24" s="19">
-        <v>50753</v>
+        <v>53796</v>
       </c>
       <c r="AW24" s="19">
-        <v>53796</v>
+        <v>51708</v>
       </c>
       <c r="AX24" s="19">
-        <v>51708</v>
+        <v>47427</v>
       </c>
       <c r="AY24" s="19">
-        <v>47427</v>
+        <v>49805</v>
       </c>
       <c r="AZ24" s="19">
-        <v>49805</v>
+        <v>49710</v>
       </c>
       <c r="BA24" s="19">
-        <v>49710</v>
+        <v>50501</v>
       </c>
       <c r="BB24" s="19">
-        <v>50501</v>
+        <v>47441</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3593,7 +3593,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3648,7 +3648,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3703,7 +3703,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>71</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3915,7 +3915,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>71</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -4061,77 +4061,77 @@
       <c r="AE31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF31" s="11" t="s">
-        <v>57</v>
+      <c r="AF31" s="11">
+        <v>10822</v>
       </c>
       <c r="AG31" s="11">
-        <v>10822</v>
+        <v>13099</v>
       </c>
       <c r="AH31" s="11">
-        <v>13099</v>
+        <v>8769</v>
       </c>
       <c r="AI31" s="11">
-        <v>8769</v>
+        <v>7390</v>
       </c>
       <c r="AJ31" s="11">
-        <v>7390</v>
+        <v>9096</v>
       </c>
       <c r="AK31" s="11">
-        <v>9096</v>
+        <v>13232</v>
       </c>
       <c r="AL31" s="11">
-        <v>13232</v>
+        <v>6668</v>
       </c>
       <c r="AM31" s="11">
-        <v>6668</v>
+        <v>6575</v>
       </c>
       <c r="AN31" s="11">
-        <v>6575</v>
+        <v>8476</v>
       </c>
       <c r="AO31" s="11">
-        <v>8476</v>
+        <v>7243</v>
       </c>
       <c r="AP31" s="11">
-        <v>7243</v>
+        <v>6123</v>
       </c>
       <c r="AQ31" s="11">
-        <v>6123</v>
+        <v>13944</v>
       </c>
       <c r="AR31" s="11">
-        <v>13944</v>
+        <v>8056</v>
       </c>
       <c r="AS31" s="11">
-        <v>8056</v>
+        <v>11939</v>
       </c>
       <c r="AT31" s="11">
-        <v>11939</v>
+        <v>7250</v>
       </c>
       <c r="AU31" s="11">
-        <v>7250</v>
+        <v>4914</v>
       </c>
       <c r="AV31" s="11">
+        <v>11626</v>
+      </c>
+      <c r="AW31" s="11">
+        <v>9591</v>
+      </c>
+      <c r="AX31" s="11">
+        <v>10473</v>
+      </c>
+      <c r="AY31" s="11">
+        <v>6997</v>
+      </c>
+      <c r="AZ31" s="11">
         <v>4914</v>
       </c>
-      <c r="AW31" s="11">
-        <v>11626</v>
-      </c>
-      <c r="AX31" s="11">
-        <v>9591</v>
-      </c>
-      <c r="AY31" s="11">
-        <v>10473</v>
-      </c>
-      <c r="AZ31" s="11">
-        <v>6997</v>
-      </c>
       <c r="BA31" s="11">
-        <v>4914</v>
+        <v>6985</v>
       </c>
       <c r="BB31" s="11">
-        <v>6985</v>
+        <v>6911</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
@@ -4140,157 +4140,157 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="F32" s="13">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G32" s="13">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H32" s="13">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I32" s="13">
+        <v>9</v>
+      </c>
+      <c r="J32" s="13">
+        <v>76</v>
+      </c>
+      <c r="K32" s="13">
+        <v>2</v>
+      </c>
+      <c r="L32" s="13">
+        <v>109</v>
+      </c>
+      <c r="M32" s="13">
+        <v>303</v>
+      </c>
+      <c r="N32" s="13">
+        <v>244</v>
+      </c>
+      <c r="O32" s="13">
+        <v>208</v>
+      </c>
+      <c r="P32" s="13">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>56</v>
+      </c>
+      <c r="R32" s="13">
+        <v>76</v>
+      </c>
+      <c r="S32" s="13">
+        <v>24</v>
+      </c>
+      <c r="T32" s="13">
         <v>1</v>
       </c>
-      <c r="J32" s="13">
-        <v>9</v>
-      </c>
-      <c r="K32" s="13">
-        <v>76</v>
-      </c>
-      <c r="L32" s="13">
-        <v>2</v>
-      </c>
-      <c r="M32" s="13">
-        <v>109</v>
-      </c>
-      <c r="N32" s="13">
-        <v>303</v>
-      </c>
-      <c r="O32" s="13">
-        <v>244</v>
-      </c>
-      <c r="P32" s="13">
-        <v>208</v>
-      </c>
-      <c r="Q32" s="13">
-        <v>76</v>
-      </c>
-      <c r="R32" s="13">
-        <v>56</v>
-      </c>
-      <c r="S32" s="13">
-        <v>76</v>
-      </c>
-      <c r="T32" s="13">
-        <v>24</v>
-      </c>
       <c r="U32" s="13">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="V32" s="13">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="W32" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X32" s="13">
+        <v>310</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>482</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>335</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>104</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>70</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>154</v>
+      </c>
+      <c r="AD32" s="13">
         <v>20</v>
       </c>
-      <c r="Y32" s="13">
-        <v>310</v>
-      </c>
-      <c r="Z32" s="13">
-        <v>482</v>
-      </c>
-      <c r="AA32" s="13">
-        <v>335</v>
-      </c>
-      <c r="AB32" s="13">
-        <v>104</v>
-      </c>
-      <c r="AC32" s="13">
-        <v>70</v>
-      </c>
-      <c r="AD32" s="13">
-        <v>154</v>
-      </c>
       <c r="AE32" s="13">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AF32" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG32" s="13">
         <v>4</v>
       </c>
       <c r="AH32" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI32" s="13">
+        <v>26</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>137</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>921</v>
+      </c>
+      <c r="AL32" s="13">
+        <v>213</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>325</v>
+      </c>
+      <c r="AN32" s="13">
+        <v>74</v>
+      </c>
+      <c r="AO32" s="13">
+        <v>181</v>
+      </c>
+      <c r="AP32" s="13">
+        <v>20</v>
+      </c>
+      <c r="AQ32" s="13">
         <v>5</v>
       </c>
-      <c r="AJ32" s="13">
-        <v>26</v>
-      </c>
-      <c r="AK32" s="13">
-        <v>137</v>
-      </c>
-      <c r="AL32" s="13">
-        <v>921</v>
-      </c>
-      <c r="AM32" s="13">
-        <v>213</v>
-      </c>
-      <c r="AN32" s="13">
-        <v>325</v>
-      </c>
-      <c r="AO32" s="13">
-        <v>74</v>
-      </c>
-      <c r="AP32" s="13">
-        <v>181</v>
-      </c>
-      <c r="AQ32" s="13">
-        <v>20</v>
-      </c>
       <c r="AR32" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS32" s="13">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="AT32" s="13">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AU32" s="13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AV32" s="13">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="AW32" s="13">
-        <v>169</v>
+        <v>409</v>
       </c>
       <c r="AX32" s="13">
-        <v>409</v>
+        <v>296</v>
       </c>
       <c r="AY32" s="13">
-        <v>296</v>
+        <v>479</v>
       </c>
       <c r="AZ32" s="13">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="BA32" s="13">
         <v>80</v>
       </c>
       <c r="BB32" s="13">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
@@ -4299,89 +4299,89 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>32300</v>
+        <v>37680</v>
       </c>
       <c r="F33" s="11">
-        <v>37680</v>
+        <v>44672</v>
       </c>
       <c r="G33" s="11">
-        <v>44672</v>
+        <v>54990</v>
       </c>
       <c r="H33" s="11">
-        <v>54990</v>
+        <v>28501</v>
       </c>
       <c r="I33" s="11">
-        <v>28501</v>
+        <v>29206</v>
       </c>
       <c r="J33" s="11">
-        <v>29206</v>
+        <v>38929</v>
       </c>
       <c r="K33" s="11">
-        <v>38929</v>
+        <v>38470</v>
       </c>
       <c r="L33" s="11">
-        <v>38470</v>
+        <v>32919</v>
       </c>
       <c r="M33" s="11">
-        <v>32919</v>
+        <v>40733</v>
       </c>
       <c r="N33" s="11">
-        <v>40733</v>
+        <v>37643</v>
       </c>
       <c r="O33" s="11">
-        <v>37643</v>
+        <v>49654</v>
       </c>
       <c r="P33" s="11">
-        <v>49654</v>
+        <v>50393</v>
       </c>
       <c r="Q33" s="11">
-        <v>50393</v>
+        <v>41118</v>
       </c>
       <c r="R33" s="11">
-        <v>41118</v>
+        <v>37224</v>
       </c>
       <c r="S33" s="11">
-        <v>37224</v>
+        <v>54854</v>
       </c>
       <c r="T33" s="11">
-        <v>54854</v>
+        <v>17383</v>
       </c>
       <c r="U33" s="11">
-        <v>17383</v>
+        <v>51503</v>
       </c>
       <c r="V33" s="11">
-        <v>51503</v>
+        <v>42333</v>
       </c>
       <c r="W33" s="11">
-        <v>42333</v>
+        <v>43797</v>
       </c>
       <c r="X33" s="11">
-        <v>43797</v>
+        <v>38319</v>
       </c>
       <c r="Y33" s="11">
-        <v>38319</v>
+        <v>47425</v>
       </c>
       <c r="Z33" s="11">
-        <v>47425</v>
+        <v>40787</v>
       </c>
       <c r="AA33" s="11">
-        <v>40787</v>
+        <v>40000</v>
       </c>
       <c r="AB33" s="11">
-        <v>40000</v>
+        <v>55146</v>
       </c>
       <c r="AC33" s="11">
-        <v>55146</v>
+        <v>43618</v>
       </c>
       <c r="AD33" s="11">
-        <v>43618</v>
+        <v>34250</v>
       </c>
       <c r="AE33" s="11">
-        <v>34250</v>
-      </c>
-      <c r="AF33" s="11">
         <v>55122</v>
       </c>
+      <c r="AF33" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AG33" s="11" t="s">
         <v>57</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
@@ -4458,89 +4458,89 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>5303</v>
+        <v>4825</v>
       </c>
       <c r="F34" s="13">
-        <v>4825</v>
+        <v>5382</v>
       </c>
       <c r="G34" s="13">
-        <v>5382</v>
+        <v>5050</v>
       </c>
       <c r="H34" s="13">
-        <v>5050</v>
+        <v>3557</v>
       </c>
       <c r="I34" s="13">
-        <v>3557</v>
+        <v>6557</v>
       </c>
       <c r="J34" s="13">
-        <v>6557</v>
+        <v>5253</v>
       </c>
       <c r="K34" s="13">
-        <v>5253</v>
+        <v>4714</v>
       </c>
       <c r="L34" s="13">
-        <v>4714</v>
+        <v>3415</v>
       </c>
       <c r="M34" s="13">
-        <v>3415</v>
+        <v>4496</v>
       </c>
       <c r="N34" s="13">
-        <v>4496</v>
+        <v>4890</v>
       </c>
       <c r="O34" s="13">
-        <v>4890</v>
+        <v>3628</v>
       </c>
       <c r="P34" s="13">
-        <v>3628</v>
+        <v>4077</v>
       </c>
       <c r="Q34" s="13">
-        <v>4077</v>
+        <v>4926</v>
       </c>
       <c r="R34" s="13">
-        <v>4926</v>
+        <v>4092</v>
       </c>
       <c r="S34" s="13">
-        <v>4092</v>
+        <v>7382</v>
       </c>
       <c r="T34" s="13">
-        <v>7382</v>
+        <v>3036</v>
       </c>
       <c r="U34" s="13">
-        <v>3036</v>
+        <v>6429</v>
       </c>
       <c r="V34" s="13">
-        <v>6429</v>
+        <v>7708</v>
       </c>
       <c r="W34" s="13">
-        <v>7708</v>
+        <v>7156</v>
       </c>
       <c r="X34" s="13">
-        <v>7156</v>
+        <v>10048</v>
       </c>
       <c r="Y34" s="13">
-        <v>10048</v>
+        <v>8474</v>
       </c>
       <c r="Z34" s="13">
-        <v>8474</v>
+        <v>5079</v>
       </c>
       <c r="AA34" s="13">
-        <v>5079</v>
+        <v>4968</v>
       </c>
       <c r="AB34" s="13">
-        <v>4968</v>
+        <v>6430</v>
       </c>
       <c r="AC34" s="13">
-        <v>6430</v>
+        <v>5321</v>
       </c>
       <c r="AD34" s="13">
-        <v>5321</v>
+        <v>4445</v>
       </c>
       <c r="AE34" s="13">
-        <v>4445</v>
-      </c>
-      <c r="AF34" s="13">
         <v>7033</v>
       </c>
+      <c r="AF34" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG34" s="13" t="s">
         <v>57</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>61</v>
       </c>
@@ -4697,77 +4697,77 @@
       <c r="AE35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF35" s="11" t="s">
-        <v>57</v>
+      <c r="AF35" s="11">
+        <v>2381</v>
       </c>
       <c r="AG35" s="11">
-        <v>2381</v>
+        <v>16052</v>
       </c>
       <c r="AH35" s="11">
-        <v>16052</v>
+        <v>3858</v>
       </c>
       <c r="AI35" s="11">
-        <v>3858</v>
+        <v>10085</v>
       </c>
       <c r="AJ35" s="11">
-        <v>10085</v>
+        <v>2126</v>
       </c>
       <c r="AK35" s="11">
-        <v>2126</v>
+        <v>13848</v>
       </c>
       <c r="AL35" s="11">
-        <v>13848</v>
+        <v>4747</v>
       </c>
       <c r="AM35" s="11">
-        <v>4747</v>
+        <v>20607</v>
       </c>
       <c r="AN35" s="11">
-        <v>20607</v>
+        <v>7278</v>
       </c>
       <c r="AO35" s="11">
-        <v>7278</v>
+        <v>4063</v>
       </c>
       <c r="AP35" s="11">
-        <v>4063</v>
+        <v>17461</v>
       </c>
       <c r="AQ35" s="11">
-        <v>17461</v>
+        <v>4352</v>
       </c>
       <c r="AR35" s="11">
-        <v>4352</v>
+        <v>8161</v>
       </c>
       <c r="AS35" s="11">
-        <v>8161</v>
+        <v>14500</v>
       </c>
       <c r="AT35" s="11">
-        <v>14500</v>
+        <v>11326</v>
       </c>
       <c r="AU35" s="11">
-        <v>11326</v>
+        <v>19751</v>
       </c>
       <c r="AV35" s="11">
-        <v>19751</v>
+        <v>7079</v>
       </c>
       <c r="AW35" s="11">
-        <v>7079</v>
+        <v>12354</v>
       </c>
       <c r="AX35" s="11">
-        <v>12354</v>
+        <v>6943</v>
       </c>
       <c r="AY35" s="11">
-        <v>6943</v>
+        <v>8082</v>
       </c>
       <c r="AZ35" s="11">
-        <v>8082</v>
+        <v>11657</v>
       </c>
       <c r="BA35" s="11">
-        <v>11657</v>
+        <v>7847</v>
       </c>
       <c r="BB35" s="11">
-        <v>7847</v>
+        <v>7853</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>62</v>
       </c>
@@ -4776,157 +4776,157 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F36" s="13">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G36" s="13">
+        <v>150</v>
+      </c>
+      <c r="H36" s="13">
+        <v>41</v>
+      </c>
+      <c r="I36" s="13">
+        <v>87</v>
+      </c>
+      <c r="J36" s="13">
+        <v>27</v>
+      </c>
+      <c r="K36" s="13">
+        <v>12</v>
+      </c>
+      <c r="L36" s="13">
+        <v>45</v>
+      </c>
+      <c r="M36" s="13">
+        <v>34</v>
+      </c>
+      <c r="N36" s="13">
+        <v>55</v>
+      </c>
+      <c r="O36" s="13">
+        <v>24</v>
+      </c>
+      <c r="P36" s="13">
+        <v>41</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>31</v>
+      </c>
+      <c r="R36" s="13">
+        <v>28</v>
+      </c>
+      <c r="S36" s="13">
+        <v>14</v>
+      </c>
+      <c r="T36" s="13">
+        <v>2</v>
+      </c>
+      <c r="U36" s="13">
+        <v>20</v>
+      </c>
+      <c r="V36" s="13">
+        <v>94</v>
+      </c>
+      <c r="W36" s="13">
+        <v>71</v>
+      </c>
+      <c r="X36" s="13">
+        <v>142</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>151</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>170</v>
+      </c>
+      <c r="AA36" s="13">
+        <v>101</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>26</v>
+      </c>
+      <c r="AC36" s="13">
+        <v>69</v>
+      </c>
+      <c r="AD36" s="13">
+        <v>98</v>
+      </c>
+      <c r="AE36" s="13">
+        <v>88</v>
+      </c>
+      <c r="AF36" s="13">
+        <v>43</v>
+      </c>
+      <c r="AG36" s="13">
+        <v>14</v>
+      </c>
+      <c r="AH36" s="13">
+        <v>30</v>
+      </c>
+      <c r="AI36" s="13">
+        <v>24</v>
+      </c>
+      <c r="AJ36" s="13">
+        <v>60</v>
+      </c>
+      <c r="AK36" s="13">
         <v>48</v>
       </c>
-      <c r="H36" s="13">
-        <v>150</v>
-      </c>
-      <c r="I36" s="13">
-        <v>41</v>
-      </c>
-      <c r="J36" s="13">
-        <v>87</v>
-      </c>
-      <c r="K36" s="13">
-        <v>27</v>
-      </c>
-      <c r="L36" s="13">
-        <v>12</v>
-      </c>
-      <c r="M36" s="13">
-        <v>45</v>
-      </c>
-      <c r="N36" s="13">
+      <c r="AL36" s="13">
         <v>34</v>
       </c>
-      <c r="O36" s="13">
-        <v>55</v>
-      </c>
-      <c r="P36" s="13">
+      <c r="AM36" s="13">
         <v>24</v>
       </c>
-      <c r="Q36" s="13">
-        <v>41</v>
-      </c>
-      <c r="R36" s="13">
+      <c r="AN36" s="13">
+        <v>149</v>
+      </c>
+      <c r="AO36" s="13">
+        <v>143</v>
+      </c>
+      <c r="AP36" s="13">
+        <v>181</v>
+      </c>
+      <c r="AQ36" s="13">
+        <v>109</v>
+      </c>
+      <c r="AR36" s="13">
+        <v>25</v>
+      </c>
+      <c r="AS36" s="13">
+        <v>46</v>
+      </c>
+      <c r="AT36" s="13">
         <v>31</v>
       </c>
-      <c r="S36" s="13">
-        <v>28</v>
-      </c>
-      <c r="T36" s="13">
-        <v>14</v>
-      </c>
-      <c r="U36" s="13">
-        <v>2</v>
-      </c>
-      <c r="V36" s="13">
-        <v>20</v>
-      </c>
-      <c r="W36" s="13">
-        <v>94</v>
-      </c>
-      <c r="X36" s="13">
-        <v>71</v>
-      </c>
-      <c r="Y36" s="13">
-        <v>142</v>
-      </c>
-      <c r="Z36" s="13">
-        <v>151</v>
-      </c>
-      <c r="AA36" s="13">
-        <v>170</v>
-      </c>
-      <c r="AB36" s="13">
-        <v>101</v>
-      </c>
-      <c r="AC36" s="13">
-        <v>26</v>
-      </c>
-      <c r="AD36" s="13">
-        <v>69</v>
-      </c>
-      <c r="AE36" s="13">
-        <v>98</v>
-      </c>
-      <c r="AF36" s="13">
-        <v>88</v>
-      </c>
-      <c r="AG36" s="13">
-        <v>43</v>
-      </c>
-      <c r="AH36" s="13">
-        <v>14</v>
-      </c>
-      <c r="AI36" s="13">
-        <v>30</v>
-      </c>
-      <c r="AJ36" s="13">
-        <v>24</v>
-      </c>
-      <c r="AK36" s="13">
-        <v>60</v>
-      </c>
-      <c r="AL36" s="13">
-        <v>48</v>
-      </c>
-      <c r="AM36" s="13">
-        <v>34</v>
-      </c>
-      <c r="AN36" s="13">
-        <v>24</v>
-      </c>
-      <c r="AO36" s="13">
-        <v>149</v>
-      </c>
-      <c r="AP36" s="13">
-        <v>143</v>
-      </c>
-      <c r="AQ36" s="13">
-        <v>181</v>
-      </c>
-      <c r="AR36" s="13">
-        <v>109</v>
-      </c>
-      <c r="AS36" s="13">
-        <v>25</v>
-      </c>
-      <c r="AT36" s="13">
-        <v>46</v>
-      </c>
       <c r="AU36" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AV36" s="13">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="AW36" s="13">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="AX36" s="13">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="AY36" s="13">
-        <v>177</v>
+        <v>318</v>
       </c>
       <c r="AZ36" s="13">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="BA36" s="13">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="BB36" s="13">
-        <v>222</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>63</v>
       </c>
@@ -5015,77 +5015,77 @@
       <c r="AE37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF37" s="11" t="s">
-        <v>57</v>
+      <c r="AF37" s="11">
+        <v>4936</v>
       </c>
       <c r="AG37" s="11">
-        <v>4936</v>
+        <v>5654</v>
       </c>
       <c r="AH37" s="11">
-        <v>5654</v>
+        <v>4239</v>
       </c>
       <c r="AI37" s="11">
-        <v>4239</v>
+        <v>4015</v>
       </c>
       <c r="AJ37" s="11">
-        <v>4015</v>
+        <v>5313</v>
       </c>
       <c r="AK37" s="11">
-        <v>5313</v>
+        <v>7573</v>
       </c>
       <c r="AL37" s="11">
-        <v>7573</v>
+        <v>5043</v>
       </c>
       <c r="AM37" s="11">
-        <v>5043</v>
+        <v>7174</v>
       </c>
       <c r="AN37" s="11">
-        <v>7174</v>
+        <v>5632</v>
       </c>
       <c r="AO37" s="11">
-        <v>5632</v>
+        <v>5179</v>
       </c>
       <c r="AP37" s="11">
-        <v>5179</v>
+        <v>6903</v>
       </c>
       <c r="AQ37" s="11">
-        <v>6903</v>
+        <v>5039</v>
       </c>
       <c r="AR37" s="11">
-        <v>5039</v>
+        <v>5382</v>
       </c>
       <c r="AS37" s="11">
-        <v>5382</v>
+        <v>7314</v>
       </c>
       <c r="AT37" s="11">
-        <v>7314</v>
+        <v>5084</v>
       </c>
       <c r="AU37" s="11">
-        <v>5084</v>
+        <v>4052</v>
       </c>
       <c r="AV37" s="11">
-        <v>4052</v>
+        <v>5311</v>
       </c>
       <c r="AW37" s="11">
-        <v>5311</v>
+        <v>6270</v>
       </c>
       <c r="AX37" s="11">
-        <v>6270</v>
+        <v>5736</v>
       </c>
       <c r="AY37" s="11">
-        <v>5736</v>
+        <v>7066</v>
       </c>
       <c r="AZ37" s="11">
-        <v>7066</v>
+        <v>5734</v>
       </c>
       <c r="BA37" s="11">
-        <v>5734</v>
+        <v>4918</v>
       </c>
       <c r="BB37" s="11">
-        <v>4918</v>
+        <v>5545</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>64</v>
       </c>
@@ -5174,77 +5174,77 @@
       <c r="AE38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF38" s="13" t="s">
-        <v>57</v>
+      <c r="AF38" s="13">
+        <v>1973</v>
       </c>
       <c r="AG38" s="13">
-        <v>1973</v>
+        <v>3376</v>
       </c>
       <c r="AH38" s="13">
-        <v>3376</v>
+        <v>3225</v>
       </c>
       <c r="AI38" s="13">
-        <v>3225</v>
+        <v>5328</v>
       </c>
       <c r="AJ38" s="13">
-        <v>5328</v>
+        <v>5190</v>
       </c>
       <c r="AK38" s="13">
-        <v>5190</v>
+        <v>7862</v>
       </c>
       <c r="AL38" s="13">
-        <v>7862</v>
+        <v>4838</v>
       </c>
       <c r="AM38" s="13">
-        <v>4838</v>
+        <v>4883</v>
       </c>
       <c r="AN38" s="13">
-        <v>4883</v>
+        <v>4559</v>
       </c>
       <c r="AO38" s="13">
-        <v>4559</v>
+        <v>5124</v>
       </c>
       <c r="AP38" s="13">
-        <v>5124</v>
+        <v>3683</v>
       </c>
       <c r="AQ38" s="13">
-        <v>3683</v>
+        <v>4612</v>
       </c>
       <c r="AR38" s="13">
-        <v>4612</v>
+        <v>1374</v>
       </c>
       <c r="AS38" s="13">
-        <v>1374</v>
+        <v>2682</v>
       </c>
       <c r="AT38" s="13">
-        <v>2682</v>
+        <v>3204</v>
       </c>
       <c r="AU38" s="13">
-        <v>3204</v>
+        <v>6161</v>
       </c>
       <c r="AV38" s="13">
-        <v>6161</v>
+        <v>6704</v>
       </c>
       <c r="AW38" s="13">
-        <v>6704</v>
+        <v>5896</v>
       </c>
       <c r="AX38" s="13">
-        <v>5896</v>
+        <v>4891</v>
       </c>
       <c r="AY38" s="13">
-        <v>4891</v>
+        <v>6784</v>
       </c>
       <c r="AZ38" s="13">
-        <v>6784</v>
+        <v>5776</v>
       </c>
       <c r="BA38" s="13">
-        <v>5776</v>
+        <v>5586</v>
       </c>
       <c r="BB38" s="13">
-        <v>5586</v>
+        <v>7246</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>65</v>
       </c>
@@ -5333,77 +5333,77 @@
       <c r="AE39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF39" s="11" t="s">
-        <v>57</v>
+      <c r="AF39" s="11">
+        <v>2015</v>
       </c>
       <c r="AG39" s="11">
-        <v>2015</v>
+        <v>3797</v>
       </c>
       <c r="AH39" s="11">
-        <v>3797</v>
+        <v>3208</v>
       </c>
       <c r="AI39" s="11">
-        <v>3208</v>
+        <v>3260</v>
       </c>
       <c r="AJ39" s="11">
-        <v>3260</v>
+        <v>3006</v>
       </c>
       <c r="AK39" s="11">
-        <v>3006</v>
+        <v>5264</v>
       </c>
       <c r="AL39" s="11">
-        <v>5264</v>
+        <v>4502</v>
       </c>
       <c r="AM39" s="11">
-        <v>4502</v>
+        <v>4029</v>
       </c>
       <c r="AN39" s="11">
-        <v>4029</v>
+        <v>4324</v>
       </c>
       <c r="AO39" s="11">
-        <v>4324</v>
+        <v>4091</v>
       </c>
       <c r="AP39" s="11">
-        <v>4091</v>
+        <v>3245</v>
       </c>
       <c r="AQ39" s="11">
-        <v>3245</v>
+        <v>4457</v>
       </c>
       <c r="AR39" s="11">
-        <v>4457</v>
+        <v>2273</v>
       </c>
       <c r="AS39" s="11">
-        <v>2273</v>
+        <v>3184</v>
       </c>
       <c r="AT39" s="11">
-        <v>3184</v>
+        <v>4850</v>
       </c>
       <c r="AU39" s="11">
-        <v>4850</v>
+        <v>4111</v>
       </c>
       <c r="AV39" s="11">
-        <v>4111</v>
+        <v>4107</v>
       </c>
       <c r="AW39" s="11">
-        <v>4107</v>
+        <v>4421</v>
       </c>
       <c r="AX39" s="11">
-        <v>4421</v>
+        <v>3876</v>
       </c>
       <c r="AY39" s="11">
-        <v>3876</v>
+        <v>4268</v>
       </c>
       <c r="AZ39" s="11">
-        <v>4268</v>
+        <v>4856</v>
       </c>
       <c r="BA39" s="11">
-        <v>4856</v>
+        <v>5150</v>
       </c>
       <c r="BB39" s="11">
-        <v>5150</v>
+        <v>5064</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>66</v>
       </c>
@@ -5492,77 +5492,77 @@
       <c r="AE40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF40" s="13" t="s">
-        <v>57</v>
+      <c r="AF40" s="13">
+        <v>1358</v>
       </c>
       <c r="AG40" s="13">
-        <v>1358</v>
+        <v>2064</v>
       </c>
       <c r="AH40" s="13">
-        <v>2064</v>
+        <v>1856</v>
       </c>
       <c r="AI40" s="13">
-        <v>1856</v>
+        <v>1811</v>
       </c>
       <c r="AJ40" s="13">
-        <v>1811</v>
+        <v>1592</v>
       </c>
       <c r="AK40" s="13">
-        <v>1592</v>
+        <v>2663</v>
       </c>
       <c r="AL40" s="13">
-        <v>2663</v>
+        <v>1680</v>
       </c>
       <c r="AM40" s="13">
-        <v>1680</v>
+        <v>2345</v>
       </c>
       <c r="AN40" s="13">
-        <v>2345</v>
+        <v>2577</v>
       </c>
       <c r="AO40" s="13">
-        <v>2577</v>
+        <v>2550</v>
       </c>
       <c r="AP40" s="13">
-        <v>2550</v>
+        <v>2379</v>
       </c>
       <c r="AQ40" s="13">
-        <v>2379</v>
+        <v>2672</v>
       </c>
       <c r="AR40" s="13">
-        <v>2672</v>
+        <v>1435</v>
       </c>
       <c r="AS40" s="13">
-        <v>1435</v>
+        <v>2797</v>
       </c>
       <c r="AT40" s="13">
-        <v>2797</v>
+        <v>2578</v>
       </c>
       <c r="AU40" s="13">
-        <v>2578</v>
+        <v>2413</v>
       </c>
       <c r="AV40" s="13">
-        <v>2413</v>
+        <v>2131</v>
       </c>
       <c r="AW40" s="13">
-        <v>2131</v>
+        <v>2153</v>
       </c>
       <c r="AX40" s="13">
-        <v>2153</v>
+        <v>1997</v>
       </c>
       <c r="AY40" s="13">
-        <v>1997</v>
+        <v>1843</v>
       </c>
       <c r="AZ40" s="13">
-        <v>1843</v>
+        <v>2656</v>
       </c>
       <c r="BA40" s="13">
-        <v>2656</v>
+        <v>2358</v>
       </c>
       <c r="BB40" s="13">
-        <v>2358</v>
+        <v>2786</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -5651,77 +5651,77 @@
       <c r="AE41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF41" s="11" t="s">
-        <v>57</v>
+      <c r="AF41" s="11">
+        <v>13453</v>
       </c>
       <c r="AG41" s="11">
-        <v>13453</v>
+        <v>12199</v>
       </c>
       <c r="AH41" s="11">
-        <v>12199</v>
+        <v>13110</v>
       </c>
       <c r="AI41" s="11">
-        <v>13110</v>
+        <v>8567</v>
       </c>
       <c r="AJ41" s="11">
-        <v>8567</v>
+        <v>14402</v>
       </c>
       <c r="AK41" s="11">
-        <v>14402</v>
+        <v>11450</v>
       </c>
       <c r="AL41" s="11">
-        <v>11450</v>
+        <v>9735</v>
       </c>
       <c r="AM41" s="11">
-        <v>9735</v>
+        <v>18462</v>
       </c>
       <c r="AN41" s="11">
-        <v>18462</v>
+        <v>21926</v>
       </c>
       <c r="AO41" s="11">
-        <v>21926</v>
+        <v>14798</v>
       </c>
       <c r="AP41" s="11">
-        <v>14798</v>
+        <v>16470</v>
       </c>
       <c r="AQ41" s="11">
-        <v>16470</v>
+        <v>10660</v>
       </c>
       <c r="AR41" s="11">
-        <v>10660</v>
+        <v>15952</v>
       </c>
       <c r="AS41" s="11">
-        <v>15952</v>
+        <v>16352</v>
       </c>
       <c r="AT41" s="11">
-        <v>16352</v>
+        <v>18121</v>
       </c>
       <c r="AU41" s="11">
-        <v>18121</v>
+        <v>8936</v>
       </c>
       <c r="AV41" s="11">
-        <v>8936</v>
+        <v>15629</v>
       </c>
       <c r="AW41" s="11">
-        <v>15629</v>
+        <v>13532</v>
       </c>
       <c r="AX41" s="11">
-        <v>13532</v>
+        <v>12579</v>
       </c>
       <c r="AY41" s="11">
-        <v>12579</v>
+        <v>14665</v>
       </c>
       <c r="AZ41" s="11">
-        <v>14665</v>
+        <v>13273</v>
       </c>
       <c r="BA41" s="11">
-        <v>13273</v>
+        <v>15370</v>
       </c>
       <c r="BB41" s="11">
-        <v>15370</v>
+        <v>12283</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>68</v>
       </c>
@@ -5778,7 +5778,7 @@
       <c r="BA42" s="15"/>
       <c r="BB42" s="15"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>69</v>
       </c>
@@ -5838,8 +5838,8 @@
       <c r="V43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="17" t="s">
-        <v>57</v>
+      <c r="W43" s="17">
+        <v>0</v>
       </c>
       <c r="X43" s="17">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>72</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="BA44" s="15"/>
       <c r="BB44" s="15"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>73</v>
       </c>
@@ -6052,8 +6052,8 @@
       <c r="V45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W45" s="17" t="s">
-        <v>57</v>
+      <c r="W45" s="17">
+        <v>0</v>
       </c>
       <c r="X45" s="17">
         <v>0</v>
@@ -6149,164 +6149,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19">
-        <v>37759</v>
+        <v>42585</v>
       </c>
       <c r="F46" s="19">
-        <v>42585</v>
+        <v>50133</v>
       </c>
       <c r="G46" s="19">
-        <v>50133</v>
+        <v>60236</v>
       </c>
       <c r="H46" s="19">
-        <v>60236</v>
+        <v>32100</v>
       </c>
       <c r="I46" s="19">
-        <v>32100</v>
+        <v>35859</v>
       </c>
       <c r="J46" s="19">
-        <v>35859</v>
+        <v>44285</v>
       </c>
       <c r="K46" s="19">
-        <v>44285</v>
+        <v>43198</v>
       </c>
       <c r="L46" s="19">
-        <v>43198</v>
+        <v>36488</v>
       </c>
       <c r="M46" s="19">
-        <v>36488</v>
+        <v>45566</v>
       </c>
       <c r="N46" s="19">
-        <v>45566</v>
+        <v>42832</v>
       </c>
       <c r="O46" s="19">
-        <v>42832</v>
+        <v>53514</v>
       </c>
       <c r="P46" s="19">
-        <v>53514</v>
+        <v>54587</v>
       </c>
       <c r="Q46" s="19">
-        <v>54587</v>
+        <v>46131</v>
       </c>
       <c r="R46" s="19">
-        <v>46131</v>
+        <v>41420</v>
       </c>
       <c r="S46" s="19">
-        <v>41420</v>
+        <v>62274</v>
       </c>
       <c r="T46" s="19">
-        <v>62274</v>
+        <v>20422</v>
       </c>
       <c r="U46" s="19">
-        <v>20422</v>
+        <v>57979</v>
       </c>
       <c r="V46" s="19">
-        <v>57979</v>
+        <v>50154</v>
       </c>
       <c r="W46" s="19">
-        <v>50154</v>
+        <v>51044</v>
       </c>
       <c r="X46" s="19">
-        <v>51044</v>
+        <v>48819</v>
       </c>
       <c r="Y46" s="19">
-        <v>48819</v>
+        <v>56532</v>
       </c>
       <c r="Z46" s="19">
-        <v>56532</v>
+        <v>46371</v>
       </c>
       <c r="AA46" s="19">
-        <v>46371</v>
+        <v>45173</v>
       </c>
       <c r="AB46" s="19">
-        <v>45173</v>
+        <v>61672</v>
       </c>
       <c r="AC46" s="19">
-        <v>61672</v>
+        <v>49162</v>
       </c>
       <c r="AD46" s="19">
-        <v>49162</v>
+        <v>38813</v>
       </c>
       <c r="AE46" s="19">
-        <v>38813</v>
+        <v>62249</v>
       </c>
       <c r="AF46" s="19">
-        <v>62249</v>
+        <v>36985</v>
       </c>
       <c r="AG46" s="19">
-        <v>36985</v>
+        <v>56259</v>
       </c>
       <c r="AH46" s="19">
-        <v>56259</v>
+        <v>38300</v>
       </c>
       <c r="AI46" s="19">
-        <v>38300</v>
+        <v>40506</v>
       </c>
       <c r="AJ46" s="19">
-        <v>40506</v>
+        <v>40922</v>
       </c>
       <c r="AK46" s="19">
-        <v>40922</v>
+        <v>62861</v>
       </c>
       <c r="AL46" s="19">
-        <v>62861</v>
+        <v>37460</v>
       </c>
       <c r="AM46" s="19">
-        <v>37460</v>
+        <v>64424</v>
       </c>
       <c r="AN46" s="19">
-        <v>64424</v>
+        <v>54995</v>
       </c>
       <c r="AO46" s="19">
-        <v>54995</v>
+        <v>43372</v>
       </c>
       <c r="AP46" s="19">
-        <v>43372</v>
+        <v>56465</v>
       </c>
       <c r="AQ46" s="19">
-        <v>56465</v>
+        <v>45850</v>
       </c>
       <c r="AR46" s="19">
-        <v>45850</v>
+        <v>42660</v>
       </c>
       <c r="AS46" s="19">
-        <v>42660</v>
+        <v>58849</v>
       </c>
       <c r="AT46" s="19">
-        <v>58849</v>
+        <v>52469</v>
       </c>
       <c r="AU46" s="19">
-        <v>52469</v>
+        <v>50380</v>
       </c>
       <c r="AV46" s="19">
-        <v>50380</v>
+        <v>52945</v>
       </c>
       <c r="AW46" s="19">
-        <v>52945</v>
+        <v>54781</v>
       </c>
       <c r="AX46" s="19">
-        <v>54781</v>
+        <v>46968</v>
       </c>
       <c r="AY46" s="19">
-        <v>46968</v>
+        <v>50502</v>
       </c>
       <c r="AZ46" s="19">
-        <v>50502</v>
+        <v>49279</v>
       </c>
       <c r="BA46" s="19">
-        <v>49279</v>
+        <v>48516</v>
       </c>
       <c r="BB46" s="19">
-        <v>48516</v>
+        <v>47817</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6361,7 +6361,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6416,7 +6416,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6471,7 +6471,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>74</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6683,7 +6683,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>74</v>
       </c>
@@ -6740,7 +6740,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
@@ -6829,77 +6829,77 @@
       <c r="AE53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF53" s="11" t="s">
-        <v>57</v>
+      <c r="AF53" s="11">
+        <v>657081</v>
       </c>
       <c r="AG53" s="11">
-        <v>657081</v>
+        <v>800139</v>
       </c>
       <c r="AH53" s="11">
-        <v>800139</v>
+        <v>566949</v>
       </c>
       <c r="AI53" s="11">
-        <v>566949</v>
+        <v>416975</v>
       </c>
       <c r="AJ53" s="11">
-        <v>416975</v>
+        <v>554636</v>
       </c>
       <c r="AK53" s="11">
-        <v>554636</v>
+        <v>831301</v>
       </c>
       <c r="AL53" s="11">
-        <v>831301</v>
+        <v>466395</v>
       </c>
       <c r="AM53" s="11">
-        <v>466395</v>
+        <v>507492</v>
       </c>
       <c r="AN53" s="11">
-        <v>507492</v>
+        <v>661556</v>
       </c>
       <c r="AO53" s="11">
-        <v>661556</v>
+        <v>559637</v>
       </c>
       <c r="AP53" s="11">
-        <v>559637</v>
+        <v>529477</v>
       </c>
       <c r="AQ53" s="11">
-        <v>529477</v>
+        <v>1216617</v>
       </c>
       <c r="AR53" s="11">
-        <v>1216617</v>
+        <v>784316</v>
       </c>
       <c r="AS53" s="11">
-        <v>784316</v>
+        <v>1201451</v>
       </c>
       <c r="AT53" s="11">
-        <v>1201451</v>
+        <v>730033</v>
       </c>
       <c r="AU53" s="11">
-        <v>730033</v>
+        <v>484170</v>
       </c>
       <c r="AV53" s="11">
-        <v>484170</v>
+        <v>960566</v>
       </c>
       <c r="AW53" s="11">
-        <v>960566</v>
+        <v>787369</v>
       </c>
       <c r="AX53" s="11">
-        <v>787369</v>
+        <v>796378</v>
       </c>
       <c r="AY53" s="11">
-        <v>796378</v>
+        <v>632659</v>
       </c>
       <c r="AZ53" s="11">
-        <v>632659</v>
+        <v>472623</v>
       </c>
       <c r="BA53" s="11">
-        <v>472623</v>
+        <v>658100</v>
       </c>
       <c r="BB53" s="11">
-        <v>658100</v>
+        <v>718749</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>58</v>
       </c>
@@ -6908,157 +6908,157 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>19071</v>
+        <v>8374</v>
       </c>
       <c r="F54" s="13">
-        <v>8374</v>
+        <v>3275</v>
       </c>
       <c r="G54" s="13">
-        <v>3275</v>
+        <v>5503</v>
       </c>
       <c r="H54" s="13">
-        <v>5503</v>
+        <v>124</v>
       </c>
       <c r="I54" s="13">
-        <v>124</v>
+        <v>1145</v>
       </c>
       <c r="J54" s="13">
-        <v>1145</v>
+        <v>10577</v>
       </c>
       <c r="K54" s="13">
-        <v>10577</v>
+        <v>356</v>
       </c>
       <c r="L54" s="13">
-        <v>356</v>
+        <v>13861</v>
       </c>
       <c r="M54" s="13">
-        <v>13861</v>
+        <v>38613</v>
       </c>
       <c r="N54" s="13">
-        <v>38613</v>
+        <v>30236</v>
       </c>
       <c r="O54" s="13">
-        <v>30236</v>
+        <v>26668</v>
       </c>
       <c r="P54" s="13">
-        <v>26668</v>
+        <v>10090</v>
       </c>
       <c r="Q54" s="13">
-        <v>10090</v>
+        <v>7757</v>
       </c>
       <c r="R54" s="13">
-        <v>7757</v>
+        <v>9809</v>
       </c>
       <c r="S54" s="13">
-        <v>9809</v>
+        <v>3489</v>
       </c>
       <c r="T54" s="13">
-        <v>3489</v>
+        <v>135</v>
       </c>
       <c r="U54" s="13">
-        <v>135</v>
+        <v>3130</v>
       </c>
       <c r="V54" s="13">
-        <v>3130</v>
+        <v>2899</v>
       </c>
       <c r="W54" s="13">
-        <v>2899</v>
+        <v>3417</v>
       </c>
       <c r="X54" s="13">
-        <v>3417</v>
+        <v>49124</v>
       </c>
       <c r="Y54" s="13">
-        <v>49124</v>
+        <v>77911</v>
       </c>
       <c r="Z54" s="13">
-        <v>77911</v>
+        <v>67941</v>
       </c>
       <c r="AA54" s="13">
-        <v>67941</v>
+        <v>22317</v>
       </c>
       <c r="AB54" s="13">
-        <v>22317</v>
+        <v>16194</v>
       </c>
       <c r="AC54" s="13">
-        <v>16194</v>
+        <v>36369</v>
       </c>
       <c r="AD54" s="13">
-        <v>36369</v>
+        <v>5114</v>
       </c>
       <c r="AE54" s="13">
-        <v>5114</v>
+        <v>1491</v>
       </c>
       <c r="AF54" s="13">
-        <v>1491</v>
+        <v>956</v>
       </c>
       <c r="AG54" s="13">
-        <v>956</v>
+        <v>1035</v>
       </c>
       <c r="AH54" s="13">
-        <v>1035</v>
+        <v>1659</v>
       </c>
       <c r="AI54" s="13">
-        <v>1659</v>
+        <v>9954</v>
       </c>
       <c r="AJ54" s="13">
-        <v>9954</v>
+        <v>48592</v>
       </c>
       <c r="AK54" s="13">
-        <v>48592</v>
+        <v>325080</v>
       </c>
       <c r="AL54" s="13">
-        <v>325080</v>
+        <v>77346</v>
       </c>
       <c r="AM54" s="13">
-        <v>77346</v>
+        <v>121854</v>
       </c>
       <c r="AN54" s="13">
-        <v>121854</v>
+        <v>27039</v>
       </c>
       <c r="AO54" s="13">
-        <v>27039</v>
+        <v>63107</v>
       </c>
       <c r="AP54" s="13">
-        <v>63107</v>
+        <v>7555</v>
       </c>
       <c r="AQ54" s="13">
-        <v>7555</v>
+        <v>1951</v>
       </c>
       <c r="AR54" s="13">
-        <v>1951</v>
+        <v>818</v>
       </c>
       <c r="AS54" s="13">
-        <v>818</v>
+        <v>13456</v>
       </c>
       <c r="AT54" s="13">
-        <v>13456</v>
+        <v>11732</v>
       </c>
       <c r="AU54" s="13">
-        <v>11732</v>
+        <v>3744</v>
       </c>
       <c r="AV54" s="13">
-        <v>3744</v>
+        <v>98275</v>
       </c>
       <c r="AW54" s="13">
-        <v>98275</v>
+        <v>244664</v>
       </c>
       <c r="AX54" s="13">
-        <v>244664</v>
+        <v>176131</v>
       </c>
       <c r="AY54" s="13">
-        <v>176131</v>
+        <v>287518</v>
       </c>
       <c r="AZ54" s="13">
-        <v>287518</v>
+        <v>43083</v>
       </c>
       <c r="BA54" s="13">
-        <v>43083</v>
+        <v>44308</v>
       </c>
       <c r="BB54" s="13">
-        <v>44308</v>
+        <v>6688</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>59</v>
       </c>
@@ -7067,89 +7067,89 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>1482159</v>
+        <v>1602801</v>
       </c>
       <c r="F55" s="11">
-        <v>1602801</v>
+        <v>1873865</v>
       </c>
       <c r="G55" s="11">
-        <v>1873865</v>
+        <v>2514977</v>
       </c>
       <c r="H55" s="11">
-        <v>2514977</v>
+        <v>1067308</v>
       </c>
       <c r="I55" s="11">
-        <v>1067308</v>
+        <v>1792058</v>
       </c>
       <c r="J55" s="11">
-        <v>1792058</v>
+        <v>2702743</v>
       </c>
       <c r="K55" s="11">
-        <v>2702743</v>
+        <v>2474297</v>
       </c>
       <c r="L55" s="11">
-        <v>2474297</v>
+        <v>2165295</v>
       </c>
       <c r="M55" s="11">
-        <v>2165295</v>
+        <v>2360502</v>
       </c>
       <c r="N55" s="11">
-        <v>2360502</v>
+        <v>2036215</v>
       </c>
       <c r="O55" s="11">
-        <v>2036215</v>
+        <v>2470422</v>
       </c>
       <c r="P55" s="11">
-        <v>2470422</v>
+        <v>2804407</v>
       </c>
       <c r="Q55" s="11">
-        <v>2804407</v>
+        <v>2419836</v>
       </c>
       <c r="R55" s="11">
-        <v>2419836</v>
+        <v>2626370</v>
       </c>
       <c r="S55" s="11">
-        <v>2626370</v>
+        <v>3000426</v>
       </c>
       <c r="T55" s="11">
-        <v>3000426</v>
+        <v>782232</v>
       </c>
       <c r="U55" s="11">
-        <v>782232</v>
+        <v>2519680</v>
       </c>
       <c r="V55" s="11">
-        <v>2519680</v>
+        <v>2283544</v>
       </c>
       <c r="W55" s="11">
-        <v>2283544</v>
+        <v>2908581</v>
       </c>
       <c r="X55" s="11">
-        <v>2908581</v>
+        <v>2938700</v>
       </c>
       <c r="Y55" s="11">
-        <v>2938700</v>
+        <v>3773811</v>
       </c>
       <c r="Z55" s="11">
-        <v>3773811</v>
+        <v>4053751</v>
       </c>
       <c r="AA55" s="11">
-        <v>4053751</v>
+        <v>4670508</v>
       </c>
       <c r="AB55" s="11">
-        <v>4670508</v>
+        <v>6241487</v>
       </c>
       <c r="AC55" s="11">
-        <v>6241487</v>
+        <v>5058718</v>
       </c>
       <c r="AD55" s="11">
-        <v>5058718</v>
+        <v>3637680</v>
       </c>
       <c r="AE55" s="11">
-        <v>3637680</v>
-      </c>
-      <c r="AF55" s="11">
         <v>7256542</v>
       </c>
+      <c r="AF55" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AG55" s="11" t="s">
         <v>57</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>60</v>
       </c>
@@ -7226,89 +7226,89 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>187600</v>
+        <v>158851</v>
       </c>
       <c r="F56" s="13">
-        <v>158851</v>
+        <v>189945</v>
       </c>
       <c r="G56" s="13">
-        <v>189945</v>
+        <v>219804</v>
       </c>
       <c r="H56" s="13">
-        <v>219804</v>
+        <v>125855</v>
       </c>
       <c r="I56" s="13">
-        <v>125855</v>
+        <v>307327</v>
       </c>
       <c r="J56" s="13">
-        <v>307327</v>
+        <v>263893</v>
       </c>
       <c r="K56" s="13">
-        <v>263893</v>
+        <v>240953</v>
       </c>
       <c r="L56" s="13">
-        <v>240953</v>
+        <v>158893</v>
       </c>
       <c r="M56" s="13">
-        <v>158893</v>
+        <v>212164</v>
       </c>
       <c r="N56" s="13">
-        <v>212164</v>
+        <v>186248</v>
       </c>
       <c r="O56" s="13">
-        <v>186248</v>
+        <v>151453</v>
       </c>
       <c r="P56" s="13">
-        <v>151453</v>
+        <v>165470</v>
       </c>
       <c r="Q56" s="13">
-        <v>165470</v>
+        <v>183249</v>
       </c>
       <c r="R56" s="13">
-        <v>183249</v>
+        <v>150686</v>
       </c>
       <c r="S56" s="13">
-        <v>150686</v>
+        <v>283073</v>
       </c>
       <c r="T56" s="13">
-        <v>283073</v>
+        <v>102933</v>
       </c>
       <c r="U56" s="13">
-        <v>102933</v>
+        <v>239767</v>
       </c>
       <c r="V56" s="13">
-        <v>239767</v>
+        <v>252278</v>
       </c>
       <c r="W56" s="13">
-        <v>252278</v>
+        <v>252911</v>
       </c>
       <c r="X56" s="13">
-        <v>252911</v>
+        <v>486554</v>
       </c>
       <c r="Y56" s="13">
-        <v>486554</v>
+        <v>537095</v>
       </c>
       <c r="Z56" s="13">
-        <v>537095</v>
+        <v>433797</v>
       </c>
       <c r="AA56" s="13">
-        <v>433797</v>
+        <v>459088</v>
       </c>
       <c r="AB56" s="13">
-        <v>459088</v>
+        <v>599759</v>
       </c>
       <c r="AC56" s="13">
-        <v>599759</v>
+        <v>527309</v>
       </c>
       <c r="AD56" s="13">
-        <v>527309</v>
+        <v>410393</v>
       </c>
       <c r="AE56" s="13">
-        <v>410393</v>
-      </c>
-      <c r="AF56" s="13">
         <v>711496</v>
       </c>
+      <c r="AF56" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG56" s="13" t="s">
         <v>57</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>61</v>
       </c>
@@ -7465,77 +7465,77 @@
       <c r="AE57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF57" s="11" t="s">
-        <v>57</v>
+      <c r="AF57" s="11">
+        <v>409434</v>
       </c>
       <c r="AG57" s="11">
-        <v>409434</v>
+        <v>3596805</v>
       </c>
       <c r="AH57" s="11">
-        <v>3596805</v>
+        <v>623337</v>
       </c>
       <c r="AI57" s="11">
-        <v>623337</v>
+        <v>1431956</v>
       </c>
       <c r="AJ57" s="11">
-        <v>1431956</v>
+        <v>479100</v>
       </c>
       <c r="AK57" s="11">
-        <v>479100</v>
+        <v>1921506</v>
       </c>
       <c r="AL57" s="11">
-        <v>1921506</v>
+        <v>963745</v>
       </c>
       <c r="AM57" s="11">
-        <v>963745</v>
+        <v>3795408</v>
       </c>
       <c r="AN57" s="11">
-        <v>3795408</v>
+        <v>1542516</v>
       </c>
       <c r="AO57" s="11">
-        <v>1542516</v>
+        <v>794673</v>
       </c>
       <c r="AP57" s="11">
-        <v>794673</v>
+        <v>3461941</v>
       </c>
       <c r="AQ57" s="11">
-        <v>3461941</v>
+        <v>972415</v>
       </c>
       <c r="AR57" s="11">
-        <v>972415</v>
+        <v>2112033</v>
       </c>
       <c r="AS57" s="11">
-        <v>2112033</v>
+        <v>3949318</v>
       </c>
       <c r="AT57" s="11">
-        <v>3949318</v>
+        <v>2670041</v>
       </c>
       <c r="AU57" s="11">
-        <v>2670041</v>
+        <v>5208893</v>
       </c>
       <c r="AV57" s="11">
-        <v>5208893</v>
+        <v>2009812</v>
       </c>
       <c r="AW57" s="11">
-        <v>2009812</v>
+        <v>2513042</v>
       </c>
       <c r="AX57" s="11">
-        <v>2513042</v>
+        <v>1746905</v>
       </c>
       <c r="AY57" s="11">
-        <v>1746905</v>
+        <v>2031307</v>
       </c>
       <c r="AZ57" s="11">
-        <v>2031307</v>
+        <v>2757269</v>
       </c>
       <c r="BA57" s="11">
-        <v>2757269</v>
+        <v>1854865</v>
       </c>
       <c r="BB57" s="11">
-        <v>1854865</v>
+        <v>2107139</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>62</v>
       </c>
@@ -7544,157 +7544,157 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>1593</v>
+        <v>2447</v>
       </c>
       <c r="F58" s="13">
-        <v>2447</v>
+        <v>6883</v>
       </c>
       <c r="G58" s="13">
-        <v>6883</v>
+        <v>18451</v>
       </c>
       <c r="H58" s="13">
-        <v>18451</v>
+        <v>5198</v>
       </c>
       <c r="I58" s="13">
-        <v>5198</v>
+        <v>13819</v>
       </c>
       <c r="J58" s="13">
-        <v>13819</v>
+        <v>5413</v>
       </c>
       <c r="K58" s="13">
-        <v>5413</v>
+        <v>2267</v>
       </c>
       <c r="L58" s="13">
-        <v>2267</v>
+        <v>8677</v>
       </c>
       <c r="M58" s="13">
-        <v>8677</v>
+        <v>7229</v>
       </c>
       <c r="N58" s="13">
-        <v>7229</v>
+        <v>11147</v>
       </c>
       <c r="O58" s="13">
-        <v>11147</v>
+        <v>5082</v>
       </c>
       <c r="P58" s="13">
-        <v>5082</v>
+        <v>7360</v>
       </c>
       <c r="Q58" s="13">
-        <v>7360</v>
+        <v>6045</v>
       </c>
       <c r="R58" s="13">
-        <v>6045</v>
+        <v>4543</v>
       </c>
       <c r="S58" s="13">
-        <v>4543</v>
+        <v>2891</v>
       </c>
       <c r="T58" s="13">
-        <v>2891</v>
+        <v>372</v>
       </c>
       <c r="U58" s="13">
-        <v>372</v>
+        <v>4321</v>
       </c>
       <c r="V58" s="13">
-        <v>4321</v>
+        <v>20127</v>
       </c>
       <c r="W58" s="13">
-        <v>20127</v>
+        <v>11795</v>
       </c>
       <c r="X58" s="13">
-        <v>11795</v>
+        <v>26874</v>
       </c>
       <c r="Y58" s="13">
-        <v>26874</v>
+        <v>30120</v>
       </c>
       <c r="Z58" s="13">
-        <v>30120</v>
+        <v>39482</v>
       </c>
       <c r="AA58" s="13">
-        <v>39482</v>
+        <v>29471</v>
       </c>
       <c r="AB58" s="13">
-        <v>29471</v>
+        <v>10054</v>
       </c>
       <c r="AC58" s="13">
-        <v>10054</v>
+        <v>21642</v>
       </c>
       <c r="AD58" s="13">
-        <v>21642</v>
+        <v>30493</v>
       </c>
       <c r="AE58" s="13">
-        <v>30493</v>
+        <v>31509</v>
       </c>
       <c r="AF58" s="13">
-        <v>31509</v>
+        <v>15180</v>
       </c>
       <c r="AG58" s="13">
-        <v>15180</v>
+        <v>6780</v>
       </c>
       <c r="AH58" s="13">
-        <v>6780</v>
+        <v>10429</v>
       </c>
       <c r="AI58" s="13">
-        <v>10429</v>
+        <v>6834</v>
       </c>
       <c r="AJ58" s="13">
-        <v>6834</v>
+        <v>27070</v>
       </c>
       <c r="AK58" s="13">
-        <v>27070</v>
+        <v>15349</v>
       </c>
       <c r="AL58" s="13">
-        <v>15349</v>
+        <v>14076</v>
       </c>
       <c r="AM58" s="13">
-        <v>14076</v>
+        <v>12930</v>
       </c>
       <c r="AN58" s="13">
-        <v>12930</v>
+        <v>60438</v>
       </c>
       <c r="AO58" s="13">
-        <v>60438</v>
+        <v>60596</v>
       </c>
       <c r="AP58" s="13">
-        <v>60596</v>
+        <v>79004</v>
       </c>
       <c r="AQ58" s="13">
-        <v>79004</v>
+        <v>49411</v>
       </c>
       <c r="AR58" s="13">
-        <v>49411</v>
+        <v>11511</v>
       </c>
       <c r="AS58" s="13">
-        <v>11511</v>
+        <v>29775</v>
       </c>
       <c r="AT58" s="13">
-        <v>29775</v>
+        <v>24673</v>
       </c>
       <c r="AU58" s="13">
-        <v>24673</v>
+        <v>26781</v>
       </c>
       <c r="AV58" s="13">
-        <v>26781</v>
+        <v>157799</v>
       </c>
       <c r="AW58" s="13">
-        <v>157799</v>
+        <v>126699</v>
       </c>
       <c r="AX58" s="13">
-        <v>126699</v>
+        <v>124145</v>
       </c>
       <c r="AY58" s="13">
-        <v>124145</v>
+        <v>238633</v>
       </c>
       <c r="AZ58" s="13">
-        <v>238633</v>
+        <v>228538</v>
       </c>
       <c r="BA58" s="13">
-        <v>228538</v>
+        <v>194081</v>
       </c>
       <c r="BB58" s="13">
-        <v>194081</v>
+        <v>87496</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>63</v>
       </c>
@@ -7783,77 +7783,77 @@
       <c r="AE59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF59" s="11" t="s">
-        <v>57</v>
+      <c r="AF59" s="11">
+        <v>519031</v>
       </c>
       <c r="AG59" s="11">
-        <v>519031</v>
+        <v>646847</v>
       </c>
       <c r="AH59" s="11">
-        <v>646847</v>
+        <v>466887</v>
       </c>
       <c r="AI59" s="11">
-        <v>466887</v>
+        <v>470120</v>
       </c>
       <c r="AJ59" s="11">
-        <v>470120</v>
+        <v>673266</v>
       </c>
       <c r="AK59" s="11">
-        <v>673266</v>
+        <v>956183</v>
       </c>
       <c r="AL59" s="11">
-        <v>956183</v>
+        <v>742093</v>
       </c>
       <c r="AM59" s="11">
-        <v>742093</v>
+        <v>1022286</v>
       </c>
       <c r="AN59" s="11">
-        <v>1022286</v>
+        <v>931473</v>
       </c>
       <c r="AO59" s="11">
-        <v>931473</v>
+        <v>843522</v>
       </c>
       <c r="AP59" s="11">
-        <v>843522</v>
+        <v>1084657</v>
       </c>
       <c r="AQ59" s="11">
-        <v>1084657</v>
+        <v>791802</v>
       </c>
       <c r="AR59" s="11">
-        <v>791802</v>
+        <v>1016464</v>
       </c>
       <c r="AS59" s="11">
-        <v>1016464</v>
+        <v>1424898</v>
       </c>
       <c r="AT59" s="11">
-        <v>1424898</v>
+        <v>1005918</v>
       </c>
       <c r="AU59" s="11">
-        <v>1005918</v>
+        <v>848017</v>
       </c>
       <c r="AV59" s="11">
-        <v>848017</v>
+        <v>1006088</v>
       </c>
       <c r="AW59" s="11">
-        <v>1006088</v>
+        <v>1076083</v>
       </c>
       <c r="AX59" s="11">
-        <v>1076083</v>
+        <v>959507</v>
       </c>
       <c r="AY59" s="11">
-        <v>959507</v>
+        <v>1188342</v>
       </c>
       <c r="AZ59" s="11">
-        <v>1188342</v>
+        <v>953130</v>
       </c>
       <c r="BA59" s="11">
-        <v>953130</v>
+        <v>805674</v>
       </c>
       <c r="BB59" s="11">
-        <v>805674</v>
+        <v>1000513</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>64</v>
       </c>
@@ -7942,77 +7942,77 @@
       <c r="AE60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF60" s="13" t="s">
-        <v>57</v>
+      <c r="AF60" s="13">
+        <v>381611</v>
       </c>
       <c r="AG60" s="13">
-        <v>381611</v>
+        <v>651751</v>
       </c>
       <c r="AH60" s="13">
-        <v>651751</v>
+        <v>642765</v>
       </c>
       <c r="AI60" s="13">
-        <v>642765</v>
+        <v>1031811</v>
       </c>
       <c r="AJ60" s="13">
-        <v>1031811</v>
+        <v>1364366</v>
       </c>
       <c r="AK60" s="13">
-        <v>1364366</v>
+        <v>2087385</v>
       </c>
       <c r="AL60" s="13">
-        <v>2087385</v>
+        <v>1237399</v>
       </c>
       <c r="AM60" s="13">
-        <v>1237399</v>
+        <v>1235051</v>
       </c>
       <c r="AN60" s="13">
-        <v>1235051</v>
+        <v>1175377</v>
       </c>
       <c r="AO60" s="13">
-        <v>1175377</v>
+        <v>1363193</v>
       </c>
       <c r="AP60" s="13">
-        <v>1363193</v>
+        <v>1009456</v>
       </c>
       <c r="AQ60" s="13">
-        <v>1009456</v>
+        <v>1266713</v>
       </c>
       <c r="AR60" s="13">
-        <v>1266713</v>
+        <v>371217</v>
       </c>
       <c r="AS60" s="13">
-        <v>371217</v>
+        <v>815486</v>
       </c>
       <c r="AT60" s="13">
-        <v>815486</v>
+        <v>1113355</v>
       </c>
       <c r="AU60" s="13">
-        <v>1113355</v>
+        <v>2058816</v>
       </c>
       <c r="AV60" s="13">
-        <v>2058816</v>
+        <v>2249188</v>
       </c>
       <c r="AW60" s="13">
-        <v>2249188</v>
+        <v>2080813</v>
       </c>
       <c r="AX60" s="13">
-        <v>2080813</v>
+        <v>1628646</v>
       </c>
       <c r="AY60" s="13">
-        <v>1628646</v>
+        <v>2269636</v>
       </c>
       <c r="AZ60" s="13">
-        <v>2269636</v>
+        <v>1951513</v>
       </c>
       <c r="BA60" s="13">
-        <v>1951513</v>
+        <v>1870555</v>
       </c>
       <c r="BB60" s="13">
-        <v>1870555</v>
+        <v>2369521</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>65</v>
       </c>
@@ -8101,77 +8101,77 @@
       <c r="AE61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF61" s="11" t="s">
-        <v>57</v>
+      <c r="AF61" s="11">
+        <v>432591</v>
       </c>
       <c r="AG61" s="11">
-        <v>432591</v>
+        <v>797298</v>
       </c>
       <c r="AH61" s="11">
-        <v>797298</v>
+        <v>666068</v>
       </c>
       <c r="AI61" s="11">
-        <v>666068</v>
+        <v>825448</v>
       </c>
       <c r="AJ61" s="11">
-        <v>825448</v>
+        <v>916695</v>
       </c>
       <c r="AK61" s="11">
-        <v>916695</v>
+        <v>1530005</v>
       </c>
       <c r="AL61" s="11">
-        <v>1530005</v>
+        <v>1252645</v>
       </c>
       <c r="AM61" s="11">
-        <v>1252645</v>
+        <v>1198876</v>
       </c>
       <c r="AN61" s="11">
-        <v>1198876</v>
+        <v>1238371</v>
       </c>
       <c r="AO61" s="11">
-        <v>1238371</v>
+        <v>1222890</v>
       </c>
       <c r="AP61" s="11">
-        <v>1222890</v>
+        <v>1015917</v>
       </c>
       <c r="AQ61" s="11">
-        <v>1015917</v>
+        <v>1318248</v>
       </c>
       <c r="AR61" s="11">
-        <v>1318248</v>
+        <v>648051</v>
       </c>
       <c r="AS61" s="11">
-        <v>648051</v>
+        <v>972111</v>
       </c>
       <c r="AT61" s="11">
-        <v>972111</v>
+        <v>1668146</v>
       </c>
       <c r="AU61" s="11">
-        <v>1668146</v>
+        <v>1498896</v>
       </c>
       <c r="AV61" s="11">
-        <v>1498896</v>
+        <v>1559008</v>
       </c>
       <c r="AW61" s="11">
-        <v>1559008</v>
+        <v>1652318</v>
       </c>
       <c r="AX61" s="11">
-        <v>1652318</v>
+        <v>1409432</v>
       </c>
       <c r="AY61" s="11">
-        <v>1409432</v>
+        <v>1566269</v>
       </c>
       <c r="AZ61" s="11">
-        <v>1566269</v>
+        <v>1788059</v>
       </c>
       <c r="BA61" s="11">
-        <v>1788059</v>
+        <v>1940098</v>
       </c>
       <c r="BB61" s="11">
-        <v>1940098</v>
+        <v>1992698</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>66</v>
       </c>
@@ -8260,77 +8260,77 @@
       <c r="AE62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF62" s="13" t="s">
-        <v>57</v>
+      <c r="AF62" s="13">
+        <v>415539</v>
       </c>
       <c r="AG62" s="13">
-        <v>415539</v>
+        <v>690555</v>
       </c>
       <c r="AH62" s="13">
-        <v>690555</v>
+        <v>622727</v>
       </c>
       <c r="AI62" s="13">
-        <v>622727</v>
+        <v>633064</v>
       </c>
       <c r="AJ62" s="13">
-        <v>633064</v>
+        <v>564834</v>
       </c>
       <c r="AK62" s="13">
-        <v>564834</v>
+        <v>992091</v>
       </c>
       <c r="AL62" s="13">
-        <v>992091</v>
+        <v>660186</v>
       </c>
       <c r="AM62" s="13">
-        <v>660186</v>
+        <v>874342</v>
       </c>
       <c r="AN62" s="13">
-        <v>874342</v>
+        <v>994800</v>
       </c>
       <c r="AO62" s="13">
-        <v>994800</v>
+        <v>1008671</v>
       </c>
       <c r="AP62" s="13">
-        <v>1008671</v>
+        <v>939978</v>
       </c>
       <c r="AQ62" s="13">
-        <v>939978</v>
+        <v>1134173</v>
       </c>
       <c r="AR62" s="13">
-        <v>1134173</v>
+        <v>703951</v>
       </c>
       <c r="AS62" s="13">
-        <v>703951</v>
+        <v>1411951</v>
       </c>
       <c r="AT62" s="13">
-        <v>1411951</v>
+        <v>1296283</v>
       </c>
       <c r="AU62" s="13">
-        <v>1296283</v>
+        <v>1306265</v>
       </c>
       <c r="AV62" s="13">
-        <v>1306265</v>
+        <v>1031659</v>
       </c>
       <c r="AW62" s="13">
-        <v>1031659</v>
+        <v>1160719</v>
       </c>
       <c r="AX62" s="13">
-        <v>1160719</v>
+        <v>1083077</v>
       </c>
       <c r="AY62" s="13">
-        <v>1083077</v>
+        <v>1000382</v>
       </c>
       <c r="AZ62" s="13">
-        <v>1000382</v>
+        <v>1492432</v>
       </c>
       <c r="BA62" s="13">
-        <v>1492432</v>
+        <v>1257459</v>
       </c>
       <c r="BB62" s="13">
-        <v>1257459</v>
+        <v>1473279</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>67</v>
       </c>
@@ -8419,77 +8419,77 @@
       <c r="AE63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF63" s="11" t="s">
-        <v>57</v>
+      <c r="AF63" s="11">
+        <v>1015565</v>
       </c>
       <c r="AG63" s="11">
-        <v>1015565</v>
+        <v>888806</v>
       </c>
       <c r="AH63" s="11">
-        <v>888806</v>
+        <v>884287</v>
       </c>
       <c r="AI63" s="11">
-        <v>884287</v>
+        <v>666710</v>
       </c>
       <c r="AJ63" s="11">
-        <v>666710</v>
+        <v>1124266</v>
       </c>
       <c r="AK63" s="11">
-        <v>1124266</v>
+        <v>955669</v>
       </c>
       <c r="AL63" s="11">
-        <v>955669</v>
+        <v>911794</v>
       </c>
       <c r="AM63" s="11">
-        <v>911794</v>
+        <v>1771204</v>
       </c>
       <c r="AN63" s="11">
-        <v>1771204</v>
+        <v>2011323</v>
       </c>
       <c r="AO63" s="11">
-        <v>2011323</v>
+        <v>1408656</v>
       </c>
       <c r="AP63" s="11">
-        <v>1408656</v>
+        <v>1694581</v>
       </c>
       <c r="AQ63" s="11">
-        <v>1694581</v>
+        <v>1230042</v>
       </c>
       <c r="AR63" s="11">
-        <v>1230042</v>
+        <v>2335947</v>
       </c>
       <c r="AS63" s="11">
-        <v>2335947</v>
+        <v>2391491</v>
       </c>
       <c r="AT63" s="11">
-        <v>2391491</v>
+        <v>2724231</v>
       </c>
       <c r="AU63" s="11">
-        <v>2724231</v>
+        <v>1419592</v>
       </c>
       <c r="AV63" s="11">
-        <v>1419592</v>
+        <v>2163181</v>
       </c>
       <c r="AW63" s="11">
-        <v>2163181</v>
+        <v>1561926</v>
       </c>
       <c r="AX63" s="11">
-        <v>1561926</v>
+        <v>1339871</v>
       </c>
       <c r="AY63" s="11">
-        <v>1339871</v>
+        <v>1501847</v>
       </c>
       <c r="AZ63" s="11">
-        <v>1501847</v>
+        <v>1461958</v>
       </c>
       <c r="BA63" s="11">
-        <v>1461958</v>
+        <v>1438215</v>
       </c>
       <c r="BB63" s="11">
-        <v>1438215</v>
+        <v>1233855</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>76</v>
       </c>
@@ -8546,7 +8546,7 @@
       <c r="BA64" s="15"/>
       <c r="BB64" s="15"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
         <v>69</v>
       </c>
@@ -8608,8 +8608,8 @@
       <c r="V65" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W65" s="17" t="s">
-        <v>57</v>
+      <c r="W65" s="17">
+        <v>0</v>
       </c>
       <c r="X65" s="17">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
         <v>77</v>
       </c>
@@ -8762,7 +8762,7 @@
       <c r="BA66" s="15"/>
       <c r="BB66" s="15"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>73</v>
       </c>
@@ -8824,8 +8824,8 @@
       <c r="V67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W67" s="17" t="s">
-        <v>57</v>
+      <c r="W67" s="17">
+        <v>0</v>
       </c>
       <c r="X67" s="17">
         <v>0</v>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>78</v>
       </c>
@@ -8978,7 +8978,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>79</v>
       </c>
@@ -9040,8 +9040,8 @@
       <c r="V69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>57</v>
+      <c r="W69" s="11">
+        <v>0</v>
       </c>
       <c r="X69" s="11">
         <v>0</v>
@@ -9137,164 +9137,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19">
-        <v>1690423</v>
+        <v>1772473</v>
       </c>
       <c r="F70" s="19">
-        <v>1772473</v>
+        <v>2073968</v>
       </c>
       <c r="G70" s="19">
-        <v>2073968</v>
+        <v>2758735</v>
       </c>
       <c r="H70" s="19">
-        <v>2758735</v>
+        <v>1198485</v>
       </c>
       <c r="I70" s="19">
-        <v>1198485</v>
+        <v>2114349</v>
       </c>
       <c r="J70" s="19">
-        <v>2114349</v>
+        <v>2982626</v>
       </c>
       <c r="K70" s="19">
-        <v>2982626</v>
+        <v>2717873</v>
       </c>
       <c r="L70" s="19">
-        <v>2717873</v>
+        <v>2346726</v>
       </c>
       <c r="M70" s="19">
-        <v>2346726</v>
+        <v>2618508</v>
       </c>
       <c r="N70" s="19">
-        <v>2618508</v>
+        <v>2263846</v>
       </c>
       <c r="O70" s="19">
-        <v>2263846</v>
+        <v>2653625</v>
       </c>
       <c r="P70" s="19">
-        <v>2653625</v>
+        <v>2987327</v>
       </c>
       <c r="Q70" s="19">
-        <v>2987327</v>
+        <v>2616887</v>
       </c>
       <c r="R70" s="19">
-        <v>2616887</v>
+        <v>2791408</v>
       </c>
       <c r="S70" s="19">
-        <v>2791408</v>
+        <v>3289879</v>
       </c>
       <c r="T70" s="19">
-        <v>3289879</v>
+        <v>885672</v>
       </c>
       <c r="U70" s="19">
-        <v>885672</v>
+        <v>2766898</v>
       </c>
       <c r="V70" s="19">
-        <v>2766898</v>
+        <v>2558848</v>
       </c>
       <c r="W70" s="19">
-        <v>2558848</v>
+        <v>3176704</v>
       </c>
       <c r="X70" s="19">
-        <v>3176704</v>
+        <v>3501252</v>
       </c>
       <c r="Y70" s="19">
-        <v>3501252</v>
+        <v>4418937</v>
       </c>
       <c r="Z70" s="19">
-        <v>4418937</v>
+        <v>4594971</v>
       </c>
       <c r="AA70" s="19">
-        <v>4594971</v>
+        <v>5181384</v>
       </c>
       <c r="AB70" s="19">
-        <v>5181384</v>
+        <v>6867494</v>
       </c>
       <c r="AC70" s="19">
-        <v>6867494</v>
+        <v>5644038</v>
       </c>
       <c r="AD70" s="19">
-        <v>5644038</v>
+        <v>4083680</v>
       </c>
       <c r="AE70" s="19">
-        <v>4083680</v>
+        <v>8001038</v>
       </c>
       <c r="AF70" s="19">
-        <v>8001038</v>
+        <v>3846988</v>
       </c>
       <c r="AG70" s="19">
-        <v>3846988</v>
+        <v>8080016</v>
       </c>
       <c r="AH70" s="19">
-        <v>8080016</v>
+        <v>4485108</v>
       </c>
       <c r="AI70" s="19">
-        <v>4485108</v>
+        <v>5492872</v>
       </c>
       <c r="AJ70" s="19">
-        <v>5492872</v>
+        <v>5752825</v>
       </c>
       <c r="AK70" s="19">
-        <v>5752825</v>
+        <v>9614569</v>
       </c>
       <c r="AL70" s="19">
-        <v>9614569</v>
+        <v>6325679</v>
       </c>
       <c r="AM70" s="19">
-        <v>6325679</v>
+        <v>10539443</v>
       </c>
       <c r="AN70" s="19">
-        <v>10539443</v>
+        <v>8642893</v>
       </c>
       <c r="AO70" s="19">
-        <v>8642893</v>
+        <v>7324945</v>
       </c>
       <c r="AP70" s="19">
-        <v>7324945</v>
+        <v>9822566</v>
       </c>
       <c r="AQ70" s="19">
-        <v>9822566</v>
+        <v>7981372</v>
       </c>
       <c r="AR70" s="19">
-        <v>7981372</v>
+        <v>7984308</v>
       </c>
       <c r="AS70" s="19">
-        <v>7984308</v>
+        <v>12209937</v>
       </c>
       <c r="AT70" s="19">
-        <v>12209937</v>
+        <v>11244412</v>
       </c>
       <c r="AU70" s="19">
-        <v>11244412</v>
+        <v>12855174</v>
       </c>
       <c r="AV70" s="19">
-        <v>12855174</v>
+        <v>11235576</v>
       </c>
       <c r="AW70" s="19">
-        <v>11235576</v>
+        <v>11203633</v>
       </c>
       <c r="AX70" s="19">
-        <v>11203633</v>
+        <v>9264092</v>
       </c>
       <c r="AY70" s="19">
-        <v>9264092</v>
+        <v>10716593</v>
       </c>
       <c r="AZ70" s="19">
-        <v>10716593</v>
+        <v>11148605</v>
       </c>
       <c r="BA70" s="19">
-        <v>11148605</v>
+        <v>10063355</v>
       </c>
       <c r="BB70" s="19">
-        <v>10063355</v>
+        <v>10989938</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9349,7 +9349,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9404,7 +9404,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9459,7 +9459,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>80</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9671,7 +9671,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>81</v>
       </c>
@@ -9728,7 +9728,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>55</v>
       </c>
@@ -9817,77 +9817,77 @@
       <c r="AE77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF77" s="11" t="s">
-        <v>57</v>
+      <c r="AF77" s="11">
+        <v>60717150</v>
       </c>
       <c r="AG77" s="11">
-        <v>60717150</v>
+        <v>61083976</v>
       </c>
       <c r="AH77" s="11">
-        <v>61083976</v>
+        <v>64653780</v>
       </c>
       <c r="AI77" s="11">
-        <v>64653780</v>
+        <v>56424222</v>
       </c>
       <c r="AJ77" s="11">
-        <v>56424222</v>
+        <v>60975814</v>
       </c>
       <c r="AK77" s="11">
-        <v>60975814</v>
+        <v>62825045</v>
       </c>
       <c r="AL77" s="11">
-        <v>62825045</v>
+        <v>69945261</v>
       </c>
       <c r="AM77" s="11">
-        <v>69945261</v>
+        <v>77185095</v>
       </c>
       <c r="AN77" s="11">
-        <v>77185095</v>
+        <v>78050496</v>
       </c>
       <c r="AO77" s="11">
-        <v>78050496</v>
+        <v>77265912</v>
       </c>
       <c r="AP77" s="11">
-        <v>77265912</v>
+        <v>86473461</v>
       </c>
       <c r="AQ77" s="11">
-        <v>86473461</v>
+        <v>87250215</v>
       </c>
       <c r="AR77" s="11">
-        <v>87250215</v>
+        <v>97357994</v>
       </c>
       <c r="AS77" s="11">
-        <v>97357994</v>
+        <v>100632465</v>
       </c>
       <c r="AT77" s="11">
-        <v>100632465</v>
+        <v>100694207</v>
       </c>
       <c r="AU77" s="11">
-        <v>100694207</v>
+        <v>98528694</v>
       </c>
       <c r="AV77" s="11">
-        <v>98528694</v>
+        <v>82622226</v>
       </c>
       <c r="AW77" s="11">
-        <v>82622226</v>
+        <v>82094568</v>
       </c>
       <c r="AX77" s="11">
-        <v>82094568</v>
+        <v>76041058</v>
       </c>
       <c r="AY77" s="11">
-        <v>76041058</v>
+        <v>90418608</v>
       </c>
       <c r="AZ77" s="11">
-        <v>90418608</v>
+        <v>96178877</v>
       </c>
       <c r="BA77" s="11">
-        <v>96178877</v>
+        <v>94216178</v>
       </c>
       <c r="BB77" s="11">
-        <v>94216178</v>
+        <v>104000723</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>58</v>
       </c>
@@ -9896,157 +9896,157 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>133363636</v>
+        <v>132920635</v>
       </c>
       <c r="F78" s="13">
-        <v>132920635</v>
+        <v>105645161</v>
       </c>
       <c r="G78" s="13">
-        <v>105645161</v>
+        <v>119630435</v>
       </c>
       <c r="H78" s="13">
-        <v>119630435</v>
+        <v>124000000</v>
       </c>
       <c r="I78" s="13">
-        <v>124000000</v>
+        <v>127222222</v>
       </c>
       <c r="J78" s="13">
-        <v>127222222</v>
+        <v>139171053</v>
       </c>
       <c r="K78" s="13">
-        <v>139171053</v>
+        <v>178000000</v>
       </c>
       <c r="L78" s="13">
-        <v>178000000</v>
+        <v>127165138</v>
       </c>
       <c r="M78" s="13">
-        <v>127165138</v>
+        <v>127435644</v>
       </c>
       <c r="N78" s="13">
-        <v>127435644</v>
+        <v>123918033</v>
       </c>
       <c r="O78" s="13">
-        <v>123918033</v>
+        <v>128211538</v>
       </c>
       <c r="P78" s="13">
-        <v>128211538</v>
+        <v>132763158</v>
       </c>
       <c r="Q78" s="13">
-        <v>132763158</v>
+        <v>138517857</v>
       </c>
       <c r="R78" s="13">
-        <v>138517857</v>
+        <v>129065789</v>
       </c>
       <c r="S78" s="13">
-        <v>129065789</v>
+        <v>145375000</v>
       </c>
       <c r="T78" s="13">
-        <v>145375000</v>
+        <v>135000000</v>
       </c>
       <c r="U78" s="13">
-        <v>135000000</v>
+        <v>115925926</v>
       </c>
       <c r="V78" s="13">
-        <v>115925926</v>
+        <v>152578947</v>
       </c>
       <c r="W78" s="13">
-        <v>152578947</v>
+        <v>170850000</v>
       </c>
       <c r="X78" s="13">
-        <v>170850000</v>
+        <v>158464516</v>
       </c>
       <c r="Y78" s="13">
-        <v>158464516</v>
+        <v>161641079</v>
       </c>
       <c r="Z78" s="13">
-        <v>161641079</v>
+        <v>202808955</v>
       </c>
       <c r="AA78" s="13">
-        <v>202808955</v>
+        <v>214586538</v>
       </c>
       <c r="AB78" s="13">
-        <v>214586538</v>
+        <v>231342857</v>
       </c>
       <c r="AC78" s="13">
-        <v>231342857</v>
+        <v>236162338</v>
       </c>
       <c r="AD78" s="13">
-        <v>236162338</v>
+        <v>255700000</v>
       </c>
       <c r="AE78" s="13">
-        <v>255700000</v>
+        <v>248500000</v>
       </c>
       <c r="AF78" s="13">
-        <v>248500000</v>
+        <v>239000000</v>
       </c>
       <c r="AG78" s="13">
-        <v>239000000</v>
+        <v>258750000</v>
       </c>
       <c r="AH78" s="13">
-        <v>258750000</v>
+        <v>331800000</v>
       </c>
       <c r="AI78" s="13">
-        <v>331800000</v>
+        <v>382846154</v>
       </c>
       <c r="AJ78" s="13">
-        <v>382846154</v>
+        <v>354686131</v>
       </c>
       <c r="AK78" s="13">
-        <v>354686131</v>
+        <v>352964169</v>
       </c>
       <c r="AL78" s="13">
-        <v>352964169</v>
+        <v>363126761</v>
       </c>
       <c r="AM78" s="13">
-        <v>363126761</v>
+        <v>374935385</v>
       </c>
       <c r="AN78" s="13">
-        <v>374935385</v>
+        <v>365391892</v>
       </c>
       <c r="AO78" s="13">
-        <v>365391892</v>
+        <v>348657459</v>
       </c>
       <c r="AP78" s="13">
-        <v>348657459</v>
+        <v>377750000</v>
       </c>
       <c r="AQ78" s="13">
-        <v>377750000</v>
+        <v>390200000</v>
       </c>
       <c r="AR78" s="13">
-        <v>390200000</v>
+        <v>409000000</v>
       </c>
       <c r="AS78" s="13">
-        <v>409000000</v>
+        <v>384457143</v>
       </c>
       <c r="AT78" s="13">
-        <v>384457143</v>
+        <v>469280000</v>
       </c>
       <c r="AU78" s="13">
-        <v>469280000</v>
+        <v>374400000</v>
       </c>
       <c r="AV78" s="13">
-        <v>374400000</v>
+        <v>581508876</v>
       </c>
       <c r="AW78" s="13">
-        <v>581508876</v>
+        <v>598200489</v>
       </c>
       <c r="AX78" s="13">
-        <v>598200489</v>
+        <v>595037162</v>
       </c>
       <c r="AY78" s="13">
-        <v>595037162</v>
+        <v>600246347</v>
       </c>
       <c r="AZ78" s="13">
-        <v>600246347</v>
+        <v>538537500</v>
       </c>
       <c r="BA78" s="13">
-        <v>538537500</v>
+        <v>553850000</v>
       </c>
       <c r="BB78" s="13">
-        <v>553850000</v>
+        <v>608000000</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>59</v>
       </c>
@@ -10055,89 +10055,89 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>45887276</v>
+        <v>42537182</v>
       </c>
       <c r="F79" s="11">
-        <v>42537182</v>
+        <v>41947193</v>
       </c>
       <c r="G79" s="11">
-        <v>41947193</v>
+        <v>45735170</v>
       </c>
       <c r="H79" s="11">
-        <v>45735170</v>
+        <v>37448090</v>
       </c>
       <c r="I79" s="11">
-        <v>37448090</v>
+        <v>61359241</v>
       </c>
       <c r="J79" s="11">
-        <v>61359241</v>
+        <v>69427496</v>
       </c>
       <c r="K79" s="11">
-        <v>69427496</v>
+        <v>64317572</v>
       </c>
       <c r="L79" s="11">
-        <v>64317572</v>
+        <v>65776451</v>
       </c>
       <c r="M79" s="11">
-        <v>65776451</v>
+        <v>57950605</v>
       </c>
       <c r="N79" s="11">
-        <v>57950605</v>
+        <v>54092793</v>
       </c>
       <c r="O79" s="11">
-        <v>54092793</v>
+        <v>49752729</v>
       </c>
       <c r="P79" s="11">
-        <v>49752729</v>
+        <v>55650725</v>
       </c>
       <c r="Q79" s="11">
-        <v>55650725</v>
+        <v>58851014</v>
       </c>
       <c r="R79" s="11">
-        <v>58851014</v>
+        <v>70555824</v>
       </c>
       <c r="S79" s="11">
-        <v>70555824</v>
+        <v>54698399</v>
       </c>
       <c r="T79" s="11">
-        <v>54698399</v>
+        <v>44999827</v>
       </c>
       <c r="U79" s="11">
-        <v>44999827</v>
+        <v>48922975</v>
       </c>
       <c r="V79" s="11">
-        <v>48922975</v>
+        <v>53942409</v>
       </c>
       <c r="W79" s="11">
-        <v>53942409</v>
+        <v>66410508</v>
       </c>
       <c r="X79" s="11">
-        <v>66410508</v>
+        <v>76690415</v>
       </c>
       <c r="Y79" s="11">
-        <v>76690415</v>
+        <v>79574296</v>
       </c>
       <c r="Z79" s="11">
-        <v>79574296</v>
+        <v>99388310</v>
       </c>
       <c r="AA79" s="11">
-        <v>99388310</v>
+        <v>116762700</v>
       </c>
       <c r="AB79" s="11">
-        <v>116762700</v>
+        <v>113181137</v>
       </c>
       <c r="AC79" s="11">
-        <v>113181137</v>
+        <v>115977761</v>
       </c>
       <c r="AD79" s="11">
-        <v>115977761</v>
+        <v>106209635</v>
       </c>
       <c r="AE79" s="11">
-        <v>106209635</v>
-      </c>
-      <c r="AF79" s="11">
         <v>131645114</v>
       </c>
+      <c r="AF79" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AG79" s="11" t="s">
         <v>57</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
@@ -10214,89 +10214,89 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
-        <v>35376202</v>
+        <v>32922487</v>
       </c>
       <c r="F80" s="13">
-        <v>32922487</v>
+        <v>35292642</v>
       </c>
       <c r="G80" s="13">
-        <v>35292642</v>
+        <v>43525545</v>
       </c>
       <c r="H80" s="13">
-        <v>43525545</v>
+        <v>35382345</v>
       </c>
       <c r="I80" s="13">
-        <v>35382345</v>
+        <v>46870063</v>
       </c>
       <c r="J80" s="13">
-        <v>46870063</v>
+        <v>50236627</v>
       </c>
       <c r="K80" s="13">
-        <v>50236627</v>
+        <v>51114340</v>
       </c>
       <c r="L80" s="13">
-        <v>51114340</v>
+        <v>46527965</v>
       </c>
       <c r="M80" s="13">
-        <v>46527965</v>
+        <v>47189502</v>
       </c>
       <c r="N80" s="13">
-        <v>47189502</v>
+        <v>38087526</v>
       </c>
       <c r="O80" s="13">
-        <v>38087526</v>
+        <v>41745590</v>
       </c>
       <c r="P80" s="13">
-        <v>41745590</v>
+        <v>40586215</v>
       </c>
       <c r="Q80" s="13">
-        <v>40586215</v>
+        <v>37200365</v>
       </c>
       <c r="R80" s="13">
-        <v>37200365</v>
+        <v>36824536</v>
       </c>
       <c r="S80" s="13">
-        <v>36824536</v>
+        <v>38346383</v>
       </c>
       <c r="T80" s="13">
-        <v>38346383</v>
+        <v>33904150</v>
       </c>
       <c r="U80" s="13">
-        <v>33904150</v>
+        <v>37294603</v>
       </c>
       <c r="V80" s="13">
-        <v>37294603</v>
+        <v>32729372</v>
       </c>
       <c r="W80" s="13">
-        <v>32729372</v>
+        <v>35342510</v>
       </c>
       <c r="X80" s="13">
-        <v>35342510</v>
+        <v>48422970</v>
       </c>
       <c r="Y80" s="13">
-        <v>48422970</v>
+        <v>63381520</v>
       </c>
       <c r="Z80" s="13">
-        <v>63381520</v>
+        <v>85409923</v>
       </c>
       <c r="AA80" s="13">
-        <v>85409923</v>
+        <v>92409018</v>
       </c>
       <c r="AB80" s="13">
-        <v>92409018</v>
+        <v>93275117</v>
       </c>
       <c r="AC80" s="13">
-        <v>93275117</v>
+        <v>99099605</v>
       </c>
       <c r="AD80" s="13">
-        <v>99099605</v>
+        <v>92326884</v>
       </c>
       <c r="AE80" s="13">
-        <v>92326884</v>
-      </c>
-      <c r="AF80" s="13">
         <v>101165363</v>
       </c>
+      <c r="AF80" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG80" s="13" t="s">
         <v>57</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>61</v>
       </c>
@@ -10453,77 +10453,77 @@
       <c r="AE81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF81" s="11" t="s">
-        <v>57</v>
+      <c r="AF81" s="11">
+        <v>171958841</v>
       </c>
       <c r="AG81" s="11">
-        <v>171958841</v>
+        <v>224072078</v>
       </c>
       <c r="AH81" s="11">
-        <v>224072078</v>
+        <v>161569984</v>
       </c>
       <c r="AI81" s="11">
-        <v>161569984</v>
+        <v>141988696</v>
       </c>
       <c r="AJ81" s="11">
-        <v>141988696</v>
+        <v>225352775</v>
       </c>
       <c r="AK81" s="11">
-        <v>225352775</v>
+        <v>138756932</v>
       </c>
       <c r="AL81" s="11">
-        <v>138756932</v>
+        <v>203021909</v>
       </c>
       <c r="AM81" s="11">
-        <v>203021909</v>
+        <v>184180521</v>
       </c>
       <c r="AN81" s="11">
-        <v>184180521</v>
+        <v>211942292</v>
       </c>
       <c r="AO81" s="11">
-        <v>211942292</v>
+        <v>195587743</v>
       </c>
       <c r="AP81" s="11">
-        <v>195587743</v>
+        <v>198267052</v>
       </c>
       <c r="AQ81" s="11">
-        <v>198267052</v>
+        <v>223440947</v>
       </c>
       <c r="AR81" s="11">
-        <v>223440947</v>
+        <v>258795858</v>
       </c>
       <c r="AS81" s="11">
-        <v>258795858</v>
+        <v>272366759</v>
       </c>
       <c r="AT81" s="11">
-        <v>272366759</v>
+        <v>235744393</v>
       </c>
       <c r="AU81" s="11">
-        <v>235744393</v>
+        <v>263728064</v>
       </c>
       <c r="AV81" s="11">
-        <v>263728064</v>
+        <v>283911852</v>
       </c>
       <c r="AW81" s="11">
-        <v>283911852</v>
+        <v>203419297</v>
       </c>
       <c r="AX81" s="11">
-        <v>203419297</v>
+        <v>251606654</v>
       </c>
       <c r="AY81" s="11">
-        <v>251606654</v>
+        <v>251337169</v>
       </c>
       <c r="AZ81" s="11">
-        <v>251337169</v>
+        <v>236533328</v>
       </c>
       <c r="BA81" s="11">
-        <v>236533328</v>
+        <v>236378871</v>
       </c>
       <c r="BB81" s="11">
-        <v>236378871</v>
+        <v>268322807</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>62</v>
       </c>
@@ -10532,157 +10532,157 @@
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13">
-        <v>122538462</v>
+        <v>143941176</v>
       </c>
       <c r="F82" s="13">
-        <v>143941176</v>
+        <v>143395833</v>
       </c>
       <c r="G82" s="13">
-        <v>143395833</v>
+        <v>123006667</v>
       </c>
       <c r="H82" s="13">
-        <v>123006667</v>
+        <v>126780488</v>
       </c>
       <c r="I82" s="13">
-        <v>126780488</v>
+        <v>158839080</v>
       </c>
       <c r="J82" s="13">
-        <v>158839080</v>
+        <v>200481481</v>
       </c>
       <c r="K82" s="13">
-        <v>200481481</v>
+        <v>188916667</v>
       </c>
       <c r="L82" s="13">
-        <v>188916667</v>
+        <v>192822222</v>
       </c>
       <c r="M82" s="13">
-        <v>192822222</v>
+        <v>212617647</v>
       </c>
       <c r="N82" s="13">
-        <v>212617647</v>
+        <v>202672727</v>
       </c>
       <c r="O82" s="13">
-        <v>202672727</v>
+        <v>211750000</v>
       </c>
       <c r="P82" s="13">
-        <v>211750000</v>
+        <v>179512195</v>
       </c>
       <c r="Q82" s="13">
-        <v>179512195</v>
+        <v>195000000</v>
       </c>
       <c r="R82" s="13">
-        <v>195000000</v>
+        <v>162250000</v>
       </c>
       <c r="S82" s="13">
-        <v>162250000</v>
+        <v>206500000</v>
       </c>
       <c r="T82" s="13">
-        <v>206500000</v>
+        <v>186000000</v>
       </c>
       <c r="U82" s="13">
-        <v>186000000</v>
+        <v>216050000</v>
       </c>
       <c r="V82" s="13">
-        <v>216050000</v>
+        <v>214117021</v>
       </c>
       <c r="W82" s="13">
-        <v>214117021</v>
+        <v>166126761</v>
       </c>
       <c r="X82" s="13">
-        <v>166126761</v>
+        <v>189253521</v>
       </c>
       <c r="Y82" s="13">
-        <v>189253521</v>
+        <v>199470199</v>
       </c>
       <c r="Z82" s="13">
-        <v>199470199</v>
+        <v>232247059</v>
       </c>
       <c r="AA82" s="13">
-        <v>232247059</v>
+        <v>291792079</v>
       </c>
       <c r="AB82" s="13">
-        <v>291792079</v>
+        <v>386692308</v>
       </c>
       <c r="AC82" s="13">
-        <v>386692308</v>
+        <v>313652174</v>
       </c>
       <c r="AD82" s="13">
-        <v>313652174</v>
+        <v>311153061</v>
       </c>
       <c r="AE82" s="13">
-        <v>311153061</v>
+        <v>358056818</v>
       </c>
       <c r="AF82" s="13">
-        <v>358056818</v>
+        <v>353023256</v>
       </c>
       <c r="AG82" s="13">
-        <v>353023256</v>
+        <v>484285714</v>
       </c>
       <c r="AH82" s="13">
-        <v>484285714</v>
+        <v>347633333</v>
       </c>
       <c r="AI82" s="13">
-        <v>347633333</v>
+        <v>284750000</v>
       </c>
       <c r="AJ82" s="13">
-        <v>284750000</v>
+        <v>451166667</v>
       </c>
       <c r="AK82" s="13">
-        <v>451166667</v>
+        <v>319770833</v>
       </c>
       <c r="AL82" s="13">
-        <v>319770833</v>
+        <v>414000000</v>
       </c>
       <c r="AM82" s="13">
-        <v>414000000</v>
+        <v>538750000</v>
       </c>
       <c r="AN82" s="13">
-        <v>538750000</v>
+        <v>405624161</v>
       </c>
       <c r="AO82" s="13">
-        <v>405624161</v>
+        <v>423748252</v>
       </c>
       <c r="AP82" s="13">
-        <v>423748252</v>
+        <v>436486188</v>
       </c>
       <c r="AQ82" s="13">
-        <v>436486188</v>
+        <v>453311927</v>
       </c>
       <c r="AR82" s="13">
-        <v>453311927</v>
+        <v>460440000</v>
       </c>
       <c r="AS82" s="13">
-        <v>460440000</v>
+        <v>647282609</v>
       </c>
       <c r="AT82" s="13">
-        <v>647282609</v>
+        <v>795903226</v>
       </c>
       <c r="AU82" s="13">
-        <v>795903226</v>
+        <v>836906250</v>
       </c>
       <c r="AV82" s="13">
-        <v>836906250</v>
+        <v>834915344</v>
       </c>
       <c r="AW82" s="13">
-        <v>834915344</v>
+        <v>817412903</v>
       </c>
       <c r="AX82" s="13">
-        <v>817412903</v>
+        <v>701384181</v>
       </c>
       <c r="AY82" s="13">
-        <v>701384181</v>
+        <v>750418239</v>
       </c>
       <c r="AZ82" s="13">
-        <v>750418239</v>
+        <v>686300300</v>
       </c>
       <c r="BA82" s="13">
-        <v>686300300</v>
+        <v>874238739</v>
       </c>
       <c r="BB82" s="13">
-        <v>874238739</v>
+        <v>741491525</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>63</v>
       </c>
@@ -10771,77 +10771,77 @@
       <c r="AE83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF83" s="11" t="s">
-        <v>57</v>
+      <c r="AF83" s="11">
+        <v>105152147</v>
       </c>
       <c r="AG83" s="11">
-        <v>105152147</v>
+        <v>114405200</v>
       </c>
       <c r="AH83" s="11">
-        <v>114405200</v>
+        <v>110140835</v>
       </c>
       <c r="AI83" s="11">
-        <v>110140835</v>
+        <v>117090909</v>
       </c>
       <c r="AJ83" s="11">
-        <v>117090909</v>
+        <v>126720497</v>
       </c>
       <c r="AK83" s="11">
-        <v>126720497</v>
+        <v>126262115</v>
       </c>
       <c r="AL83" s="11">
-        <v>126262115</v>
+        <v>147153083</v>
       </c>
       <c r="AM83" s="11">
-        <v>147153083</v>
+        <v>142498745</v>
       </c>
       <c r="AN83" s="11">
-        <v>142498745</v>
+        <v>165389382</v>
       </c>
       <c r="AO83" s="11">
-        <v>165389382</v>
+        <v>162873528</v>
       </c>
       <c r="AP83" s="11">
-        <v>162873528</v>
+        <v>157128350</v>
       </c>
       <c r="AQ83" s="11">
-        <v>157128350</v>
+        <v>157134749</v>
       </c>
       <c r="AR83" s="11">
-        <v>157134749</v>
+        <v>188863619</v>
       </c>
       <c r="AS83" s="11">
-        <v>188863619</v>
+        <v>194817884</v>
       </c>
       <c r="AT83" s="11">
-        <v>194817884</v>
+        <v>197859559</v>
       </c>
       <c r="AU83" s="11">
-        <v>197859559</v>
+        <v>209283564</v>
       </c>
       <c r="AV83" s="11">
-        <v>209283564</v>
+        <v>189434758</v>
       </c>
       <c r="AW83" s="11">
-        <v>189434758</v>
+        <v>171624083</v>
       </c>
       <c r="AX83" s="11">
-        <v>171624083</v>
+        <v>167278068</v>
       </c>
       <c r="AY83" s="11">
-        <v>167278068</v>
+        <v>168177470</v>
       </c>
       <c r="AZ83" s="11">
-        <v>168177470</v>
+        <v>166224276</v>
       </c>
       <c r="BA83" s="11">
-        <v>166224276</v>
+        <v>163821472</v>
       </c>
       <c r="BB83" s="11">
-        <v>163821472</v>
+        <v>180435167</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>64</v>
       </c>
@@ -10930,77 +10930,77 @@
       <c r="AE84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF84" s="13" t="s">
-        <v>57</v>
+      <c r="AF84" s="13">
+        <v>193416624</v>
       </c>
       <c r="AG84" s="13">
-        <v>193416624</v>
+        <v>193054206</v>
       </c>
       <c r="AH84" s="13">
-        <v>193054206</v>
+        <v>199306977</v>
       </c>
       <c r="AI84" s="13">
-        <v>199306977</v>
+        <v>193658221</v>
       </c>
       <c r="AJ84" s="13">
-        <v>193658221</v>
+        <v>262883622</v>
       </c>
       <c r="AK84" s="13">
-        <v>262883622</v>
+        <v>265503053</v>
       </c>
       <c r="AL84" s="13">
-        <v>265503053</v>
+        <v>255766639</v>
       </c>
       <c r="AM84" s="13">
-        <v>255766639</v>
+        <v>252928732</v>
       </c>
       <c r="AN84" s="13">
-        <v>252928732</v>
+        <v>257814652</v>
       </c>
       <c r="AO84" s="13">
-        <v>257814652</v>
+        <v>266040788</v>
       </c>
       <c r="AP84" s="13">
-        <v>266040788</v>
+        <v>274085257</v>
       </c>
       <c r="AQ84" s="13">
-        <v>274085257</v>
+        <v>274655898</v>
       </c>
       <c r="AR84" s="13">
-        <v>274655898</v>
+        <v>270172489</v>
       </c>
       <c r="AS84" s="13">
-        <v>270172489</v>
+        <v>304058911</v>
       </c>
       <c r="AT84" s="13">
-        <v>304058911</v>
+        <v>347489076</v>
       </c>
       <c r="AU84" s="13">
-        <v>347489076</v>
+        <v>334169128</v>
       </c>
       <c r="AV84" s="13">
-        <v>334169128</v>
+        <v>335499403</v>
       </c>
       <c r="AW84" s="13">
-        <v>335499403</v>
+        <v>352919437</v>
       </c>
       <c r="AX84" s="13">
-        <v>352919437</v>
+        <v>332988346</v>
       </c>
       <c r="AY84" s="13">
-        <v>332988346</v>
+        <v>334557193</v>
       </c>
       <c r="AZ84" s="13">
-        <v>334557193</v>
+        <v>337865824</v>
       </c>
       <c r="BA84" s="13">
-        <v>337865824</v>
+        <v>334864841</v>
       </c>
       <c r="BB84" s="13">
-        <v>334864841</v>
+        <v>327010903</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>65</v>
       </c>
@@ -11089,77 +11089,77 @@
       <c r="AE85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF85" s="11" t="s">
-        <v>57</v>
+      <c r="AF85" s="11">
+        <v>214685360</v>
       </c>
       <c r="AG85" s="11">
-        <v>214685360</v>
+        <v>209981038</v>
       </c>
       <c r="AH85" s="11">
-        <v>209981038</v>
+        <v>207627182</v>
       </c>
       <c r="AI85" s="11">
-        <v>207627182</v>
+        <v>253204908</v>
       </c>
       <c r="AJ85" s="11">
-        <v>253204908</v>
+        <v>304955090</v>
       </c>
       <c r="AK85" s="11">
-        <v>304955090</v>
+        <v>290654445</v>
       </c>
       <c r="AL85" s="11">
-        <v>290654445</v>
+        <v>278241892</v>
       </c>
       <c r="AM85" s="11">
-        <v>278241892</v>
+        <v>297561678</v>
       </c>
       <c r="AN85" s="11">
-        <v>297561678</v>
+        <v>286394773</v>
       </c>
       <c r="AO85" s="11">
-        <v>286394773</v>
+        <v>298922024</v>
       </c>
       <c r="AP85" s="11">
-        <v>298922024</v>
+        <v>313071495</v>
       </c>
       <c r="AQ85" s="11">
-        <v>313071495</v>
+        <v>295770249</v>
       </c>
       <c r="AR85" s="11">
-        <v>295770249</v>
+        <v>285108227</v>
       </c>
       <c r="AS85" s="11">
-        <v>285108227</v>
+        <v>305311244</v>
       </c>
       <c r="AT85" s="11">
-        <v>305311244</v>
+        <v>343947629</v>
       </c>
       <c r="AU85" s="11">
-        <v>343947629</v>
+        <v>364606179</v>
       </c>
       <c r="AV85" s="11">
-        <v>364606179</v>
+        <v>379597760</v>
       </c>
       <c r="AW85" s="11">
-        <v>379597760</v>
+        <v>373743045</v>
       </c>
       <c r="AX85" s="11">
-        <v>373743045</v>
+        <v>363630547</v>
       </c>
       <c r="AY85" s="11">
-        <v>363630547</v>
+        <v>366979616</v>
       </c>
       <c r="AZ85" s="11">
-        <v>366979616</v>
+        <v>368216433</v>
       </c>
       <c r="BA85" s="11">
-        <v>368216433</v>
+        <v>376718058</v>
       </c>
       <c r="BB85" s="11">
-        <v>376718058</v>
+        <v>393502765</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>66</v>
       </c>
@@ -11248,77 +11248,77 @@
       <c r="AE86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF86" s="13" t="s">
-        <v>57</v>
+      <c r="AF86" s="13">
+        <v>305993373</v>
       </c>
       <c r="AG86" s="13">
-        <v>305993373</v>
+        <v>334571221</v>
       </c>
       <c r="AH86" s="13">
-        <v>334571221</v>
+        <v>335521013</v>
       </c>
       <c r="AI86" s="13">
-        <v>335521013</v>
+        <v>349565986</v>
       </c>
       <c r="AJ86" s="13">
-        <v>349565986</v>
+        <v>354795226</v>
       </c>
       <c r="AK86" s="13">
-        <v>354795226</v>
+        <v>372546376</v>
       </c>
       <c r="AL86" s="13">
-        <v>372546376</v>
+        <v>392967857</v>
       </c>
       <c r="AM86" s="13">
-        <v>392967857</v>
+        <v>372853731</v>
       </c>
       <c r="AN86" s="13">
-        <v>372853731</v>
+        <v>386030268</v>
       </c>
       <c r="AO86" s="13">
-        <v>386030268</v>
+        <v>395557255</v>
       </c>
       <c r="AP86" s="13">
-        <v>395557255</v>
+        <v>395114754</v>
       </c>
       <c r="AQ86" s="13">
-        <v>395114754</v>
+        <v>424465943</v>
       </c>
       <c r="AR86" s="13">
-        <v>424465943</v>
+        <v>490558188</v>
       </c>
       <c r="AS86" s="13">
-        <v>490558188</v>
+        <v>504809081</v>
       </c>
       <c r="AT86" s="13">
-        <v>504809081</v>
+        <v>502825058</v>
       </c>
       <c r="AU86" s="13">
-        <v>502825058</v>
+        <v>541344799</v>
       </c>
       <c r="AV86" s="13">
-        <v>541344799</v>
+        <v>484119662</v>
       </c>
       <c r="AW86" s="13">
-        <v>484119662</v>
+        <v>539117046</v>
       </c>
       <c r="AX86" s="13">
-        <v>539117046</v>
+        <v>542352028</v>
       </c>
       <c r="AY86" s="13">
-        <v>542352028</v>
+        <v>542800868</v>
       </c>
       <c r="AZ86" s="13">
-        <v>542800868</v>
+        <v>561909639</v>
       </c>
       <c r="BA86" s="13">
-        <v>561909639</v>
+        <v>533273537</v>
       </c>
       <c r="BB86" s="13">
-        <v>533273537</v>
+        <v>528815147</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>67</v>
       </c>
@@ -11407,74 +11407,74 @@
       <c r="AE87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF87" s="11" t="s">
-        <v>57</v>
+      <c r="AF87" s="11">
+        <v>75489854</v>
       </c>
       <c r="AG87" s="11">
-        <v>75489854</v>
+        <v>72858923</v>
       </c>
       <c r="AH87" s="11">
-        <v>72858923</v>
+        <v>67451335</v>
       </c>
       <c r="AI87" s="11">
-        <v>67451335</v>
+        <v>77823042</v>
       </c>
       <c r="AJ87" s="11">
-        <v>77823042</v>
+        <v>78063186</v>
       </c>
       <c r="AK87" s="11">
-        <v>78063186</v>
+        <v>83464541</v>
       </c>
       <c r="AL87" s="11">
-        <v>83464541</v>
+        <v>93661428</v>
       </c>
       <c r="AM87" s="11">
-        <v>93661428</v>
+        <v>95937818</v>
       </c>
       <c r="AN87" s="11">
-        <v>95937818</v>
+        <v>91732327</v>
       </c>
       <c r="AO87" s="11">
-        <v>91732327</v>
+        <v>95192323</v>
       </c>
       <c r="AP87" s="11">
-        <v>95192323</v>
+        <v>102888950</v>
       </c>
       <c r="AQ87" s="11">
-        <v>102888950</v>
+        <v>115388555</v>
       </c>
       <c r="AR87" s="11">
-        <v>115388555</v>
+        <v>146435995</v>
       </c>
       <c r="AS87" s="11">
-        <v>146435995</v>
+        <v>146250673</v>
       </c>
       <c r="AT87" s="11">
-        <v>146250673</v>
+        <v>150335578</v>
       </c>
       <c r="AU87" s="11">
-        <v>150335578</v>
+        <v>158862131</v>
       </c>
       <c r="AV87" s="11">
-        <v>158862131</v>
+        <v>138408152</v>
       </c>
       <c r="AW87" s="11">
-        <v>138408152</v>
+        <v>115424623</v>
       </c>
       <c r="AX87" s="11">
-        <v>115424623</v>
+        <v>106516496</v>
       </c>
       <c r="AY87" s="11">
-        <v>106516496</v>
+        <v>102410297</v>
       </c>
       <c r="AZ87" s="11">
-        <v>102410297</v>
+        <v>110145257</v>
       </c>
       <c r="BA87" s="11">
-        <v>110145257</v>
+        <v>93572869</v>
       </c>
       <c r="BB87" s="11">
-        <v>93572869</v>
+        <v>100452251</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ravankar/sheranol/product/monthly.xlsx
+++ b/database/industries/ravankar/sheranol/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="83">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3345,80 +3345,80 @@
       <c r="AC11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD11" s="13" t="s">
-        <v>57</v>
+      <c r="AD11" s="13" t="n">
+        <v>10822</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>10822</v>
+        <v>13099</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>13099</v>
+        <v>8769</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>8769</v>
+        <v>7390</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>7390</v>
+        <v>8996</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>8996</v>
+        <v>13152</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>13152</v>
+        <v>6747</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>6747</v>
+        <v>7499</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>7499</v>
+        <v>8585</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>8585</v>
+        <v>7270</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>7270</v>
+        <v>6529</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>6529</v>
+        <v>4163</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>4163</v>
+        <v>8056</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>8056</v>
+        <v>11939</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>11939</v>
+        <v>7146</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>7146</v>
+        <v>4914</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>4914</v>
+        <v>11626</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>11626</v>
+        <v>9591</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>9591</v>
+        <v>10473</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>10473</v>
+        <v>6997</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>6997</v>
+        <v>4913</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>4913</v>
+        <v>6985</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>6985</v>
+        <v>6911</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>6911</v>
+        <v>7890</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>7890</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,154 +3430,154 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>208</v>
+      </c>
+      <c r="H12" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="I12" s="15" t="n">
+        <v>329</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>336</v>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>112</v>
+      </c>
+      <c r="M12" s="15" t="n">
+        <v>32</v>
+      </c>
+      <c r="N12" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="O12" s="15" t="n">
+        <v>66</v>
+      </c>
+      <c r="P12" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="T12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15" t="n">
+        <v>510</v>
+      </c>
+      <c r="V12" s="15" t="n">
+        <v>84</v>
+      </c>
+      <c r="W12" s="15" t="n">
+        <v>332</v>
+      </c>
+      <c r="X12" s="15" t="n">
+        <v>89</v>
+      </c>
+      <c r="Y12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="15" t="n">
+        <v>183</v>
+      </c>
+      <c r="AA12" s="15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="15" t="n">
+        <v>94</v>
+      </c>
+      <c r="AF12" s="15" t="n">
+        <v>409</v>
+      </c>
+      <c r="AG12" s="15" t="n">
+        <v>538</v>
+      </c>
+      <c r="AH12" s="15" t="n">
+        <v>454</v>
+      </c>
+      <c r="AI12" s="15" t="n">
+        <v>184</v>
+      </c>
+      <c r="AJ12" s="15" t="n">
+        <v>33</v>
+      </c>
+      <c r="AK12" s="15" t="n">
+        <v>105</v>
+      </c>
+      <c r="AL12" s="15" t="n">
+        <v>133</v>
+      </c>
+      <c r="AM12" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="15" t="n">
+        <v>166</v>
+      </c>
+      <c r="AR12" s="15" t="n">
+        <v>212</v>
+      </c>
+      <c r="AS12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="15" t="n">
+        <v>435</v>
+      </c>
+      <c r="AU12" s="15" t="n">
+        <v>354</v>
+      </c>
+      <c r="AV12" s="15" t="n">
+        <v>387</v>
+      </c>
+      <c r="AW12" s="15" t="n">
+        <v>99</v>
+      </c>
+      <c r="AX12" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="G12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15" t="n">
-        <v>208</v>
-      </c>
-      <c r="I12" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="J12" s="15" t="n">
-        <v>329</v>
-      </c>
-      <c r="K12" s="15" t="n">
-        <v>336</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="15" t="n">
-        <v>112</v>
-      </c>
-      <c r="N12" s="15" t="n">
-        <v>32</v>
-      </c>
-      <c r="O12" s="15" t="n">
-        <v>64</v>
-      </c>
-      <c r="P12" s="15" t="n">
-        <v>66</v>
-      </c>
-      <c r="Q12" s="15" t="n">
+      <c r="AY12" s="15" t="n">
         <v>21</v>
       </c>
-      <c r="R12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="15" t="n">
-        <v>24</v>
-      </c>
-      <c r="U12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="15" t="n">
-        <v>510</v>
-      </c>
-      <c r="W12" s="15" t="n">
-        <v>84</v>
-      </c>
-      <c r="X12" s="15" t="n">
-        <v>332</v>
-      </c>
-      <c r="Y12" s="15" t="n">
-        <v>89</v>
-      </c>
-      <c r="Z12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="15" t="n">
-        <v>183</v>
-      </c>
-      <c r="AB12" s="15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="15" t="n">
-        <v>94</v>
-      </c>
-      <c r="AG12" s="15" t="n">
-        <v>409</v>
-      </c>
-      <c r="AH12" s="15" t="n">
-        <v>538</v>
-      </c>
-      <c r="AI12" s="15" t="n">
-        <v>454</v>
-      </c>
-      <c r="AJ12" s="15" t="n">
-        <v>184</v>
-      </c>
-      <c r="AK12" s="15" t="n">
-        <v>33</v>
-      </c>
-      <c r="AL12" s="15" t="n">
-        <v>105</v>
-      </c>
-      <c r="AM12" s="15" t="n">
-        <v>133</v>
-      </c>
-      <c r="AN12" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="15" t="n">
-        <v>166</v>
-      </c>
-      <c r="AS12" s="15" t="n">
-        <v>212</v>
-      </c>
-      <c r="AT12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="15" t="n">
-        <v>435</v>
-      </c>
-      <c r="AV12" s="15" t="n">
-        <v>354</v>
-      </c>
-      <c r="AW12" s="15" t="n">
-        <v>387</v>
-      </c>
-      <c r="AX12" s="15" t="n">
-        <v>99</v>
-      </c>
-      <c r="AY12" s="15" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ12" s="15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BB12" s="15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,82 +3589,82 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="n">
-        <v>45829</v>
+        <v>49656</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>49656</v>
+        <v>31917</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>31917</v>
+        <v>30772</v>
       </c>
       <c r="H13" s="13" t="n">
-        <v>30772</v>
+        <v>37448</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>37448</v>
+        <v>40280</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>40280</v>
+        <v>34684</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>34684</v>
+        <v>40273</v>
       </c>
       <c r="L13" s="13" t="n">
-        <v>40273</v>
+        <v>40152</v>
       </c>
       <c r="M13" s="13" t="n">
-        <v>40152</v>
+        <v>49309</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>49309</v>
+        <v>49616</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>49616</v>
+        <v>41544</v>
       </c>
       <c r="P13" s="13" t="n">
-        <v>41544</v>
+        <v>37630</v>
       </c>
       <c r="Q13" s="13" t="n">
-        <v>37630</v>
+        <v>50915</v>
       </c>
       <c r="R13" s="13" t="n">
-        <v>50915</v>
+        <v>29778</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>29778</v>
+        <v>44428</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>44428</v>
+        <v>39285</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>39285</v>
+        <v>39457</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>39457</v>
+        <v>42401</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>42401</v>
+        <v>47020</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>47020</v>
+        <v>39577</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>39577</v>
+        <v>40962</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>40962</v>
+        <v>52347</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>52347</v>
+        <v>41300</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>41300</v>
+        <v>36353</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>36353</v>
-      </c>
-      <c r="AD13" s="13" t="n">
         <v>52632</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE13" s="13" t="s">
         <v>57</v>
@@ -3748,82 +3748,82 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="n">
-        <v>5289</v>
+        <v>4663</v>
       </c>
       <c r="F14" s="15" t="n">
-        <v>4663</v>
+        <v>4163</v>
       </c>
       <c r="G14" s="15" t="n">
-        <v>4163</v>
+        <v>6542</v>
       </c>
       <c r="H14" s="15" t="n">
-        <v>6542</v>
+        <v>4891</v>
       </c>
       <c r="I14" s="15" t="n">
-        <v>4891</v>
+        <v>4538</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>4538</v>
+        <v>5536</v>
       </c>
       <c r="K14" s="15" t="n">
-        <v>5536</v>
+        <v>5831</v>
       </c>
       <c r="L14" s="15" t="n">
-        <v>5831</v>
+        <v>3302</v>
       </c>
       <c r="M14" s="15" t="n">
-        <v>3302</v>
+        <v>4217</v>
       </c>
       <c r="N14" s="15" t="n">
-        <v>4217</v>
+        <v>3768</v>
       </c>
       <c r="O14" s="15" t="n">
-        <v>3768</v>
+        <v>5029</v>
       </c>
       <c r="P14" s="15" t="n">
-        <v>5029</v>
+        <v>4355</v>
       </c>
       <c r="Q14" s="15" t="n">
-        <v>4355</v>
+        <v>8691</v>
       </c>
       <c r="R14" s="15" t="n">
-        <v>8691</v>
+        <v>4825</v>
       </c>
       <c r="S14" s="15" t="n">
-        <v>4825</v>
+        <v>6392</v>
       </c>
       <c r="T14" s="15" t="n">
-        <v>6392</v>
+        <v>6043</v>
       </c>
       <c r="U14" s="15" t="n">
-        <v>6043</v>
+        <v>5928</v>
       </c>
       <c r="V14" s="15" t="n">
-        <v>5928</v>
+        <v>5662</v>
       </c>
       <c r="W14" s="15" t="n">
-        <v>5662</v>
+        <v>6190</v>
       </c>
       <c r="X14" s="15" t="n">
-        <v>6190</v>
+        <v>5319</v>
       </c>
       <c r="Y14" s="15" t="n">
-        <v>5319</v>
+        <v>5070</v>
       </c>
       <c r="Z14" s="15" t="n">
-        <v>5070</v>
+        <v>6431</v>
       </c>
       <c r="AA14" s="15" t="n">
-        <v>6431</v>
+        <v>5715</v>
       </c>
       <c r="AB14" s="15" t="n">
-        <v>5715</v>
+        <v>4694</v>
       </c>
       <c r="AC14" s="15" t="n">
-        <v>4694</v>
-      </c>
-      <c r="AD14" s="15" t="n">
         <v>6851</v>
+      </c>
+      <c r="AD14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE14" s="16" t="s">
         <v>57</v>
@@ -3981,80 +3981,80 @@
       <c r="AC15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD15" s="13" t="s">
-        <v>57</v>
+      <c r="AD15" s="13" t="n">
+        <v>1566</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>1566</v>
+        <v>15969</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>15969</v>
+        <v>3858</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>3858</v>
+        <v>10085</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>10085</v>
+        <v>1758</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>1758</v>
+        <v>13391</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>13391</v>
+        <v>4344</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>4344</v>
+        <v>20104</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>20104</v>
+        <v>6385</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>6385</v>
+        <v>3486</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>3486</v>
+        <v>16925</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>16925</v>
+        <v>3556</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>3556</v>
+        <v>8144</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>8144</v>
+        <v>13716</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>13716</v>
+        <v>11326</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>11326</v>
+        <v>19751</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>19751</v>
+        <v>7079</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>7079</v>
+        <v>9745</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>9745</v>
+        <v>6943</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>6943</v>
+        <v>8082</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>8082</v>
+        <v>11657</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>11657</v>
+        <v>7847</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>7847</v>
+        <v>7853</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>7853</v>
+        <v>5110</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>5110</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,19 +4201,19 @@
         <v>0</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,80 +4299,80 @@
       <c r="AC17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD17" s="13" t="s">
-        <v>57</v>
+      <c r="AD17" s="13" t="n">
+        <v>5736</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>5736</v>
+        <v>6399</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>6399</v>
+        <v>4147</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>4147</v>
+        <v>3532</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>3532</v>
+        <v>5456</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>5456</v>
+        <v>7660</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>7660</v>
+        <v>5187</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>5187</v>
+        <v>7104</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>7104</v>
+        <v>5894</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>5894</v>
+        <v>5640</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>5640</v>
+        <v>6552</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>6552</v>
+        <v>5669</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>5669</v>
+        <v>5578</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>5578</v>
+        <v>7005</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>7005</v>
+        <v>5183</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>5183</v>
+        <v>5337</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>5337</v>
+        <v>6138</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>6138</v>
+        <v>6285</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>6285</v>
+        <v>5748</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>5748</v>
+        <v>6611</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>6611</v>
+        <v>6380</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>6380</v>
+        <v>4756</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>4756</v>
+        <v>5415</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>5415</v>
+        <v>4981</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>4981</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4458,80 +4458,80 @@
       <c r="AC18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="16" t="s">
-        <v>57</v>
+      <c r="AD18" s="16" t="n">
+        <v>1548</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>1548</v>
+        <v>3795</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>3795</v>
+        <v>3436</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>3436</v>
+        <v>4486</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>4486</v>
+        <v>5615</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>5615</v>
+        <v>6058</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>6058</v>
+        <v>4559</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>4559</v>
+        <v>4545</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>4545</v>
+        <v>4982</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>4982</v>
+        <v>5065</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>5065</v>
+        <v>2471</v>
       </c>
       <c r="AO18" s="16" t="n">
-        <v>2471</v>
+        <v>3479</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>3479</v>
+        <v>2936</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>2936</v>
+        <v>2349</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>2349</v>
+        <v>2393</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>2393</v>
+        <v>5053</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>5053</v>
+        <v>4710</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>4710</v>
+        <v>3467</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>3467</v>
+        <v>4038</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>4038</v>
+        <v>6550</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>6550</v>
+        <v>5486</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>5486</v>
+        <v>6893</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>6893</v>
+        <v>6922</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>6922</v>
+        <v>5858</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>5858</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,80 +4617,80 @@
       <c r="AC19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD19" s="13" t="s">
-        <v>57</v>
+      <c r="AD19" s="13" t="n">
+        <v>2649</v>
       </c>
       <c r="AE19" s="13" t="n">
-        <v>2649</v>
+        <v>3850</v>
       </c>
       <c r="AF19" s="13" t="n">
-        <v>3850</v>
+        <v>3672</v>
       </c>
       <c r="AG19" s="13" t="n">
-        <v>3672</v>
+        <v>3306</v>
       </c>
       <c r="AH19" s="13" t="n">
-        <v>3306</v>
+        <v>3341</v>
       </c>
       <c r="AI19" s="13" t="n">
-        <v>3341</v>
+        <v>5926</v>
       </c>
       <c r="AJ19" s="13" t="n">
-        <v>5926</v>
+        <v>5166</v>
       </c>
       <c r="AK19" s="13" t="n">
-        <v>5166</v>
+        <v>5112</v>
       </c>
       <c r="AL19" s="13" t="n">
-        <v>5112</v>
+        <v>4548</v>
       </c>
       <c r="AM19" s="13" t="n">
-        <v>4548</v>
+        <v>4803</v>
       </c>
       <c r="AN19" s="13" t="n">
-        <v>4803</v>
+        <v>5482</v>
       </c>
       <c r="AO19" s="13" t="n">
-        <v>5482</v>
+        <v>4383</v>
       </c>
       <c r="AP19" s="13" t="n">
-        <v>4383</v>
+        <v>3642</v>
       </c>
       <c r="AQ19" s="13" t="n">
-        <v>3642</v>
+        <v>3803</v>
       </c>
       <c r="AR19" s="13" t="n">
-        <v>3803</v>
+        <v>3075</v>
       </c>
       <c r="AS19" s="13" t="n">
-        <v>3075</v>
+        <v>5003</v>
       </c>
       <c r="AT19" s="13" t="n">
-        <v>5003</v>
+        <v>5637</v>
       </c>
       <c r="AU19" s="13" t="n">
-        <v>5637</v>
+        <v>6455</v>
       </c>
       <c r="AV19" s="13" t="n">
-        <v>6455</v>
+        <v>5073</v>
       </c>
       <c r="AW19" s="13" t="n">
-        <v>5073</v>
+        <v>4394</v>
       </c>
       <c r="AX19" s="13" t="n">
-        <v>4394</v>
+        <v>4998</v>
       </c>
       <c r="AY19" s="13" t="n">
-        <v>4998</v>
+        <v>5346</v>
       </c>
       <c r="AZ19" s="13" t="n">
-        <v>5346</v>
+        <v>4697</v>
       </c>
       <c r="BA19" s="13" t="n">
-        <v>4697</v>
+        <v>3401</v>
       </c>
       <c r="BB19" s="13" t="n">
-        <v>3401</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,80 +4776,80 @@
       <c r="AC20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD20" s="16" t="s">
-        <v>57</v>
+      <c r="AD20" s="16" t="n">
+        <v>1957</v>
       </c>
       <c r="AE20" s="16" t="n">
-        <v>1957</v>
+        <v>2273</v>
       </c>
       <c r="AF20" s="16" t="n">
-        <v>2273</v>
+        <v>2234</v>
       </c>
       <c r="AG20" s="16" t="n">
-        <v>2234</v>
+        <v>1571</v>
       </c>
       <c r="AH20" s="16" t="n">
-        <v>1571</v>
+        <v>1951</v>
       </c>
       <c r="AI20" s="16" t="n">
-        <v>1951</v>
+        <v>3277</v>
       </c>
       <c r="AJ20" s="16" t="n">
-        <v>3277</v>
+        <v>2530</v>
       </c>
       <c r="AK20" s="16" t="n">
-        <v>2530</v>
+        <v>3085</v>
       </c>
       <c r="AL20" s="16" t="n">
-        <v>3085</v>
+        <v>3299</v>
       </c>
       <c r="AM20" s="16" t="n">
-        <v>3299</v>
+        <v>2949</v>
       </c>
       <c r="AN20" s="16" t="n">
-        <v>2949</v>
+        <v>3273</v>
       </c>
       <c r="AO20" s="16" t="n">
-        <v>3273</v>
+        <v>2851</v>
       </c>
       <c r="AP20" s="16" t="n">
-        <v>2851</v>
+        <v>1888</v>
       </c>
       <c r="AQ20" s="16" t="n">
-        <v>1888</v>
+        <v>3904</v>
       </c>
       <c r="AR20" s="16" t="n">
-        <v>3904</v>
+        <v>2261</v>
       </c>
       <c r="AS20" s="16" t="n">
-        <v>2261</v>
+        <v>1814</v>
       </c>
       <c r="AT20" s="16" t="n">
-        <v>1814</v>
+        <v>2309</v>
       </c>
       <c r="AU20" s="16" t="n">
-        <v>2309</v>
+        <v>2519</v>
       </c>
       <c r="AV20" s="16" t="n">
-        <v>2519</v>
+        <v>2053</v>
       </c>
       <c r="AW20" s="16" t="n">
-        <v>2053</v>
+        <v>2664</v>
       </c>
       <c r="AX20" s="16" t="n">
-        <v>2664</v>
+        <v>2704</v>
       </c>
       <c r="AY20" s="16" t="n">
-        <v>2704</v>
+        <v>3124</v>
       </c>
       <c r="AZ20" s="16" t="n">
-        <v>3124</v>
+        <v>3067</v>
       </c>
       <c r="BA20" s="16" t="n">
-        <v>3067</v>
+        <v>2085</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>2085</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,80 +4935,80 @@
       <c r="AC21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD21" s="13" t="s">
-        <v>57</v>
+      <c r="AD21" s="13" t="n">
+        <v>13596</v>
       </c>
       <c r="AE21" s="13" t="n">
-        <v>13596</v>
+        <v>12436</v>
       </c>
       <c r="AF21" s="13" t="n">
-        <v>12436</v>
+        <v>13550</v>
       </c>
       <c r="AG21" s="13" t="n">
-        <v>13550</v>
+        <v>6573</v>
       </c>
       <c r="AH21" s="13" t="n">
-        <v>6573</v>
+        <v>14443</v>
       </c>
       <c r="AI21" s="13" t="n">
-        <v>14443</v>
+        <v>13010</v>
       </c>
       <c r="AJ21" s="13" t="n">
-        <v>13010</v>
+        <v>8877</v>
       </c>
       <c r="AK21" s="13" t="n">
-        <v>8877</v>
+        <v>18295</v>
       </c>
       <c r="AL21" s="13" t="n">
-        <v>18295</v>
+        <v>22341</v>
       </c>
       <c r="AM21" s="13" t="n">
-        <v>22341</v>
+        <v>14368</v>
       </c>
       <c r="AN21" s="13" t="n">
-        <v>14368</v>
+        <v>16297</v>
       </c>
       <c r="AO21" s="13" t="n">
-        <v>16297</v>
+        <v>10097</v>
       </c>
       <c r="AP21" s="13" t="n">
-        <v>10097</v>
+        <v>16358</v>
       </c>
       <c r="AQ21" s="13" t="n">
-        <v>16358</v>
+        <v>17207</v>
       </c>
       <c r="AR21" s="13" t="n">
-        <v>17207</v>
+        <v>16980</v>
       </c>
       <c r="AS21" s="13" t="n">
-        <v>16980</v>
+        <v>8881</v>
       </c>
       <c r="AT21" s="13" t="n">
-        <v>8881</v>
+        <v>15862</v>
       </c>
       <c r="AU21" s="13" t="n">
-        <v>15862</v>
+        <v>13292</v>
       </c>
       <c r="AV21" s="13" t="n">
-        <v>13292</v>
+        <v>12712</v>
       </c>
       <c r="AW21" s="13" t="n">
-        <v>12712</v>
+        <v>14408</v>
       </c>
       <c r="AX21" s="13" t="n">
-        <v>14408</v>
+        <v>13271</v>
       </c>
       <c r="AY21" s="13" t="n">
-        <v>13271</v>
+        <v>15468</v>
       </c>
       <c r="AZ21" s="13" t="n">
-        <v>15468</v>
+        <v>12532</v>
       </c>
       <c r="BA21" s="13" t="n">
-        <v>12532</v>
+        <v>13784</v>
       </c>
       <c r="BB21" s="13" t="n">
-        <v>13784</v>
+        <v>8899</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,8 +5122,8 @@
       <c r="T23" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U23" s="20" t="s">
-        <v>57</v>
+      <c r="U23" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="20" t="n">
         <v>0</v>
@@ -5232,154 +5232,154 @@
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="n">
-        <v>51138</v>
+        <v>54337</v>
       </c>
       <c r="F24" s="22" t="n">
-        <v>54337</v>
+        <v>36080</v>
       </c>
       <c r="G24" s="22" t="n">
-        <v>36080</v>
+        <v>37522</v>
       </c>
       <c r="H24" s="22" t="n">
-        <v>37522</v>
+        <v>42359</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>42359</v>
+        <v>45147</v>
       </c>
       <c r="J24" s="22" t="n">
-        <v>45147</v>
+        <v>40556</v>
       </c>
       <c r="K24" s="22" t="n">
-        <v>40556</v>
+        <v>46105</v>
       </c>
       <c r="L24" s="22" t="n">
-        <v>46105</v>
+        <v>43566</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>43566</v>
+        <v>53558</v>
       </c>
       <c r="N24" s="22" t="n">
-        <v>53558</v>
+        <v>53448</v>
       </c>
       <c r="O24" s="22" t="n">
-        <v>53448</v>
+        <v>46639</v>
       </c>
       <c r="P24" s="22" t="n">
-        <v>46639</v>
+        <v>42006</v>
       </c>
       <c r="Q24" s="22" t="n">
-        <v>42006</v>
+        <v>59606</v>
       </c>
       <c r="R24" s="22" t="n">
-        <v>59606</v>
+        <v>34603</v>
       </c>
       <c r="S24" s="22" t="n">
-        <v>34603</v>
+        <v>50844</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>50844</v>
+        <v>45328</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>45328</v>
+        <v>45895</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>45895</v>
+        <v>48147</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>48147</v>
+        <v>53542</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>53542</v>
+        <v>44985</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>44985</v>
+        <v>46032</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>46032</v>
+        <v>58961</v>
       </c>
       <c r="AA24" s="22" t="n">
-        <v>58961</v>
+        <v>47059</v>
       </c>
       <c r="AB24" s="22" t="n">
-        <v>47059</v>
+        <v>41047</v>
       </c>
       <c r="AC24" s="22" t="n">
-        <v>41047</v>
+        <v>59493</v>
       </c>
       <c r="AD24" s="22" t="n">
-        <v>59493</v>
+        <v>37874</v>
       </c>
       <c r="AE24" s="22" t="n">
-        <v>37874</v>
+        <v>57915</v>
       </c>
       <c r="AF24" s="22" t="n">
-        <v>57915</v>
+        <v>40075</v>
       </c>
       <c r="AG24" s="22" t="n">
-        <v>40075</v>
+        <v>37481</v>
       </c>
       <c r="AH24" s="22" t="n">
-        <v>37481</v>
+        <v>42014</v>
       </c>
       <c r="AI24" s="22" t="n">
-        <v>42014</v>
+        <v>62658</v>
       </c>
       <c r="AJ24" s="22" t="n">
-        <v>62658</v>
+        <v>37443</v>
       </c>
       <c r="AK24" s="22" t="n">
-        <v>37443</v>
+        <v>65849</v>
       </c>
       <c r="AL24" s="22" t="n">
-        <v>65849</v>
+        <v>56167</v>
       </c>
       <c r="AM24" s="22" t="n">
-        <v>56167</v>
+        <v>43588</v>
       </c>
       <c r="AN24" s="22" t="n">
-        <v>43588</v>
+        <v>57529</v>
       </c>
       <c r="AO24" s="22" t="n">
-        <v>57529</v>
+        <v>34198</v>
       </c>
       <c r="AP24" s="22" t="n">
-        <v>34198</v>
+        <v>46602</v>
       </c>
       <c r="AQ24" s="22" t="n">
-        <v>46602</v>
+        <v>60089</v>
       </c>
       <c r="AR24" s="22" t="n">
-        <v>60089</v>
+        <v>48576</v>
       </c>
       <c r="AS24" s="22" t="n">
-        <v>48576</v>
+        <v>50753</v>
       </c>
       <c r="AT24" s="22" t="n">
-        <v>50753</v>
+        <v>53796</v>
       </c>
       <c r="AU24" s="22" t="n">
-        <v>53796</v>
+        <v>51708</v>
       </c>
       <c r="AV24" s="22" t="n">
-        <v>51708</v>
+        <v>47427</v>
       </c>
       <c r="AW24" s="22" t="n">
-        <v>47427</v>
+        <v>49805</v>
       </c>
       <c r="AX24" s="22" t="n">
-        <v>49805</v>
+        <v>49710</v>
       </c>
       <c r="AY24" s="22" t="n">
-        <v>49710</v>
+        <v>50501</v>
       </c>
       <c r="AZ24" s="22" t="n">
-        <v>50501</v>
+        <v>47441</v>
       </c>
       <c r="BA24" s="22" t="n">
-        <v>47441</v>
+        <v>43126</v>
       </c>
       <c r="BB24" s="22" t="n">
-        <v>43126</v>
+        <v>29383</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,80 +5899,80 @@
       <c r="AC31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD31" s="13" t="s">
-        <v>57</v>
+      <c r="AD31" s="13" t="n">
+        <v>10822</v>
       </c>
       <c r="AE31" s="13" t="n">
-        <v>10822</v>
+        <v>13099</v>
       </c>
       <c r="AF31" s="13" t="n">
-        <v>13099</v>
+        <v>8769</v>
       </c>
       <c r="AG31" s="13" t="n">
-        <v>8769</v>
+        <v>7390</v>
       </c>
       <c r="AH31" s="13" t="n">
-        <v>7390</v>
+        <v>9096</v>
       </c>
       <c r="AI31" s="13" t="n">
-        <v>9096</v>
+        <v>13232</v>
       </c>
       <c r="AJ31" s="13" t="n">
-        <v>13232</v>
+        <v>6668</v>
       </c>
       <c r="AK31" s="13" t="n">
-        <v>6668</v>
+        <v>6575</v>
       </c>
       <c r="AL31" s="13" t="n">
-        <v>6575</v>
+        <v>8476</v>
       </c>
       <c r="AM31" s="13" t="n">
-        <v>8476</v>
+        <v>7243</v>
       </c>
       <c r="AN31" s="13" t="n">
-        <v>7243</v>
+        <v>6123</v>
       </c>
       <c r="AO31" s="13" t="n">
-        <v>6123</v>
+        <v>13944</v>
       </c>
       <c r="AP31" s="13" t="n">
-        <v>13944</v>
+        <v>8056</v>
       </c>
       <c r="AQ31" s="13" t="n">
-        <v>8056</v>
+        <v>11939</v>
       </c>
       <c r="AR31" s="13" t="n">
-        <v>11939</v>
+        <v>7250</v>
       </c>
       <c r="AS31" s="13" t="n">
-        <v>7250</v>
+        <v>4914</v>
       </c>
       <c r="AT31" s="13" t="n">
+        <v>11626</v>
+      </c>
+      <c r="AU31" s="13" t="n">
+        <v>9591</v>
+      </c>
+      <c r="AV31" s="13" t="n">
+        <v>10473</v>
+      </c>
+      <c r="AW31" s="13" t="n">
+        <v>6997</v>
+      </c>
+      <c r="AX31" s="13" t="n">
         <v>4914</v>
       </c>
-      <c r="AU31" s="13" t="n">
-        <v>11626</v>
-      </c>
-      <c r="AV31" s="13" t="n">
-        <v>9591</v>
-      </c>
-      <c r="AW31" s="13" t="n">
-        <v>10473</v>
-      </c>
-      <c r="AX31" s="13" t="n">
-        <v>6997</v>
-      </c>
       <c r="AY31" s="13" t="n">
-        <v>4914</v>
+        <v>6985</v>
       </c>
       <c r="AZ31" s="13" t="n">
-        <v>6985</v>
+        <v>6911</v>
       </c>
       <c r="BA31" s="13" t="n">
-        <v>6911</v>
+        <v>7890</v>
       </c>
       <c r="BB31" s="13" t="n">
-        <v>7890</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,154 +5984,154 @@
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F32" s="16" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="G32" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="H32" s="16" t="n">
+        <v>76</v>
+      </c>
+      <c r="I32" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" s="16" t="n">
+        <v>109</v>
+      </c>
+      <c r="K32" s="16" t="n">
+        <v>303</v>
+      </c>
+      <c r="L32" s="16" t="n">
+        <v>244</v>
+      </c>
+      <c r="M32" s="16" t="n">
+        <v>208</v>
+      </c>
+      <c r="N32" s="16" t="n">
+        <v>76</v>
+      </c>
+      <c r="O32" s="16" t="n">
+        <v>56</v>
+      </c>
+      <c r="P32" s="16" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="R32" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H32" s="16" t="n">
-        <v>9</v>
-      </c>
-      <c r="I32" s="16" t="n">
-        <v>76</v>
-      </c>
-      <c r="J32" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K32" s="16" t="n">
-        <v>109</v>
-      </c>
-      <c r="L32" s="16" t="n">
-        <v>303</v>
-      </c>
-      <c r="M32" s="16" t="n">
-        <v>244</v>
-      </c>
-      <c r="N32" s="16" t="n">
-        <v>208</v>
-      </c>
-      <c r="O32" s="16" t="n">
-        <v>76</v>
-      </c>
-      <c r="P32" s="16" t="n">
-        <v>56</v>
-      </c>
-      <c r="Q32" s="16" t="n">
-        <v>76</v>
-      </c>
-      <c r="R32" s="16" t="n">
-        <v>24</v>
-      </c>
       <c r="S32" s="16" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="T32" s="16" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="U32" s="16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V32" s="16" t="n">
+        <v>310</v>
+      </c>
+      <c r="W32" s="16" t="n">
+        <v>482</v>
+      </c>
+      <c r="X32" s="16" t="n">
+        <v>335</v>
+      </c>
+      <c r="Y32" s="16" t="n">
+        <v>104</v>
+      </c>
+      <c r="Z32" s="16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA32" s="16" t="n">
+        <v>154</v>
+      </c>
+      <c r="AB32" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="W32" s="16" t="n">
-        <v>310</v>
-      </c>
-      <c r="X32" s="16" t="n">
-        <v>482</v>
-      </c>
-      <c r="Y32" s="16" t="n">
-        <v>335</v>
-      </c>
-      <c r="Z32" s="16" t="n">
-        <v>104</v>
-      </c>
-      <c r="AA32" s="16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB32" s="16" t="n">
-        <v>154</v>
-      </c>
       <c r="AC32" s="16" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AD32" s="16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE32" s="16" t="n">
         <v>4</v>
       </c>
       <c r="AF32" s="16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG32" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH32" s="16" t="n">
+        <v>137</v>
+      </c>
+      <c r="AI32" s="16" t="n">
+        <v>921</v>
+      </c>
+      <c r="AJ32" s="16" t="n">
+        <v>213</v>
+      </c>
+      <c r="AK32" s="16" t="n">
+        <v>325</v>
+      </c>
+      <c r="AL32" s="16" t="n">
+        <v>74</v>
+      </c>
+      <c r="AM32" s="16" t="n">
+        <v>181</v>
+      </c>
+      <c r="AN32" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO32" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AH32" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI32" s="16" t="n">
-        <v>137</v>
-      </c>
-      <c r="AJ32" s="16" t="n">
-        <v>921</v>
-      </c>
-      <c r="AK32" s="16" t="n">
-        <v>213</v>
-      </c>
-      <c r="AL32" s="16" t="n">
-        <v>325</v>
-      </c>
-      <c r="AM32" s="16" t="n">
-        <v>74</v>
-      </c>
-      <c r="AN32" s="16" t="n">
-        <v>181</v>
-      </c>
-      <c r="AO32" s="16" t="n">
-        <v>20</v>
-      </c>
       <c r="AP32" s="16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ32" s="16" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="AR32" s="16" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AS32" s="16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AT32" s="16" t="n">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="AU32" s="16" t="n">
-        <v>169</v>
+        <v>409</v>
       </c>
       <c r="AV32" s="16" t="n">
-        <v>409</v>
+        <v>296</v>
       </c>
       <c r="AW32" s="16" t="n">
-        <v>296</v>
+        <v>479</v>
       </c>
       <c r="AX32" s="16" t="n">
-        <v>479</v>
+        <v>80</v>
       </c>
       <c r="AY32" s="16" t="n">
         <v>80</v>
       </c>
       <c r="AZ32" s="16" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="BA32" s="16" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BB32" s="16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6143,82 +6143,82 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="n">
-        <v>44672</v>
+        <v>54990</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>54990</v>
+        <v>28501</v>
       </c>
       <c r="G33" s="13" t="n">
-        <v>28501</v>
+        <v>29206</v>
       </c>
       <c r="H33" s="13" t="n">
-        <v>29206</v>
+        <v>38929</v>
       </c>
       <c r="I33" s="13" t="n">
-        <v>38929</v>
+        <v>38470</v>
       </c>
       <c r="J33" s="13" t="n">
-        <v>38470</v>
+        <v>32919</v>
       </c>
       <c r="K33" s="13" t="n">
-        <v>32919</v>
+        <v>40733</v>
       </c>
       <c r="L33" s="13" t="n">
-        <v>40733</v>
+        <v>37643</v>
       </c>
       <c r="M33" s="13" t="n">
-        <v>37643</v>
+        <v>49654</v>
       </c>
       <c r="N33" s="13" t="n">
-        <v>49654</v>
+        <v>50393</v>
       </c>
       <c r="O33" s="13" t="n">
-        <v>50393</v>
+        <v>41118</v>
       </c>
       <c r="P33" s="13" t="n">
-        <v>41118</v>
+        <v>37224</v>
       </c>
       <c r="Q33" s="13" t="n">
-        <v>37224</v>
+        <v>54854</v>
       </c>
       <c r="R33" s="13" t="n">
-        <v>54854</v>
+        <v>17383</v>
       </c>
       <c r="S33" s="13" t="n">
-        <v>17383</v>
+        <v>51503</v>
       </c>
       <c r="T33" s="13" t="n">
-        <v>51503</v>
+        <v>42333</v>
       </c>
       <c r="U33" s="13" t="n">
-        <v>42333</v>
+        <v>43797</v>
       </c>
       <c r="V33" s="13" t="n">
-        <v>43797</v>
+        <v>38319</v>
       </c>
       <c r="W33" s="13" t="n">
-        <v>38319</v>
+        <v>47425</v>
       </c>
       <c r="X33" s="13" t="n">
-        <v>47425</v>
+        <v>40787</v>
       </c>
       <c r="Y33" s="13" t="n">
-        <v>40787</v>
+        <v>40000</v>
       </c>
       <c r="Z33" s="13" t="n">
-        <v>40000</v>
+        <v>55146</v>
       </c>
       <c r="AA33" s="13" t="n">
-        <v>55146</v>
+        <v>43618</v>
       </c>
       <c r="AB33" s="13" t="n">
-        <v>43618</v>
+        <v>34250</v>
       </c>
       <c r="AC33" s="13" t="n">
-        <v>34250</v>
-      </c>
-      <c r="AD33" s="13" t="n">
         <v>55122</v>
+      </c>
+      <c r="AD33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE33" s="13" t="s">
         <v>57</v>
@@ -6302,82 +6302,82 @@
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16" t="n">
-        <v>5382</v>
+        <v>5050</v>
       </c>
       <c r="F34" s="16" t="n">
-        <v>5050</v>
+        <v>3557</v>
       </c>
       <c r="G34" s="16" t="n">
-        <v>3557</v>
+        <v>6557</v>
       </c>
       <c r="H34" s="16" t="n">
-        <v>6557</v>
+        <v>5253</v>
       </c>
       <c r="I34" s="16" t="n">
-        <v>5253</v>
+        <v>4714</v>
       </c>
       <c r="J34" s="16" t="n">
-        <v>4714</v>
+        <v>3415</v>
       </c>
       <c r="K34" s="16" t="n">
-        <v>3415</v>
+        <v>4496</v>
       </c>
       <c r="L34" s="16" t="n">
-        <v>4496</v>
+        <v>4890</v>
       </c>
       <c r="M34" s="16" t="n">
-        <v>4890</v>
+        <v>3628</v>
       </c>
       <c r="N34" s="16" t="n">
-        <v>3628</v>
+        <v>4077</v>
       </c>
       <c r="O34" s="16" t="n">
-        <v>4077</v>
+        <v>4926</v>
       </c>
       <c r="P34" s="16" t="n">
-        <v>4926</v>
+        <v>4092</v>
       </c>
       <c r="Q34" s="16" t="n">
-        <v>4092</v>
+        <v>7382</v>
       </c>
       <c r="R34" s="16" t="n">
-        <v>7382</v>
+        <v>3036</v>
       </c>
       <c r="S34" s="16" t="n">
-        <v>3036</v>
+        <v>6429</v>
       </c>
       <c r="T34" s="16" t="n">
-        <v>6429</v>
+        <v>7708</v>
       </c>
       <c r="U34" s="16" t="n">
-        <v>7708</v>
+        <v>7156</v>
       </c>
       <c r="V34" s="16" t="n">
-        <v>7156</v>
+        <v>10048</v>
       </c>
       <c r="W34" s="16" t="n">
-        <v>10048</v>
+        <v>8474</v>
       </c>
       <c r="X34" s="16" t="n">
-        <v>8474</v>
+        <v>5079</v>
       </c>
       <c r="Y34" s="16" t="n">
-        <v>5079</v>
+        <v>4968</v>
       </c>
       <c r="Z34" s="16" t="n">
-        <v>4968</v>
+        <v>6430</v>
       </c>
       <c r="AA34" s="16" t="n">
-        <v>6430</v>
+        <v>5321</v>
       </c>
       <c r="AB34" s="16" t="n">
-        <v>5321</v>
+        <v>4445</v>
       </c>
       <c r="AC34" s="16" t="n">
-        <v>4445</v>
-      </c>
-      <c r="AD34" s="16" t="n">
         <v>7033</v>
+      </c>
+      <c r="AD34" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE34" s="16" t="s">
         <v>57</v>
@@ -6535,80 +6535,80 @@
       <c r="AC35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD35" s="13" t="s">
-        <v>57</v>
+      <c r="AD35" s="13" t="n">
+        <v>2381</v>
       </c>
       <c r="AE35" s="13" t="n">
-        <v>2381</v>
+        <v>16052</v>
       </c>
       <c r="AF35" s="13" t="n">
-        <v>16052</v>
+        <v>3858</v>
       </c>
       <c r="AG35" s="13" t="n">
-        <v>3858</v>
+        <v>10085</v>
       </c>
       <c r="AH35" s="13" t="n">
-        <v>10085</v>
+        <v>2126</v>
       </c>
       <c r="AI35" s="13" t="n">
-        <v>2126</v>
+        <v>13848</v>
       </c>
       <c r="AJ35" s="13" t="n">
-        <v>13848</v>
+        <v>4747</v>
       </c>
       <c r="AK35" s="13" t="n">
-        <v>4747</v>
+        <v>20607</v>
       </c>
       <c r="AL35" s="13" t="n">
-        <v>20607</v>
+        <v>7278</v>
       </c>
       <c r="AM35" s="13" t="n">
-        <v>7278</v>
+        <v>4063</v>
       </c>
       <c r="AN35" s="13" t="n">
-        <v>4063</v>
+        <v>17461</v>
       </c>
       <c r="AO35" s="13" t="n">
-        <v>17461</v>
+        <v>4352</v>
       </c>
       <c r="AP35" s="13" t="n">
-        <v>4352</v>
+        <v>8161</v>
       </c>
       <c r="AQ35" s="13" t="n">
-        <v>8161</v>
+        <v>14500</v>
       </c>
       <c r="AR35" s="13" t="n">
-        <v>14500</v>
+        <v>11326</v>
       </c>
       <c r="AS35" s="13" t="n">
-        <v>11326</v>
+        <v>19751</v>
       </c>
       <c r="AT35" s="13" t="n">
-        <v>19751</v>
+        <v>7079</v>
       </c>
       <c r="AU35" s="13" t="n">
-        <v>7079</v>
+        <v>12354</v>
       </c>
       <c r="AV35" s="13" t="n">
-        <v>12354</v>
+        <v>6943</v>
       </c>
       <c r="AW35" s="13" t="n">
-        <v>6943</v>
+        <v>8082</v>
       </c>
       <c r="AX35" s="13" t="n">
-        <v>8082</v>
+        <v>11657</v>
       </c>
       <c r="AY35" s="13" t="n">
-        <v>11657</v>
+        <v>7847</v>
       </c>
       <c r="AZ35" s="13" t="n">
-        <v>7847</v>
+        <v>7853</v>
       </c>
       <c r="BA35" s="13" t="n">
-        <v>7853</v>
+        <v>5110</v>
       </c>
       <c r="BB35" s="13" t="n">
-        <v>5110</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6620,154 +6620,154 @@
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16" t="n">
+        <v>150</v>
+      </c>
+      <c r="F36" s="16" t="n">
+        <v>41</v>
+      </c>
+      <c r="G36" s="16" t="n">
+        <v>87</v>
+      </c>
+      <c r="H36" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="I36" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" s="16" t="n">
+        <v>45</v>
+      </c>
+      <c r="K36" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="L36" s="16" t="n">
+        <v>55</v>
+      </c>
+      <c r="M36" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="N36" s="16" t="n">
+        <v>41</v>
+      </c>
+      <c r="O36" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="P36" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q36" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="R36" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="T36" s="16" t="n">
+        <v>94</v>
+      </c>
+      <c r="U36" s="16" t="n">
+        <v>71</v>
+      </c>
+      <c r="V36" s="16" t="n">
+        <v>142</v>
+      </c>
+      <c r="W36" s="16" t="n">
+        <v>151</v>
+      </c>
+      <c r="X36" s="16" t="n">
+        <v>170</v>
+      </c>
+      <c r="Y36" s="16" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z36" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA36" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="AB36" s="16" t="n">
+        <v>98</v>
+      </c>
+      <c r="AC36" s="16" t="n">
+        <v>88</v>
+      </c>
+      <c r="AD36" s="16" t="n">
+        <v>43</v>
+      </c>
+      <c r="AE36" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF36" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG36" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH36" s="16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI36" s="16" t="n">
         <v>48</v>
       </c>
-      <c r="F36" s="16" t="n">
-        <v>150</v>
-      </c>
-      <c r="G36" s="16" t="n">
-        <v>41</v>
-      </c>
-      <c r="H36" s="16" t="n">
-        <v>87</v>
-      </c>
-      <c r="I36" s="16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J36" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="K36" s="16" t="n">
-        <v>45</v>
-      </c>
-      <c r="L36" s="16" t="n">
+      <c r="AJ36" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="M36" s="16" t="n">
-        <v>55</v>
-      </c>
-      <c r="N36" s="16" t="n">
+      <c r="AK36" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="O36" s="16" t="n">
-        <v>41</v>
-      </c>
-      <c r="P36" s="16" t="n">
+      <c r="AL36" s="16" t="n">
+        <v>149</v>
+      </c>
+      <c r="AM36" s="16" t="n">
+        <v>143</v>
+      </c>
+      <c r="AN36" s="16" t="n">
+        <v>181</v>
+      </c>
+      <c r="AO36" s="16" t="n">
+        <v>109</v>
+      </c>
+      <c r="AP36" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ36" s="16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AR36" s="16" t="n">
         <v>31</v>
       </c>
-      <c r="Q36" s="16" t="n">
-        <v>28</v>
-      </c>
-      <c r="R36" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="S36" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="T36" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="U36" s="16" t="n">
-        <v>94</v>
-      </c>
-      <c r="V36" s="16" t="n">
-        <v>71</v>
-      </c>
-      <c r="W36" s="16" t="n">
-        <v>142</v>
-      </c>
-      <c r="X36" s="16" t="n">
-        <v>151</v>
-      </c>
-      <c r="Y36" s="16" t="n">
-        <v>170</v>
-      </c>
-      <c r="Z36" s="16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AA36" s="16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB36" s="16" t="n">
-        <v>69</v>
-      </c>
-      <c r="AC36" s="16" t="n">
-        <v>98</v>
-      </c>
-      <c r="AD36" s="16" t="n">
-        <v>88</v>
-      </c>
-      <c r="AE36" s="16" t="n">
-        <v>43</v>
-      </c>
-      <c r="AF36" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG36" s="16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH36" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI36" s="16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ36" s="16" t="n">
+      <c r="AS36" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AT36" s="16" t="n">
+        <v>189</v>
+      </c>
+      <c r="AU36" s="16" t="n">
+        <v>155</v>
+      </c>
+      <c r="AV36" s="16" t="n">
+        <v>177</v>
+      </c>
+      <c r="AW36" s="16" t="n">
+        <v>318</v>
+      </c>
+      <c r="AX36" s="16" t="n">
+        <v>333</v>
+      </c>
+      <c r="AY36" s="16" t="n">
+        <v>222</v>
+      </c>
+      <c r="AZ36" s="16" t="n">
+        <v>118</v>
+      </c>
+      <c r="BA36" s="16" t="n">
         <v>48</v>
       </c>
-      <c r="AK36" s="16" t="n">
+      <c r="BB36" s="16" t="n">
         <v>34</v>
-      </c>
-      <c r="AL36" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM36" s="16" t="n">
-        <v>149</v>
-      </c>
-      <c r="AN36" s="16" t="n">
-        <v>143</v>
-      </c>
-      <c r="AO36" s="16" t="n">
-        <v>181</v>
-      </c>
-      <c r="AP36" s="16" t="n">
-        <v>109</v>
-      </c>
-      <c r="AQ36" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR36" s="16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AS36" s="16" t="n">
-        <v>31</v>
-      </c>
-      <c r="AT36" s="16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AU36" s="16" t="n">
-        <v>189</v>
-      </c>
-      <c r="AV36" s="16" t="n">
-        <v>155</v>
-      </c>
-      <c r="AW36" s="16" t="n">
-        <v>177</v>
-      </c>
-      <c r="AX36" s="16" t="n">
-        <v>318</v>
-      </c>
-      <c r="AY36" s="16" t="n">
-        <v>333</v>
-      </c>
-      <c r="AZ36" s="16" t="n">
-        <v>222</v>
-      </c>
-      <c r="BA36" s="16" t="n">
-        <v>118</v>
-      </c>
-      <c r="BB36" s="16" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6853,80 +6853,80 @@
       <c r="AC37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD37" s="13" t="s">
-        <v>57</v>
+      <c r="AD37" s="13" t="n">
+        <v>4936</v>
       </c>
       <c r="AE37" s="13" t="n">
-        <v>4936</v>
+        <v>5654</v>
       </c>
       <c r="AF37" s="13" t="n">
-        <v>5654</v>
+        <v>4239</v>
       </c>
       <c r="AG37" s="13" t="n">
-        <v>4239</v>
+        <v>4015</v>
       </c>
       <c r="AH37" s="13" t="n">
-        <v>4015</v>
+        <v>5313</v>
       </c>
       <c r="AI37" s="13" t="n">
-        <v>5313</v>
+        <v>7573</v>
       </c>
       <c r="AJ37" s="13" t="n">
-        <v>7573</v>
+        <v>5043</v>
       </c>
       <c r="AK37" s="13" t="n">
-        <v>5043</v>
+        <v>7174</v>
       </c>
       <c r="AL37" s="13" t="n">
-        <v>7174</v>
+        <v>5632</v>
       </c>
       <c r="AM37" s="13" t="n">
-        <v>5632</v>
+        <v>5179</v>
       </c>
       <c r="AN37" s="13" t="n">
-        <v>5179</v>
+        <v>6903</v>
       </c>
       <c r="AO37" s="13" t="n">
-        <v>6903</v>
+        <v>5039</v>
       </c>
       <c r="AP37" s="13" t="n">
-        <v>5039</v>
+        <v>5382</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>5382</v>
+        <v>7314</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>7314</v>
+        <v>5084</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>5084</v>
+        <v>4052</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>4052</v>
+        <v>5311</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>5311</v>
+        <v>6270</v>
       </c>
       <c r="AV37" s="13" t="n">
-        <v>6270</v>
+        <v>5736</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>5736</v>
+        <v>7066</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>7066</v>
+        <v>5734</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>5734</v>
+        <v>4918</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>4918</v>
+        <v>5545</v>
       </c>
       <c r="BA37" s="13" t="n">
-        <v>5545</v>
+        <v>5031</v>
       </c>
       <c r="BB37" s="13" t="n">
-        <v>5031</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7012,80 +7012,80 @@
       <c r="AC38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD38" s="16" t="s">
-        <v>57</v>
+      <c r="AD38" s="16" t="n">
+        <v>1973</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>1973</v>
+        <v>3376</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>3376</v>
+        <v>3225</v>
       </c>
       <c r="AG38" s="16" t="n">
-        <v>3225</v>
+        <v>5328</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>5328</v>
+        <v>5190</v>
       </c>
       <c r="AI38" s="16" t="n">
-        <v>5190</v>
+        <v>7862</v>
       </c>
       <c r="AJ38" s="16" t="n">
-        <v>7862</v>
+        <v>4838</v>
       </c>
       <c r="AK38" s="16" t="n">
-        <v>4838</v>
+        <v>4883</v>
       </c>
       <c r="AL38" s="16" t="n">
-        <v>4883</v>
+        <v>4559</v>
       </c>
       <c r="AM38" s="16" t="n">
-        <v>4559</v>
+        <v>5124</v>
       </c>
       <c r="AN38" s="16" t="n">
-        <v>5124</v>
+        <v>3683</v>
       </c>
       <c r="AO38" s="16" t="n">
-        <v>3683</v>
+        <v>4612</v>
       </c>
       <c r="AP38" s="16" t="n">
-        <v>4612</v>
+        <v>1374</v>
       </c>
       <c r="AQ38" s="16" t="n">
-        <v>1374</v>
+        <v>2682</v>
       </c>
       <c r="AR38" s="16" t="n">
-        <v>2682</v>
+        <v>3204</v>
       </c>
       <c r="AS38" s="16" t="n">
-        <v>3204</v>
+        <v>6161</v>
       </c>
       <c r="AT38" s="16" t="n">
-        <v>6161</v>
+        <v>6704</v>
       </c>
       <c r="AU38" s="16" t="n">
-        <v>6704</v>
+        <v>5896</v>
       </c>
       <c r="AV38" s="16" t="n">
-        <v>5896</v>
+        <v>4891</v>
       </c>
       <c r="AW38" s="16" t="n">
-        <v>4891</v>
+        <v>6784</v>
       </c>
       <c r="AX38" s="16" t="n">
-        <v>6784</v>
+        <v>5776</v>
       </c>
       <c r="AY38" s="16" t="n">
-        <v>5776</v>
+        <v>5586</v>
       </c>
       <c r="AZ38" s="16" t="n">
-        <v>5586</v>
+        <v>7246</v>
       </c>
       <c r="BA38" s="16" t="n">
-        <v>7246</v>
+        <v>5842</v>
       </c>
       <c r="BB38" s="16" t="n">
-        <v>5842</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7171,80 +7171,80 @@
       <c r="AC39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD39" s="13" t="s">
-        <v>57</v>
+      <c r="AD39" s="13" t="n">
+        <v>2015</v>
       </c>
       <c r="AE39" s="13" t="n">
-        <v>2015</v>
+        <v>3797</v>
       </c>
       <c r="AF39" s="13" t="n">
-        <v>3797</v>
+        <v>3208</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>3208</v>
+        <v>3260</v>
       </c>
       <c r="AH39" s="13" t="n">
-        <v>3260</v>
+        <v>3006</v>
       </c>
       <c r="AI39" s="13" t="n">
-        <v>3006</v>
+        <v>5264</v>
       </c>
       <c r="AJ39" s="13" t="n">
-        <v>5264</v>
+        <v>4502</v>
       </c>
       <c r="AK39" s="13" t="n">
-        <v>4502</v>
+        <v>4029</v>
       </c>
       <c r="AL39" s="13" t="n">
-        <v>4029</v>
+        <v>4324</v>
       </c>
       <c r="AM39" s="13" t="n">
-        <v>4324</v>
+        <v>4091</v>
       </c>
       <c r="AN39" s="13" t="n">
-        <v>4091</v>
+        <v>3245</v>
       </c>
       <c r="AO39" s="13" t="n">
-        <v>3245</v>
+        <v>4457</v>
       </c>
       <c r="AP39" s="13" t="n">
-        <v>4457</v>
+        <v>2273</v>
       </c>
       <c r="AQ39" s="13" t="n">
-        <v>2273</v>
+        <v>3184</v>
       </c>
       <c r="AR39" s="13" t="n">
-        <v>3184</v>
+        <v>4850</v>
       </c>
       <c r="AS39" s="13" t="n">
-        <v>4850</v>
+        <v>4111</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>4111</v>
+        <v>4107</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>4107</v>
+        <v>4421</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>4421</v>
+        <v>3876</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>3876</v>
+        <v>4268</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>4268</v>
+        <v>4856</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>4856</v>
+        <v>5150</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>5150</v>
+        <v>5064</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>5064</v>
+        <v>4015</v>
       </c>
       <c r="BB39" s="13" t="n">
-        <v>4015</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7330,80 +7330,80 @@
       <c r="AC40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD40" s="16" t="s">
-        <v>57</v>
+      <c r="AD40" s="16" t="n">
+        <v>1358</v>
       </c>
       <c r="AE40" s="16" t="n">
-        <v>1358</v>
+        <v>2064</v>
       </c>
       <c r="AF40" s="16" t="n">
-        <v>2064</v>
+        <v>1856</v>
       </c>
       <c r="AG40" s="16" t="n">
-        <v>1856</v>
+        <v>1811</v>
       </c>
       <c r="AH40" s="16" t="n">
-        <v>1811</v>
+        <v>1592</v>
       </c>
       <c r="AI40" s="16" t="n">
-        <v>1592</v>
+        <v>2663</v>
       </c>
       <c r="AJ40" s="16" t="n">
-        <v>2663</v>
+        <v>1680</v>
       </c>
       <c r="AK40" s="16" t="n">
-        <v>1680</v>
+        <v>2345</v>
       </c>
       <c r="AL40" s="16" t="n">
-        <v>2345</v>
+        <v>2577</v>
       </c>
       <c r="AM40" s="16" t="n">
-        <v>2577</v>
+        <v>2550</v>
       </c>
       <c r="AN40" s="16" t="n">
-        <v>2550</v>
+        <v>2379</v>
       </c>
       <c r="AO40" s="16" t="n">
-        <v>2379</v>
+        <v>2672</v>
       </c>
       <c r="AP40" s="16" t="n">
-        <v>2672</v>
+        <v>1435</v>
       </c>
       <c r="AQ40" s="16" t="n">
-        <v>1435</v>
+        <v>2797</v>
       </c>
       <c r="AR40" s="16" t="n">
-        <v>2797</v>
+        <v>2578</v>
       </c>
       <c r="AS40" s="16" t="n">
-        <v>2578</v>
+        <v>2413</v>
       </c>
       <c r="AT40" s="16" t="n">
-        <v>2413</v>
+        <v>2131</v>
       </c>
       <c r="AU40" s="16" t="n">
-        <v>2131</v>
+        <v>2153</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>2153</v>
+        <v>1997</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>1997</v>
+        <v>1843</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>1843</v>
+        <v>2656</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>2656</v>
+        <v>2358</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>2358</v>
+        <v>2786</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>2786</v>
+        <v>3199</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>3199</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7489,80 +7489,80 @@
       <c r="AC41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD41" s="13" t="s">
-        <v>57</v>
+      <c r="AD41" s="13" t="n">
+        <v>13453</v>
       </c>
       <c r="AE41" s="13" t="n">
-        <v>13453</v>
+        <v>12199</v>
       </c>
       <c r="AF41" s="13" t="n">
-        <v>12199</v>
+        <v>13110</v>
       </c>
       <c r="AG41" s="13" t="n">
-        <v>13110</v>
+        <v>8567</v>
       </c>
       <c r="AH41" s="13" t="n">
-        <v>8567</v>
+        <v>14402</v>
       </c>
       <c r="AI41" s="13" t="n">
-        <v>14402</v>
+        <v>11450</v>
       </c>
       <c r="AJ41" s="13" t="n">
-        <v>11450</v>
+        <v>9735</v>
       </c>
       <c r="AK41" s="13" t="n">
-        <v>9735</v>
+        <v>18462</v>
       </c>
       <c r="AL41" s="13" t="n">
-        <v>18462</v>
+        <v>21926</v>
       </c>
       <c r="AM41" s="13" t="n">
-        <v>21926</v>
+        <v>14798</v>
       </c>
       <c r="AN41" s="13" t="n">
-        <v>14798</v>
+        <v>16470</v>
       </c>
       <c r="AO41" s="13" t="n">
-        <v>16470</v>
+        <v>10660</v>
       </c>
       <c r="AP41" s="13" t="n">
-        <v>10660</v>
+        <v>15952</v>
       </c>
       <c r="AQ41" s="13" t="n">
-        <v>15952</v>
+        <v>16352</v>
       </c>
       <c r="AR41" s="13" t="n">
-        <v>16352</v>
+        <v>18121</v>
       </c>
       <c r="AS41" s="13" t="n">
-        <v>18121</v>
+        <v>8936</v>
       </c>
       <c r="AT41" s="13" t="n">
-        <v>8936</v>
+        <v>15629</v>
       </c>
       <c r="AU41" s="13" t="n">
-        <v>15629</v>
+        <v>13532</v>
       </c>
       <c r="AV41" s="13" t="n">
-        <v>13532</v>
+        <v>12579</v>
       </c>
       <c r="AW41" s="13" t="n">
-        <v>12579</v>
+        <v>14665</v>
       </c>
       <c r="AX41" s="13" t="n">
-        <v>14665</v>
+        <v>13273</v>
       </c>
       <c r="AY41" s="13" t="n">
-        <v>13273</v>
+        <v>15370</v>
       </c>
       <c r="AZ41" s="13" t="n">
-        <v>15370</v>
+        <v>12283</v>
       </c>
       <c r="BA41" s="13" t="n">
-        <v>12283</v>
+        <v>14054</v>
       </c>
       <c r="BB41" s="13" t="n">
-        <v>14054</v>
+        <v>8958</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7676,8 +7676,8 @@
       <c r="T43" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U43" s="20" t="s">
-        <v>57</v>
+      <c r="U43" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="20" t="n">
         <v>0</v>
@@ -7890,8 +7890,8 @@
       <c r="T45" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U45" s="20" t="s">
-        <v>57</v>
+      <c r="U45" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="20" t="n">
         <v>0</v>
@@ -8000,154 +8000,154 @@
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22" t="n">
-        <v>50133</v>
+        <v>60236</v>
       </c>
       <c r="F46" s="22" t="n">
-        <v>60236</v>
+        <v>32100</v>
       </c>
       <c r="G46" s="22" t="n">
-        <v>32100</v>
+        <v>35859</v>
       </c>
       <c r="H46" s="22" t="n">
-        <v>35859</v>
+        <v>44285</v>
       </c>
       <c r="I46" s="22" t="n">
-        <v>44285</v>
+        <v>43198</v>
       </c>
       <c r="J46" s="22" t="n">
-        <v>43198</v>
+        <v>36488</v>
       </c>
       <c r="K46" s="22" t="n">
-        <v>36488</v>
+        <v>45566</v>
       </c>
       <c r="L46" s="22" t="n">
-        <v>45566</v>
+        <v>42832</v>
       </c>
       <c r="M46" s="22" t="n">
-        <v>42832</v>
+        <v>53514</v>
       </c>
       <c r="N46" s="22" t="n">
-        <v>53514</v>
+        <v>54587</v>
       </c>
       <c r="O46" s="22" t="n">
-        <v>54587</v>
+        <v>46131</v>
       </c>
       <c r="P46" s="22" t="n">
-        <v>46131</v>
+        <v>41420</v>
       </c>
       <c r="Q46" s="22" t="n">
-        <v>41420</v>
+        <v>62274</v>
       </c>
       <c r="R46" s="22" t="n">
-        <v>62274</v>
+        <v>20422</v>
       </c>
       <c r="S46" s="22" t="n">
-        <v>20422</v>
+        <v>57979</v>
       </c>
       <c r="T46" s="22" t="n">
-        <v>57979</v>
+        <v>50154</v>
       </c>
       <c r="U46" s="22" t="n">
-        <v>50154</v>
+        <v>51044</v>
       </c>
       <c r="V46" s="22" t="n">
-        <v>51044</v>
+        <v>48819</v>
       </c>
       <c r="W46" s="22" t="n">
-        <v>48819</v>
+        <v>56532</v>
       </c>
       <c r="X46" s="22" t="n">
-        <v>56532</v>
+        <v>46371</v>
       </c>
       <c r="Y46" s="22" t="n">
-        <v>46371</v>
+        <v>45173</v>
       </c>
       <c r="Z46" s="22" t="n">
-        <v>45173</v>
+        <v>61672</v>
       </c>
       <c r="AA46" s="22" t="n">
-        <v>61672</v>
+        <v>49162</v>
       </c>
       <c r="AB46" s="22" t="n">
-        <v>49162</v>
+        <v>38813</v>
       </c>
       <c r="AC46" s="22" t="n">
-        <v>38813</v>
+        <v>62249</v>
       </c>
       <c r="AD46" s="22" t="n">
-        <v>62249</v>
+        <v>36985</v>
       </c>
       <c r="AE46" s="22" t="n">
-        <v>36985</v>
+        <v>56259</v>
       </c>
       <c r="AF46" s="22" t="n">
-        <v>56259</v>
+        <v>38300</v>
       </c>
       <c r="AG46" s="22" t="n">
-        <v>38300</v>
+        <v>40506</v>
       </c>
       <c r="AH46" s="22" t="n">
-        <v>40506</v>
+        <v>40922</v>
       </c>
       <c r="AI46" s="22" t="n">
-        <v>40922</v>
+        <v>62861</v>
       </c>
       <c r="AJ46" s="22" t="n">
-        <v>62861</v>
+        <v>37460</v>
       </c>
       <c r="AK46" s="22" t="n">
-        <v>37460</v>
+        <v>64424</v>
       </c>
       <c r="AL46" s="22" t="n">
-        <v>64424</v>
+        <v>54995</v>
       </c>
       <c r="AM46" s="22" t="n">
-        <v>54995</v>
+        <v>43372</v>
       </c>
       <c r="AN46" s="22" t="n">
-        <v>43372</v>
+        <v>56465</v>
       </c>
       <c r="AO46" s="22" t="n">
-        <v>56465</v>
+        <v>45850</v>
       </c>
       <c r="AP46" s="22" t="n">
-        <v>45850</v>
+        <v>42660</v>
       </c>
       <c r="AQ46" s="22" t="n">
-        <v>42660</v>
+        <v>58849</v>
       </c>
       <c r="AR46" s="22" t="n">
-        <v>58849</v>
+        <v>52469</v>
       </c>
       <c r="AS46" s="22" t="n">
-        <v>52469</v>
+        <v>50380</v>
       </c>
       <c r="AT46" s="22" t="n">
-        <v>50380</v>
+        <v>52945</v>
       </c>
       <c r="AU46" s="22" t="n">
-        <v>52945</v>
+        <v>54781</v>
       </c>
       <c r="AV46" s="22" t="n">
-        <v>54781</v>
+        <v>46968</v>
       </c>
       <c r="AW46" s="22" t="n">
-        <v>46968</v>
+        <v>50502</v>
       </c>
       <c r="AX46" s="22" t="n">
-        <v>50502</v>
+        <v>49279</v>
       </c>
       <c r="AY46" s="22" t="n">
-        <v>49279</v>
+        <v>48516</v>
       </c>
       <c r="AZ46" s="22" t="n">
-        <v>48516</v>
+        <v>47817</v>
       </c>
       <c r="BA46" s="22" t="n">
-        <v>47817</v>
+        <v>45195</v>
       </c>
       <c r="BB46" s="22" t="n">
-        <v>45195</v>
+        <v>29667</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8667,80 +8667,80 @@
       <c r="AC53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD53" s="13" t="s">
-        <v>57</v>
+      <c r="AD53" s="13" t="n">
+        <v>657081</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>657081</v>
+        <v>800139</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>800139</v>
+        <v>566949</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>566949</v>
+        <v>416975</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>416975</v>
+        <v>554636</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>554636</v>
+        <v>831301</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>831301</v>
+        <v>466395</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>466395</v>
+        <v>507492</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>507492</v>
+        <v>661556</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>661556</v>
+        <v>559637</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>559637</v>
+        <v>529477</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>529477</v>
+        <v>1216617</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>1216617</v>
+        <v>784316</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>784316</v>
+        <v>1201451</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>1201451</v>
+        <v>730033</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>730033</v>
+        <v>484170</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>484170</v>
+        <v>960566</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>960566</v>
+        <v>787369</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>787369</v>
+        <v>796378</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>796378</v>
+        <v>632659</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>632659</v>
+        <v>472623</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>472623</v>
+        <v>658100</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>658100</v>
+        <v>718749</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>718749</v>
+        <v>959357</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>959357</v>
+        <v>738108</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8752,154 +8752,154 @@
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16" t="n">
-        <v>3275</v>
+        <v>5503</v>
       </c>
       <c r="F54" s="16" t="n">
-        <v>5503</v>
+        <v>124</v>
       </c>
       <c r="G54" s="16" t="n">
-        <v>124</v>
+        <v>1145</v>
       </c>
       <c r="H54" s="16" t="n">
-        <v>1145</v>
+        <v>10577</v>
       </c>
       <c r="I54" s="16" t="n">
-        <v>10577</v>
+        <v>356</v>
       </c>
       <c r="J54" s="16" t="n">
-        <v>356</v>
+        <v>13861</v>
       </c>
       <c r="K54" s="16" t="n">
-        <v>13861</v>
+        <v>38613</v>
       </c>
       <c r="L54" s="16" t="n">
-        <v>38613</v>
+        <v>30236</v>
       </c>
       <c r="M54" s="16" t="n">
-        <v>30236</v>
+        <v>26668</v>
       </c>
       <c r="N54" s="16" t="n">
-        <v>26668</v>
+        <v>10090</v>
       </c>
       <c r="O54" s="16" t="n">
-        <v>10090</v>
+        <v>7757</v>
       </c>
       <c r="P54" s="16" t="n">
-        <v>7757</v>
+        <v>9809</v>
       </c>
       <c r="Q54" s="16" t="n">
-        <v>9809</v>
+        <v>3489</v>
       </c>
       <c r="R54" s="16" t="n">
-        <v>3489</v>
+        <v>135</v>
       </c>
       <c r="S54" s="16" t="n">
-        <v>135</v>
+        <v>3130</v>
       </c>
       <c r="T54" s="16" t="n">
-        <v>3130</v>
+        <v>2899</v>
       </c>
       <c r="U54" s="16" t="n">
-        <v>2899</v>
+        <v>3417</v>
       </c>
       <c r="V54" s="16" t="n">
-        <v>3417</v>
+        <v>49124</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>49124</v>
+        <v>77911</v>
       </c>
       <c r="X54" s="16" t="n">
-        <v>77911</v>
+        <v>67941</v>
       </c>
       <c r="Y54" s="16" t="n">
-        <v>67941</v>
+        <v>22317</v>
       </c>
       <c r="Z54" s="16" t="n">
-        <v>22317</v>
+        <v>16194</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>16194</v>
+        <v>36369</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>36369</v>
+        <v>5114</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>5114</v>
+        <v>1491</v>
       </c>
       <c r="AD54" s="16" t="n">
-        <v>1491</v>
+        <v>956</v>
       </c>
       <c r="AE54" s="16" t="n">
-        <v>956</v>
+        <v>1035</v>
       </c>
       <c r="AF54" s="16" t="n">
-        <v>1035</v>
+        <v>1659</v>
       </c>
       <c r="AG54" s="16" t="n">
-        <v>1659</v>
+        <v>9954</v>
       </c>
       <c r="AH54" s="16" t="n">
-        <v>9954</v>
+        <v>48592</v>
       </c>
       <c r="AI54" s="16" t="n">
-        <v>48592</v>
+        <v>325080</v>
       </c>
       <c r="AJ54" s="16" t="n">
-        <v>325080</v>
+        <v>77346</v>
       </c>
       <c r="AK54" s="16" t="n">
-        <v>77346</v>
+        <v>121854</v>
       </c>
       <c r="AL54" s="16" t="n">
-        <v>121854</v>
+        <v>27039</v>
       </c>
       <c r="AM54" s="16" t="n">
-        <v>27039</v>
+        <v>63107</v>
       </c>
       <c r="AN54" s="16" t="n">
-        <v>63107</v>
+        <v>7555</v>
       </c>
       <c r="AO54" s="16" t="n">
-        <v>7555</v>
+        <v>1951</v>
       </c>
       <c r="AP54" s="16" t="n">
-        <v>1951</v>
+        <v>818</v>
       </c>
       <c r="AQ54" s="16" t="n">
-        <v>818</v>
+        <v>13456</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>13456</v>
+        <v>11732</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>11732</v>
+        <v>3744</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>3744</v>
+        <v>98275</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>98275</v>
+        <v>244664</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>244664</v>
+        <v>176131</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>176131</v>
+        <v>287518</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>287518</v>
+        <v>43083</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>43083</v>
+        <v>44308</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>44308</v>
+        <v>6688</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>6688</v>
+        <v>3641</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>3641</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8911,82 +8911,82 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="n">
-        <v>1873865</v>
+        <v>2514977</v>
       </c>
       <c r="F55" s="13" t="n">
-        <v>2514977</v>
+        <v>1067308</v>
       </c>
       <c r="G55" s="13" t="n">
-        <v>1067308</v>
+        <v>1792058</v>
       </c>
       <c r="H55" s="13" t="n">
-        <v>1792058</v>
+        <v>2702743</v>
       </c>
       <c r="I55" s="13" t="n">
-        <v>2702743</v>
+        <v>2474297</v>
       </c>
       <c r="J55" s="13" t="n">
-        <v>2474297</v>
+        <v>2165295</v>
       </c>
       <c r="K55" s="13" t="n">
-        <v>2165295</v>
+        <v>2360502</v>
       </c>
       <c r="L55" s="13" t="n">
-        <v>2360502</v>
+        <v>2036215</v>
       </c>
       <c r="M55" s="13" t="n">
-        <v>2036215</v>
+        <v>2470422</v>
       </c>
       <c r="N55" s="13" t="n">
-        <v>2470422</v>
+        <v>2804407</v>
       </c>
       <c r="O55" s="13" t="n">
-        <v>2804407</v>
+        <v>2419836</v>
       </c>
       <c r="P55" s="13" t="n">
-        <v>2419836</v>
+        <v>2626370</v>
       </c>
       <c r="Q55" s="13" t="n">
-        <v>2626370</v>
+        <v>3000426</v>
       </c>
       <c r="R55" s="13" t="n">
-        <v>3000426</v>
+        <v>782232</v>
       </c>
       <c r="S55" s="13" t="n">
-        <v>782232</v>
+        <v>2519680</v>
       </c>
       <c r="T55" s="13" t="n">
-        <v>2519680</v>
+        <v>2283544</v>
       </c>
       <c r="U55" s="13" t="n">
-        <v>2283544</v>
+        <v>2908581</v>
       </c>
       <c r="V55" s="13" t="n">
-        <v>2908581</v>
+        <v>2938700</v>
       </c>
       <c r="W55" s="13" t="n">
-        <v>2938700</v>
+        <v>3773811</v>
       </c>
       <c r="X55" s="13" t="n">
-        <v>3773811</v>
+        <v>4053751</v>
       </c>
       <c r="Y55" s="13" t="n">
-        <v>4053751</v>
+        <v>4670508</v>
       </c>
       <c r="Z55" s="13" t="n">
-        <v>4670508</v>
+        <v>6241487</v>
       </c>
       <c r="AA55" s="13" t="n">
-        <v>6241487</v>
+        <v>5058718</v>
       </c>
       <c r="AB55" s="13" t="n">
-        <v>5058718</v>
+        <v>3637680</v>
       </c>
       <c r="AC55" s="13" t="n">
-        <v>3637680</v>
-      </c>
-      <c r="AD55" s="13" t="n">
         <v>7256542</v>
+      </c>
+      <c r="AD55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE55" s="13" t="s">
         <v>57</v>
@@ -9070,82 +9070,82 @@
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16" t="n">
-        <v>189945</v>
+        <v>219804</v>
       </c>
       <c r="F56" s="16" t="n">
-        <v>219804</v>
+        <v>125855</v>
       </c>
       <c r="G56" s="16" t="n">
-        <v>125855</v>
+        <v>307327</v>
       </c>
       <c r="H56" s="16" t="n">
-        <v>307327</v>
+        <v>263893</v>
       </c>
       <c r="I56" s="16" t="n">
-        <v>263893</v>
+        <v>240953</v>
       </c>
       <c r="J56" s="16" t="n">
-        <v>240953</v>
+        <v>158893</v>
       </c>
       <c r="K56" s="16" t="n">
-        <v>158893</v>
+        <v>212164</v>
       </c>
       <c r="L56" s="16" t="n">
-        <v>212164</v>
+        <v>186248</v>
       </c>
       <c r="M56" s="16" t="n">
-        <v>186248</v>
+        <v>151453</v>
       </c>
       <c r="N56" s="16" t="n">
-        <v>151453</v>
+        <v>165470</v>
       </c>
       <c r="O56" s="16" t="n">
-        <v>165470</v>
+        <v>183249</v>
       </c>
       <c r="P56" s="16" t="n">
-        <v>183249</v>
+        <v>150686</v>
       </c>
       <c r="Q56" s="16" t="n">
-        <v>150686</v>
+        <v>283073</v>
       </c>
       <c r="R56" s="16" t="n">
-        <v>283073</v>
+        <v>102933</v>
       </c>
       <c r="S56" s="16" t="n">
-        <v>102933</v>
+        <v>239767</v>
       </c>
       <c r="T56" s="16" t="n">
-        <v>239767</v>
+        <v>252278</v>
       </c>
       <c r="U56" s="16" t="n">
-        <v>252278</v>
+        <v>252911</v>
       </c>
       <c r="V56" s="16" t="n">
-        <v>252911</v>
+        <v>486554</v>
       </c>
       <c r="W56" s="16" t="n">
-        <v>486554</v>
+        <v>537095</v>
       </c>
       <c r="X56" s="16" t="n">
-        <v>537095</v>
+        <v>433797</v>
       </c>
       <c r="Y56" s="16" t="n">
-        <v>433797</v>
+        <v>459088</v>
       </c>
       <c r="Z56" s="16" t="n">
-        <v>459088</v>
+        <v>599759</v>
       </c>
       <c r="AA56" s="16" t="n">
-        <v>599759</v>
+        <v>527309</v>
       </c>
       <c r="AB56" s="16" t="n">
-        <v>527309</v>
+        <v>410393</v>
       </c>
       <c r="AC56" s="16" t="n">
-        <v>410393</v>
-      </c>
-      <c r="AD56" s="16" t="n">
         <v>711496</v>
+      </c>
+      <c r="AD56" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE56" s="16" t="s">
         <v>57</v>
@@ -9303,80 +9303,80 @@
       <c r="AC57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD57" s="13" t="s">
-        <v>57</v>
+      <c r="AD57" s="13" t="n">
+        <v>409434</v>
       </c>
       <c r="AE57" s="13" t="n">
-        <v>409434</v>
+        <v>3596805</v>
       </c>
       <c r="AF57" s="13" t="n">
-        <v>3596805</v>
+        <v>623337</v>
       </c>
       <c r="AG57" s="13" t="n">
-        <v>623337</v>
+        <v>1431956</v>
       </c>
       <c r="AH57" s="13" t="n">
-        <v>1431956</v>
+        <v>479100</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>479100</v>
+        <v>1921506</v>
       </c>
       <c r="AJ57" s="13" t="n">
-        <v>1921506</v>
+        <v>963745</v>
       </c>
       <c r="AK57" s="13" t="n">
-        <v>963745</v>
+        <v>3795408</v>
       </c>
       <c r="AL57" s="13" t="n">
-        <v>3795408</v>
+        <v>1542516</v>
       </c>
       <c r="AM57" s="13" t="n">
-        <v>1542516</v>
+        <v>794673</v>
       </c>
       <c r="AN57" s="13" t="n">
-        <v>794673</v>
+        <v>3461941</v>
       </c>
       <c r="AO57" s="13" t="n">
-        <v>3461941</v>
+        <v>972415</v>
       </c>
       <c r="AP57" s="13" t="n">
-        <v>972415</v>
+        <v>2112033</v>
       </c>
       <c r="AQ57" s="13" t="n">
-        <v>2112033</v>
+        <v>3949318</v>
       </c>
       <c r="AR57" s="13" t="n">
-        <v>3949318</v>
+        <v>2670041</v>
       </c>
       <c r="AS57" s="13" t="n">
-        <v>2670041</v>
+        <v>5208893</v>
       </c>
       <c r="AT57" s="13" t="n">
-        <v>5208893</v>
+        <v>2009812</v>
       </c>
       <c r="AU57" s="13" t="n">
-        <v>2009812</v>
+        <v>2513042</v>
       </c>
       <c r="AV57" s="13" t="n">
-        <v>2513042</v>
+        <v>1746905</v>
       </c>
       <c r="AW57" s="13" t="n">
-        <v>1746905</v>
+        <v>2031307</v>
       </c>
       <c r="AX57" s="13" t="n">
-        <v>2031307</v>
+        <v>2757269</v>
       </c>
       <c r="AY57" s="13" t="n">
-        <v>2757269</v>
+        <v>1854865</v>
       </c>
       <c r="AZ57" s="13" t="n">
-        <v>1854865</v>
+        <v>2107139</v>
       </c>
       <c r="BA57" s="13" t="n">
-        <v>2107139</v>
+        <v>1628380</v>
       </c>
       <c r="BB57" s="13" t="n">
-        <v>1628380</v>
+        <v>996850</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9388,154 +9388,154 @@
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16" t="n">
-        <v>6883</v>
+        <v>18451</v>
       </c>
       <c r="F58" s="16" t="n">
-        <v>18451</v>
+        <v>5198</v>
       </c>
       <c r="G58" s="16" t="n">
-        <v>5198</v>
+        <v>13819</v>
       </c>
       <c r="H58" s="16" t="n">
-        <v>13819</v>
+        <v>5413</v>
       </c>
       <c r="I58" s="16" t="n">
-        <v>5413</v>
+        <v>2267</v>
       </c>
       <c r="J58" s="16" t="n">
-        <v>2267</v>
+        <v>8677</v>
       </c>
       <c r="K58" s="16" t="n">
-        <v>8677</v>
+        <v>7229</v>
       </c>
       <c r="L58" s="16" t="n">
-        <v>7229</v>
+        <v>11147</v>
       </c>
       <c r="M58" s="16" t="n">
-        <v>11147</v>
+        <v>5082</v>
       </c>
       <c r="N58" s="16" t="n">
-        <v>5082</v>
+        <v>7360</v>
       </c>
       <c r="O58" s="16" t="n">
-        <v>7360</v>
+        <v>6045</v>
       </c>
       <c r="P58" s="16" t="n">
-        <v>6045</v>
+        <v>4543</v>
       </c>
       <c r="Q58" s="16" t="n">
-        <v>4543</v>
+        <v>2891</v>
       </c>
       <c r="R58" s="16" t="n">
-        <v>2891</v>
+        <v>372</v>
       </c>
       <c r="S58" s="16" t="n">
-        <v>372</v>
+        <v>4321</v>
       </c>
       <c r="T58" s="16" t="n">
-        <v>4321</v>
+        <v>20127</v>
       </c>
       <c r="U58" s="16" t="n">
-        <v>20127</v>
+        <v>11795</v>
       </c>
       <c r="V58" s="16" t="n">
-        <v>11795</v>
+        <v>26874</v>
       </c>
       <c r="W58" s="16" t="n">
-        <v>26874</v>
+        <v>30120</v>
       </c>
       <c r="X58" s="16" t="n">
-        <v>30120</v>
+        <v>39482</v>
       </c>
       <c r="Y58" s="16" t="n">
-        <v>39482</v>
+        <v>29471</v>
       </c>
       <c r="Z58" s="16" t="n">
-        <v>29471</v>
+        <v>10054</v>
       </c>
       <c r="AA58" s="16" t="n">
-        <v>10054</v>
+        <v>21642</v>
       </c>
       <c r="AB58" s="16" t="n">
-        <v>21642</v>
+        <v>30493</v>
       </c>
       <c r="AC58" s="16" t="n">
-        <v>30493</v>
+        <v>31509</v>
       </c>
       <c r="AD58" s="16" t="n">
-        <v>31509</v>
+        <v>15180</v>
       </c>
       <c r="AE58" s="16" t="n">
-        <v>15180</v>
+        <v>6780</v>
       </c>
       <c r="AF58" s="16" t="n">
-        <v>6780</v>
+        <v>10429</v>
       </c>
       <c r="AG58" s="16" t="n">
-        <v>10429</v>
+        <v>6834</v>
       </c>
       <c r="AH58" s="16" t="n">
-        <v>6834</v>
+        <v>27070</v>
       </c>
       <c r="AI58" s="16" t="n">
-        <v>27070</v>
+        <v>15349</v>
       </c>
       <c r="AJ58" s="16" t="n">
-        <v>15349</v>
+        <v>14076</v>
       </c>
       <c r="AK58" s="16" t="n">
-        <v>14076</v>
+        <v>12930</v>
       </c>
       <c r="AL58" s="16" t="n">
-        <v>12930</v>
+        <v>60438</v>
       </c>
       <c r="AM58" s="16" t="n">
-        <v>60438</v>
+        <v>60596</v>
       </c>
       <c r="AN58" s="16" t="n">
-        <v>60596</v>
+        <v>79004</v>
       </c>
       <c r="AO58" s="16" t="n">
-        <v>79004</v>
+        <v>49411</v>
       </c>
       <c r="AP58" s="16" t="n">
-        <v>49411</v>
+        <v>11511</v>
       </c>
       <c r="AQ58" s="16" t="n">
-        <v>11511</v>
+        <v>29775</v>
       </c>
       <c r="AR58" s="16" t="n">
-        <v>29775</v>
+        <v>24673</v>
       </c>
       <c r="AS58" s="16" t="n">
-        <v>24673</v>
+        <v>26781</v>
       </c>
       <c r="AT58" s="16" t="n">
-        <v>26781</v>
+        <v>157799</v>
       </c>
       <c r="AU58" s="16" t="n">
-        <v>157799</v>
+        <v>126699</v>
       </c>
       <c r="AV58" s="16" t="n">
-        <v>126699</v>
+        <v>124145</v>
       </c>
       <c r="AW58" s="16" t="n">
-        <v>124145</v>
+        <v>238633</v>
       </c>
       <c r="AX58" s="16" t="n">
-        <v>238633</v>
+        <v>228538</v>
       </c>
       <c r="AY58" s="16" t="n">
-        <v>228538</v>
+        <v>194081</v>
       </c>
       <c r="AZ58" s="16" t="n">
-        <v>194081</v>
+        <v>87496</v>
       </c>
       <c r="BA58" s="16" t="n">
-        <v>87496</v>
+        <v>39685</v>
       </c>
       <c r="BB58" s="16" t="n">
-        <v>39685</v>
+        <v>35620</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9621,80 +9621,80 @@
       <c r="AC59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD59" s="13" t="s">
-        <v>57</v>
+      <c r="AD59" s="13" t="n">
+        <v>519031</v>
       </c>
       <c r="AE59" s="13" t="n">
-        <v>519031</v>
+        <v>646847</v>
       </c>
       <c r="AF59" s="13" t="n">
-        <v>646847</v>
+        <v>466887</v>
       </c>
       <c r="AG59" s="13" t="n">
-        <v>466887</v>
+        <v>470120</v>
       </c>
       <c r="AH59" s="13" t="n">
-        <v>470120</v>
+        <v>673266</v>
       </c>
       <c r="AI59" s="13" t="n">
-        <v>673266</v>
+        <v>956183</v>
       </c>
       <c r="AJ59" s="13" t="n">
-        <v>956183</v>
+        <v>742093</v>
       </c>
       <c r="AK59" s="13" t="n">
-        <v>742093</v>
+        <v>1022286</v>
       </c>
       <c r="AL59" s="13" t="n">
-        <v>1022286</v>
+        <v>931473</v>
       </c>
       <c r="AM59" s="13" t="n">
-        <v>931473</v>
+        <v>843522</v>
       </c>
       <c r="AN59" s="13" t="n">
-        <v>843522</v>
+        <v>1084657</v>
       </c>
       <c r="AO59" s="13" t="n">
-        <v>1084657</v>
+        <v>791802</v>
       </c>
       <c r="AP59" s="13" t="n">
-        <v>791802</v>
+        <v>1016464</v>
       </c>
       <c r="AQ59" s="13" t="n">
-        <v>1016464</v>
+        <v>1424898</v>
       </c>
       <c r="AR59" s="13" t="n">
-        <v>1424898</v>
+        <v>1005918</v>
       </c>
       <c r="AS59" s="13" t="n">
-        <v>1005918</v>
+        <v>848017</v>
       </c>
       <c r="AT59" s="13" t="n">
-        <v>848017</v>
+        <v>1006088</v>
       </c>
       <c r="AU59" s="13" t="n">
-        <v>1006088</v>
+        <v>1076083</v>
       </c>
       <c r="AV59" s="13" t="n">
-        <v>1076083</v>
+        <v>959507</v>
       </c>
       <c r="AW59" s="13" t="n">
-        <v>959507</v>
+        <v>1188342</v>
       </c>
       <c r="AX59" s="13" t="n">
-        <v>1188342</v>
+        <v>953130</v>
       </c>
       <c r="AY59" s="13" t="n">
-        <v>953130</v>
+        <v>805674</v>
       </c>
       <c r="AZ59" s="13" t="n">
-        <v>805674</v>
+        <v>1000513</v>
       </c>
       <c r="BA59" s="13" t="n">
-        <v>1000513</v>
+        <v>1144377</v>
       </c>
       <c r="BB59" s="13" t="n">
-        <v>1144377</v>
+        <v>1480414</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9780,80 +9780,80 @@
       <c r="AC60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD60" s="16" t="s">
-        <v>57</v>
+      <c r="AD60" s="16" t="n">
+        <v>381611</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>381611</v>
+        <v>651751</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>651751</v>
+        <v>642765</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>642765</v>
+        <v>1031811</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>1031811</v>
+        <v>1364366</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>1364366</v>
+        <v>2087385</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>2087385</v>
+        <v>1237399</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>1237399</v>
+        <v>1235051</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>1235051</v>
+        <v>1175377</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>1175377</v>
+        <v>1363193</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>1363193</v>
+        <v>1009456</v>
       </c>
       <c r="AO60" s="16" t="n">
-        <v>1009456</v>
+        <v>1266713</v>
       </c>
       <c r="AP60" s="16" t="n">
-        <v>1266713</v>
+        <v>371217</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>371217</v>
+        <v>815486</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>815486</v>
+        <v>1113355</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>1113355</v>
+        <v>2058816</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>2058816</v>
+        <v>2249188</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>2249188</v>
+        <v>2080813</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>2080813</v>
+        <v>1628646</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>1628646</v>
+        <v>2269636</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>2269636</v>
+        <v>1951513</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>1951513</v>
+        <v>1870555</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>1870555</v>
+        <v>2369521</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>2369521</v>
+        <v>1940804</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>1940804</v>
+        <v>812370</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9939,80 +9939,80 @@
       <c r="AC61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD61" s="13" t="s">
-        <v>57</v>
+      <c r="AD61" s="13" t="n">
+        <v>432591</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>432591</v>
+        <v>797298</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>797298</v>
+        <v>666068</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>666068</v>
+        <v>825448</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>825448</v>
+        <v>916695</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>916695</v>
+        <v>1530005</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>1530005</v>
+        <v>1252645</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>1252645</v>
+        <v>1198876</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>1198876</v>
+        <v>1238371</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>1238371</v>
+        <v>1222890</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>1222890</v>
+        <v>1015917</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>1015917</v>
+        <v>1318248</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>1318248</v>
+        <v>648051</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>648051</v>
+        <v>972111</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>972111</v>
+        <v>1668146</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>1668146</v>
+        <v>1498896</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>1498896</v>
+        <v>1559008</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>1559008</v>
+        <v>1652318</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>1652318</v>
+        <v>1409432</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>1409432</v>
+        <v>1566269</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>1566269</v>
+        <v>1788059</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>1788059</v>
+        <v>1940098</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>1940098</v>
+        <v>1992698</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>1992698</v>
+        <v>1597167</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>1597167</v>
+        <v>862846</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10098,80 +10098,80 @@
       <c r="AC62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD62" s="16" t="s">
-        <v>57</v>
+      <c r="AD62" s="16" t="n">
+        <v>415539</v>
       </c>
       <c r="AE62" s="16" t="n">
-        <v>415539</v>
+        <v>690555</v>
       </c>
       <c r="AF62" s="16" t="n">
-        <v>690555</v>
+        <v>622727</v>
       </c>
       <c r="AG62" s="16" t="n">
-        <v>622727</v>
+        <v>633064</v>
       </c>
       <c r="AH62" s="16" t="n">
-        <v>633064</v>
+        <v>564834</v>
       </c>
       <c r="AI62" s="16" t="n">
-        <v>564834</v>
+        <v>992091</v>
       </c>
       <c r="AJ62" s="16" t="n">
-        <v>992091</v>
+        <v>660186</v>
       </c>
       <c r="AK62" s="16" t="n">
-        <v>660186</v>
+        <v>874342</v>
       </c>
       <c r="AL62" s="16" t="n">
-        <v>874342</v>
+        <v>994800</v>
       </c>
       <c r="AM62" s="16" t="n">
-        <v>994800</v>
+        <v>1008671</v>
       </c>
       <c r="AN62" s="16" t="n">
-        <v>1008671</v>
+        <v>939978</v>
       </c>
       <c r="AO62" s="16" t="n">
-        <v>939978</v>
+        <v>1134173</v>
       </c>
       <c r="AP62" s="16" t="n">
-        <v>1134173</v>
+        <v>703951</v>
       </c>
       <c r="AQ62" s="16" t="n">
-        <v>703951</v>
+        <v>1411951</v>
       </c>
       <c r="AR62" s="16" t="n">
-        <v>1411951</v>
+        <v>1296283</v>
       </c>
       <c r="AS62" s="16" t="n">
-        <v>1296283</v>
+        <v>1306265</v>
       </c>
       <c r="AT62" s="16" t="n">
-        <v>1306265</v>
+        <v>1031659</v>
       </c>
       <c r="AU62" s="16" t="n">
-        <v>1031659</v>
+        <v>1160719</v>
       </c>
       <c r="AV62" s="16" t="n">
-        <v>1160719</v>
+        <v>1083077</v>
       </c>
       <c r="AW62" s="16" t="n">
-        <v>1083077</v>
+        <v>1000382</v>
       </c>
       <c r="AX62" s="16" t="n">
-        <v>1000382</v>
+        <v>1492432</v>
       </c>
       <c r="AY62" s="16" t="n">
-        <v>1492432</v>
+        <v>1257459</v>
       </c>
       <c r="AZ62" s="16" t="n">
-        <v>1257459</v>
+        <v>1473279</v>
       </c>
       <c r="BA62" s="16" t="n">
-        <v>1473279</v>
+        <v>1928675</v>
       </c>
       <c r="BB62" s="16" t="n">
-        <v>1928675</v>
+        <v>623719</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10257,80 +10257,80 @@
       <c r="AC63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD63" s="13" t="s">
-        <v>57</v>
+      <c r="AD63" s="13" t="n">
+        <v>1015565</v>
       </c>
       <c r="AE63" s="13" t="n">
-        <v>1015565</v>
+        <v>888806</v>
       </c>
       <c r="AF63" s="13" t="n">
-        <v>888806</v>
+        <v>884287</v>
       </c>
       <c r="AG63" s="13" t="n">
-        <v>884287</v>
+        <v>666710</v>
       </c>
       <c r="AH63" s="13" t="n">
-        <v>666710</v>
+        <v>1124266</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>1124266</v>
+        <v>955669</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>955669</v>
+        <v>911794</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>911794</v>
+        <v>1771204</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>1771204</v>
+        <v>2011323</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>2011323</v>
+        <v>1408656</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>1408656</v>
+        <v>1694581</v>
       </c>
       <c r="AO63" s="13" t="n">
-        <v>1694581</v>
+        <v>1230042</v>
       </c>
       <c r="AP63" s="13" t="n">
-        <v>1230042</v>
+        <v>2335947</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>2335947</v>
+        <v>2391491</v>
       </c>
       <c r="AR63" s="13" t="n">
-        <v>2391491</v>
+        <v>2724231</v>
       </c>
       <c r="AS63" s="13" t="n">
-        <v>2724231</v>
+        <v>1419592</v>
       </c>
       <c r="AT63" s="13" t="n">
-        <v>1419592</v>
+        <v>2163181</v>
       </c>
       <c r="AU63" s="13" t="n">
-        <v>2163181</v>
+        <v>1561926</v>
       </c>
       <c r="AV63" s="13" t="n">
-        <v>1561926</v>
+        <v>1339871</v>
       </c>
       <c r="AW63" s="13" t="n">
-        <v>1339871</v>
+        <v>1501847</v>
       </c>
       <c r="AX63" s="13" t="n">
-        <v>1501847</v>
+        <v>1461958</v>
       </c>
       <c r="AY63" s="13" t="n">
-        <v>1461958</v>
+        <v>1438215</v>
       </c>
       <c r="AZ63" s="13" t="n">
-        <v>1438215</v>
+        <v>1233855</v>
       </c>
       <c r="BA63" s="13" t="n">
-        <v>1233855</v>
+        <v>1708416</v>
       </c>
       <c r="BB63" s="13" t="n">
-        <v>1708416</v>
+        <v>1267477</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10446,8 +10446,8 @@
       <c r="T65" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U65" s="20" t="s">
-        <v>57</v>
+      <c r="U65" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V65" s="23" t="n">
         <v>0</v>
@@ -10662,8 +10662,8 @@
       <c r="T67" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U67" s="20" t="s">
-        <v>57</v>
+      <c r="U67" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V67" s="23" t="n">
         <v>0</v>
@@ -10878,8 +10878,8 @@
       <c r="T69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U69" s="13" t="s">
-        <v>57</v>
+      <c r="U69" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="13" t="n">
         <v>0</v>
@@ -10988,154 +10988,154 @@
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22" t="n">
-        <v>2073968</v>
+        <v>2758735</v>
       </c>
       <c r="F70" s="22" t="n">
-        <v>2758735</v>
+        <v>1198485</v>
       </c>
       <c r="G70" s="22" t="n">
-        <v>1198485</v>
+        <v>2114349</v>
       </c>
       <c r="H70" s="22" t="n">
-        <v>2114349</v>
+        <v>2982626</v>
       </c>
       <c r="I70" s="22" t="n">
-        <v>2982626</v>
+        <v>2717873</v>
       </c>
       <c r="J70" s="22" t="n">
-        <v>2717873</v>
+        <v>2346726</v>
       </c>
       <c r="K70" s="22" t="n">
-        <v>2346726</v>
+        <v>2618508</v>
       </c>
       <c r="L70" s="22" t="n">
-        <v>2618508</v>
+        <v>2263846</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>2263846</v>
+        <v>2653625</v>
       </c>
       <c r="N70" s="22" t="n">
-        <v>2653625</v>
+        <v>2987327</v>
       </c>
       <c r="O70" s="22" t="n">
-        <v>2987327</v>
+        <v>2616887</v>
       </c>
       <c r="P70" s="22" t="n">
-        <v>2616887</v>
+        <v>2791408</v>
       </c>
       <c r="Q70" s="22" t="n">
-        <v>2791408</v>
+        <v>3289879</v>
       </c>
       <c r="R70" s="22" t="n">
-        <v>3289879</v>
+        <v>885672</v>
       </c>
       <c r="S70" s="22" t="n">
-        <v>885672</v>
+        <v>2766898</v>
       </c>
       <c r="T70" s="22" t="n">
-        <v>2766898</v>
+        <v>2558848</v>
       </c>
       <c r="U70" s="22" t="n">
-        <v>2558848</v>
+        <v>3176704</v>
       </c>
       <c r="V70" s="22" t="n">
-        <v>3176704</v>
+        <v>3501252</v>
       </c>
       <c r="W70" s="22" t="n">
-        <v>3501252</v>
+        <v>4418937</v>
       </c>
       <c r="X70" s="22" t="n">
-        <v>4418937</v>
+        <v>4594971</v>
       </c>
       <c r="Y70" s="22" t="n">
-        <v>4594971</v>
+        <v>5181384</v>
       </c>
       <c r="Z70" s="22" t="n">
-        <v>5181384</v>
+        <v>6867494</v>
       </c>
       <c r="AA70" s="22" t="n">
-        <v>6867494</v>
+        <v>5644038</v>
       </c>
       <c r="AB70" s="22" t="n">
-        <v>5644038</v>
+        <v>4083680</v>
       </c>
       <c r="AC70" s="22" t="n">
-        <v>4083680</v>
+        <v>8001038</v>
       </c>
       <c r="AD70" s="22" t="n">
-        <v>8001038</v>
+        <v>3846988</v>
       </c>
       <c r="AE70" s="22" t="n">
-        <v>3846988</v>
+        <v>8080016</v>
       </c>
       <c r="AF70" s="22" t="n">
-        <v>8080016</v>
+        <v>4485108</v>
       </c>
       <c r="AG70" s="22" t="n">
-        <v>4485108</v>
+        <v>5492872</v>
       </c>
       <c r="AH70" s="22" t="n">
-        <v>5492872</v>
+        <v>5752825</v>
       </c>
       <c r="AI70" s="22" t="n">
-        <v>5752825</v>
+        <v>9614569</v>
       </c>
       <c r="AJ70" s="22" t="n">
-        <v>9614569</v>
+        <v>6325679</v>
       </c>
       <c r="AK70" s="22" t="n">
-        <v>6325679</v>
+        <v>10539443</v>
       </c>
       <c r="AL70" s="22" t="n">
-        <v>10539443</v>
+        <v>8642893</v>
       </c>
       <c r="AM70" s="22" t="n">
-        <v>8642893</v>
+        <v>7324945</v>
       </c>
       <c r="AN70" s="22" t="n">
-        <v>7324945</v>
+        <v>9822566</v>
       </c>
       <c r="AO70" s="22" t="n">
-        <v>9822566</v>
+        <v>7981372</v>
       </c>
       <c r="AP70" s="22" t="n">
-        <v>7981372</v>
+        <v>7984308</v>
       </c>
       <c r="AQ70" s="22" t="n">
-        <v>7984308</v>
+        <v>12209937</v>
       </c>
       <c r="AR70" s="22" t="n">
-        <v>12209937</v>
+        <v>11244412</v>
       </c>
       <c r="AS70" s="22" t="n">
-        <v>11244412</v>
+        <v>12855174</v>
       </c>
       <c r="AT70" s="22" t="n">
-        <v>12855174</v>
+        <v>11235576</v>
       </c>
       <c r="AU70" s="22" t="n">
-        <v>11235576</v>
+        <v>11203633</v>
       </c>
       <c r="AV70" s="22" t="n">
-        <v>11203633</v>
+        <v>9264092</v>
       </c>
       <c r="AW70" s="22" t="n">
-        <v>9264092</v>
+        <v>10716593</v>
       </c>
       <c r="AX70" s="22" t="n">
-        <v>10716593</v>
+        <v>11148605</v>
       </c>
       <c r="AY70" s="22" t="n">
-        <v>11148605</v>
+        <v>10063355</v>
       </c>
       <c r="AZ70" s="22" t="n">
-        <v>10063355</v>
+        <v>10989938</v>
       </c>
       <c r="BA70" s="22" t="n">
-        <v>10989938</v>
+        <v>10950502</v>
       </c>
       <c r="BB70" s="22" t="n">
-        <v>10950502</v>
+        <v>6818794</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11655,80 +11655,80 @@
       <c r="AC77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD77" s="13" t="s">
-        <v>57</v>
+      <c r="AD77" s="13" t="n">
+        <v>60717150</v>
       </c>
       <c r="AE77" s="13" t="n">
-        <v>60717150</v>
+        <v>61083976</v>
       </c>
       <c r="AF77" s="13" t="n">
-        <v>61083976</v>
+        <v>64653780</v>
       </c>
       <c r="AG77" s="13" t="n">
-        <v>64653780</v>
+        <v>56424222</v>
       </c>
       <c r="AH77" s="13" t="n">
-        <v>56424222</v>
+        <v>60975814</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>60975814</v>
+        <v>62825045</v>
       </c>
       <c r="AJ77" s="13" t="n">
-        <v>62825045</v>
+        <v>69945261</v>
       </c>
       <c r="AK77" s="13" t="n">
-        <v>69945261</v>
+        <v>77185095</v>
       </c>
       <c r="AL77" s="13" t="n">
-        <v>77185095</v>
+        <v>78050496</v>
       </c>
       <c r="AM77" s="13" t="n">
-        <v>78050496</v>
+        <v>77265912</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>77265912</v>
+        <v>86473461</v>
       </c>
       <c r="AO77" s="13" t="n">
-        <v>86473461</v>
+        <v>87250215</v>
       </c>
       <c r="AP77" s="13" t="n">
-        <v>87250215</v>
+        <v>97357994</v>
       </c>
       <c r="AQ77" s="13" t="n">
-        <v>97357994</v>
+        <v>100632465</v>
       </c>
       <c r="AR77" s="13" t="n">
-        <v>100632465</v>
+        <v>100694207</v>
       </c>
       <c r="AS77" s="13" t="n">
-        <v>100694207</v>
+        <v>98528694</v>
       </c>
       <c r="AT77" s="13" t="n">
-        <v>98528694</v>
+        <v>82622226</v>
       </c>
       <c r="AU77" s="13" t="n">
-        <v>82622226</v>
+        <v>82094568</v>
       </c>
       <c r="AV77" s="13" t="n">
-        <v>82094568</v>
+        <v>76041058</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>76041058</v>
+        <v>90418608</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>90418608</v>
+        <v>96178877</v>
       </c>
       <c r="AY77" s="13" t="n">
-        <v>96178877</v>
+        <v>94216178</v>
       </c>
       <c r="AZ77" s="13" t="n">
-        <v>94216178</v>
+        <v>104000723</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>104000723</v>
+        <v>121591508</v>
       </c>
       <c r="BB77" s="13" t="n">
-        <v>121591508</v>
+        <v>154967038</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11740,154 +11740,154 @@
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16" t="n">
-        <v>105645161</v>
+        <v>119630435</v>
       </c>
       <c r="F78" s="16" t="n">
-        <v>119630435</v>
+        <v>124000000</v>
       </c>
       <c r="G78" s="16" t="n">
-        <v>124000000</v>
+        <v>127222222</v>
       </c>
       <c r="H78" s="16" t="n">
-        <v>127222222</v>
+        <v>139171053</v>
       </c>
       <c r="I78" s="16" t="n">
-        <v>139171053</v>
+        <v>178000000</v>
       </c>
       <c r="J78" s="16" t="n">
-        <v>178000000</v>
+        <v>127165138</v>
       </c>
       <c r="K78" s="16" t="n">
-        <v>127165138</v>
+        <v>127435644</v>
       </c>
       <c r="L78" s="16" t="n">
-        <v>127435644</v>
+        <v>123918033</v>
       </c>
       <c r="M78" s="16" t="n">
-        <v>123918033</v>
+        <v>128211538</v>
       </c>
       <c r="N78" s="16" t="n">
-        <v>128211538</v>
+        <v>132763158</v>
       </c>
       <c r="O78" s="16" t="n">
-        <v>132763158</v>
+        <v>138517857</v>
       </c>
       <c r="P78" s="16" t="n">
-        <v>138517857</v>
+        <v>129065789</v>
       </c>
       <c r="Q78" s="16" t="n">
-        <v>129065789</v>
+        <v>145375000</v>
       </c>
       <c r="R78" s="16" t="n">
-        <v>145375000</v>
+        <v>135000000</v>
       </c>
       <c r="S78" s="16" t="n">
-        <v>135000000</v>
+        <v>115925926</v>
       </c>
       <c r="T78" s="16" t="n">
-        <v>115925926</v>
+        <v>152578947</v>
       </c>
       <c r="U78" s="16" t="n">
-        <v>152578947</v>
+        <v>170850000</v>
       </c>
       <c r="V78" s="16" t="n">
-        <v>170850000</v>
+        <v>158464516</v>
       </c>
       <c r="W78" s="16" t="n">
-        <v>158464516</v>
+        <v>161641079</v>
       </c>
       <c r="X78" s="16" t="n">
-        <v>161641079</v>
+        <v>202808955</v>
       </c>
       <c r="Y78" s="16" t="n">
-        <v>202808955</v>
+        <v>214586538</v>
       </c>
       <c r="Z78" s="16" t="n">
-        <v>214586538</v>
+        <v>231342857</v>
       </c>
       <c r="AA78" s="16" t="n">
-        <v>231342857</v>
+        <v>236162338</v>
       </c>
       <c r="AB78" s="16" t="n">
-        <v>236162338</v>
+        <v>255700000</v>
       </c>
       <c r="AC78" s="16" t="n">
-        <v>255700000</v>
+        <v>248500000</v>
       </c>
       <c r="AD78" s="16" t="n">
-        <v>248500000</v>
+        <v>239000000</v>
       </c>
       <c r="AE78" s="16" t="n">
-        <v>239000000</v>
+        <v>258750000</v>
       </c>
       <c r="AF78" s="16" t="n">
-        <v>258750000</v>
+        <v>331800000</v>
       </c>
       <c r="AG78" s="16" t="n">
-        <v>331800000</v>
+        <v>382846154</v>
       </c>
       <c r="AH78" s="16" t="n">
-        <v>382846154</v>
+        <v>354686131</v>
       </c>
       <c r="AI78" s="16" t="n">
-        <v>354686131</v>
+        <v>352964169</v>
       </c>
       <c r="AJ78" s="16" t="n">
-        <v>352964169</v>
+        <v>363126761</v>
       </c>
       <c r="AK78" s="16" t="n">
-        <v>363126761</v>
+        <v>374935385</v>
       </c>
       <c r="AL78" s="16" t="n">
-        <v>374935385</v>
+        <v>365391892</v>
       </c>
       <c r="AM78" s="16" t="n">
-        <v>365391892</v>
+        <v>348657459</v>
       </c>
       <c r="AN78" s="16" t="n">
-        <v>348657459</v>
+        <v>377750000</v>
       </c>
       <c r="AO78" s="16" t="n">
-        <v>377750000</v>
+        <v>390200000</v>
       </c>
       <c r="AP78" s="16" t="n">
-        <v>390200000</v>
+        <v>409000000</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>409000000</v>
+        <v>384457143</v>
       </c>
       <c r="AR78" s="16" t="n">
-        <v>384457143</v>
+        <v>469280000</v>
       </c>
       <c r="AS78" s="16" t="n">
-        <v>469280000</v>
+        <v>374400000</v>
       </c>
       <c r="AT78" s="16" t="n">
-        <v>374400000</v>
+        <v>581508876</v>
       </c>
       <c r="AU78" s="16" t="n">
-        <v>581508876</v>
+        <v>598200489</v>
       </c>
       <c r="AV78" s="16" t="n">
-        <v>598200489</v>
+        <v>595037162</v>
       </c>
       <c r="AW78" s="16" t="n">
-        <v>595037162</v>
+        <v>600246347</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>600246347</v>
+        <v>538537500</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>538537500</v>
+        <v>553850000</v>
       </c>
       <c r="AZ78" s="16" t="n">
-        <v>553850000</v>
+        <v>608000000</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>608000000</v>
+        <v>606833333</v>
       </c>
       <c r="BB78" s="16" t="n">
-        <v>606833333</v>
+        <v>1390000000</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11899,82 +11899,82 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="n">
-        <v>41947193</v>
+        <v>45735170</v>
       </c>
       <c r="F79" s="13" t="n">
-        <v>45735170</v>
+        <v>37448090</v>
       </c>
       <c r="G79" s="13" t="n">
-        <v>37448090</v>
+        <v>61359241</v>
       </c>
       <c r="H79" s="13" t="n">
-        <v>61359241</v>
+        <v>69427496</v>
       </c>
       <c r="I79" s="13" t="n">
-        <v>69427496</v>
+        <v>64317572</v>
       </c>
       <c r="J79" s="13" t="n">
-        <v>64317572</v>
+        <v>65776451</v>
       </c>
       <c r="K79" s="13" t="n">
-        <v>65776451</v>
+        <v>57950605</v>
       </c>
       <c r="L79" s="13" t="n">
-        <v>57950605</v>
+        <v>54092793</v>
       </c>
       <c r="M79" s="13" t="n">
-        <v>54092793</v>
+        <v>49752729</v>
       </c>
       <c r="N79" s="13" t="n">
-        <v>49752729</v>
+        <v>55650725</v>
       </c>
       <c r="O79" s="13" t="n">
-        <v>55650725</v>
+        <v>58851014</v>
       </c>
       <c r="P79" s="13" t="n">
-        <v>58851014</v>
+        <v>70555824</v>
       </c>
       <c r="Q79" s="13" t="n">
-        <v>70555824</v>
+        <v>54698399</v>
       </c>
       <c r="R79" s="13" t="n">
-        <v>54698399</v>
+        <v>44999827</v>
       </c>
       <c r="S79" s="13" t="n">
-        <v>44999827</v>
+        <v>48922975</v>
       </c>
       <c r="T79" s="13" t="n">
-        <v>48922975</v>
+        <v>53942409</v>
       </c>
       <c r="U79" s="13" t="n">
-        <v>53942409</v>
+        <v>66410508</v>
       </c>
       <c r="V79" s="13" t="n">
-        <v>66410508</v>
+        <v>76690415</v>
       </c>
       <c r="W79" s="13" t="n">
-        <v>76690415</v>
+        <v>79574296</v>
       </c>
       <c r="X79" s="13" t="n">
-        <v>79574296</v>
+        <v>99388310</v>
       </c>
       <c r="Y79" s="13" t="n">
-        <v>99388310</v>
+        <v>116762700</v>
       </c>
       <c r="Z79" s="13" t="n">
-        <v>116762700</v>
+        <v>113181137</v>
       </c>
       <c r="AA79" s="13" t="n">
-        <v>113181137</v>
+        <v>115977761</v>
       </c>
       <c r="AB79" s="13" t="n">
-        <v>115977761</v>
+        <v>106209635</v>
       </c>
       <c r="AC79" s="13" t="n">
-        <v>106209635</v>
-      </c>
-      <c r="AD79" s="13" t="n">
         <v>131645114</v>
+      </c>
+      <c r="AD79" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE79" s="13" t="s">
         <v>57</v>
@@ -12058,82 +12058,82 @@
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16" t="n">
-        <v>35292642</v>
+        <v>43525545</v>
       </c>
       <c r="F80" s="16" t="n">
-        <v>43525545</v>
+        <v>35382345</v>
       </c>
       <c r="G80" s="16" t="n">
-        <v>35382345</v>
+        <v>46870063</v>
       </c>
       <c r="H80" s="16" t="n">
-        <v>46870063</v>
+        <v>50236627</v>
       </c>
       <c r="I80" s="16" t="n">
-        <v>50236627</v>
+        <v>51114340</v>
       </c>
       <c r="J80" s="16" t="n">
-        <v>51114340</v>
+        <v>46527965</v>
       </c>
       <c r="K80" s="16" t="n">
-        <v>46527965</v>
+        <v>47189502</v>
       </c>
       <c r="L80" s="16" t="n">
-        <v>47189502</v>
+        <v>38087526</v>
       </c>
       <c r="M80" s="16" t="n">
-        <v>38087526</v>
+        <v>41745590</v>
       </c>
       <c r="N80" s="16" t="n">
-        <v>41745590</v>
+        <v>40586215</v>
       </c>
       <c r="O80" s="16" t="n">
-        <v>40586215</v>
+        <v>37200365</v>
       </c>
       <c r="P80" s="16" t="n">
-        <v>37200365</v>
+        <v>36824536</v>
       </c>
       <c r="Q80" s="16" t="n">
-        <v>36824536</v>
+        <v>38346383</v>
       </c>
       <c r="R80" s="16" t="n">
-        <v>38346383</v>
+        <v>33904150</v>
       </c>
       <c r="S80" s="16" t="n">
-        <v>33904150</v>
+        <v>37294603</v>
       </c>
       <c r="T80" s="16" t="n">
-        <v>37294603</v>
+        <v>32729372</v>
       </c>
       <c r="U80" s="16" t="n">
-        <v>32729372</v>
+        <v>35342510</v>
       </c>
       <c r="V80" s="16" t="n">
-        <v>35342510</v>
+        <v>48422970</v>
       </c>
       <c r="W80" s="16" t="n">
-        <v>48422970</v>
+        <v>63381520</v>
       </c>
       <c r="X80" s="16" t="n">
-        <v>63381520</v>
+        <v>85409923</v>
       </c>
       <c r="Y80" s="16" t="n">
-        <v>85409923</v>
+        <v>92409018</v>
       </c>
       <c r="Z80" s="16" t="n">
-        <v>92409018</v>
+        <v>93275117</v>
       </c>
       <c r="AA80" s="16" t="n">
-        <v>93275117</v>
+        <v>99099605</v>
       </c>
       <c r="AB80" s="16" t="n">
-        <v>99099605</v>
+        <v>92326884</v>
       </c>
       <c r="AC80" s="16" t="n">
-        <v>92326884</v>
-      </c>
-      <c r="AD80" s="16" t="n">
         <v>101165363</v>
+      </c>
+      <c r="AD80" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE80" s="16" t="s">
         <v>57</v>
@@ -12291,80 +12291,80 @@
       <c r="AC81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD81" s="13" t="s">
-        <v>57</v>
+      <c r="AD81" s="13" t="n">
+        <v>171958841</v>
       </c>
       <c r="AE81" s="13" t="n">
-        <v>171958841</v>
+        <v>224072078</v>
       </c>
       <c r="AF81" s="13" t="n">
-        <v>224072078</v>
+        <v>161569984</v>
       </c>
       <c r="AG81" s="13" t="n">
-        <v>161569984</v>
+        <v>141988696</v>
       </c>
       <c r="AH81" s="13" t="n">
-        <v>141988696</v>
+        <v>225352775</v>
       </c>
       <c r="AI81" s="13" t="n">
-        <v>225352775</v>
+        <v>138756932</v>
       </c>
       <c r="AJ81" s="13" t="n">
-        <v>138756932</v>
+        <v>203021909</v>
       </c>
       <c r="AK81" s="13" t="n">
-        <v>203021909</v>
+        <v>184180521</v>
       </c>
       <c r="AL81" s="13" t="n">
-        <v>184180521</v>
+        <v>211942292</v>
       </c>
       <c r="AM81" s="13" t="n">
-        <v>211942292</v>
+        <v>195587743</v>
       </c>
       <c r="AN81" s="13" t="n">
-        <v>195587743</v>
+        <v>198267052</v>
       </c>
       <c r="AO81" s="13" t="n">
-        <v>198267052</v>
+        <v>223440947</v>
       </c>
       <c r="AP81" s="13" t="n">
-        <v>223440947</v>
+        <v>258795858</v>
       </c>
       <c r="AQ81" s="13" t="n">
-        <v>258795858</v>
+        <v>272366759</v>
       </c>
       <c r="AR81" s="13" t="n">
-        <v>272366759</v>
+        <v>235744393</v>
       </c>
       <c r="AS81" s="13" t="n">
-        <v>235744393</v>
+        <v>263728064</v>
       </c>
       <c r="AT81" s="13" t="n">
-        <v>263728064</v>
+        <v>283911852</v>
       </c>
       <c r="AU81" s="13" t="n">
-        <v>283911852</v>
+        <v>203419297</v>
       </c>
       <c r="AV81" s="13" t="n">
-        <v>203419297</v>
+        <v>251606654</v>
       </c>
       <c r="AW81" s="13" t="n">
-        <v>251606654</v>
+        <v>251337169</v>
       </c>
       <c r="AX81" s="13" t="n">
-        <v>251337169</v>
+        <v>236533328</v>
       </c>
       <c r="AY81" s="13" t="n">
-        <v>236533328</v>
+        <v>236378871</v>
       </c>
       <c r="AZ81" s="13" t="n">
-        <v>236378871</v>
+        <v>268322807</v>
       </c>
       <c r="BA81" s="13" t="n">
-        <v>268322807</v>
+        <v>318665362</v>
       </c>
       <c r="BB81" s="13" t="n">
-        <v>318665362</v>
+        <v>284245794</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12376,154 +12376,154 @@
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16" t="n">
-        <v>143395833</v>
+        <v>123006667</v>
       </c>
       <c r="F82" s="16" t="n">
-        <v>123006667</v>
+        <v>126780488</v>
       </c>
       <c r="G82" s="16" t="n">
-        <v>126780488</v>
+        <v>158839080</v>
       </c>
       <c r="H82" s="16" t="n">
-        <v>158839080</v>
+        <v>200481481</v>
       </c>
       <c r="I82" s="16" t="n">
-        <v>200481481</v>
+        <v>188916667</v>
       </c>
       <c r="J82" s="16" t="n">
-        <v>188916667</v>
+        <v>192822222</v>
       </c>
       <c r="K82" s="16" t="n">
-        <v>192822222</v>
+        <v>212617647</v>
       </c>
       <c r="L82" s="16" t="n">
-        <v>212617647</v>
+        <v>202672727</v>
       </c>
       <c r="M82" s="16" t="n">
-        <v>202672727</v>
+        <v>211750000</v>
       </c>
       <c r="N82" s="16" t="n">
-        <v>211750000</v>
+        <v>179512195</v>
       </c>
       <c r="O82" s="16" t="n">
-        <v>179512195</v>
+        <v>195000000</v>
       </c>
       <c r="P82" s="16" t="n">
-        <v>195000000</v>
+        <v>162250000</v>
       </c>
       <c r="Q82" s="16" t="n">
-        <v>162250000</v>
+        <v>206500000</v>
       </c>
       <c r="R82" s="16" t="n">
-        <v>206500000</v>
+        <v>186000000</v>
       </c>
       <c r="S82" s="16" t="n">
-        <v>186000000</v>
+        <v>216050000</v>
       </c>
       <c r="T82" s="16" t="n">
-        <v>216050000</v>
+        <v>214117021</v>
       </c>
       <c r="U82" s="16" t="n">
-        <v>214117021</v>
+        <v>166126761</v>
       </c>
       <c r="V82" s="16" t="n">
-        <v>166126761</v>
+        <v>189253521</v>
       </c>
       <c r="W82" s="16" t="n">
-        <v>189253521</v>
+        <v>199470199</v>
       </c>
       <c r="X82" s="16" t="n">
-        <v>199470199</v>
+        <v>232247059</v>
       </c>
       <c r="Y82" s="16" t="n">
-        <v>232247059</v>
+        <v>291792079</v>
       </c>
       <c r="Z82" s="16" t="n">
-        <v>291792079</v>
+        <v>386692308</v>
       </c>
       <c r="AA82" s="16" t="n">
-        <v>386692308</v>
+        <v>313652174</v>
       </c>
       <c r="AB82" s="16" t="n">
-        <v>313652174</v>
+        <v>311153061</v>
       </c>
       <c r="AC82" s="16" t="n">
-        <v>311153061</v>
+        <v>358056818</v>
       </c>
       <c r="AD82" s="16" t="n">
-        <v>358056818</v>
+        <v>353023256</v>
       </c>
       <c r="AE82" s="16" t="n">
-        <v>353023256</v>
+        <v>484285714</v>
       </c>
       <c r="AF82" s="16" t="n">
-        <v>484285714</v>
+        <v>347633333</v>
       </c>
       <c r="AG82" s="16" t="n">
-        <v>347633333</v>
+        <v>284750000</v>
       </c>
       <c r="AH82" s="16" t="n">
-        <v>284750000</v>
+        <v>451166667</v>
       </c>
       <c r="AI82" s="16" t="n">
-        <v>451166667</v>
+        <v>319770833</v>
       </c>
       <c r="AJ82" s="16" t="n">
-        <v>319770833</v>
+        <v>414000000</v>
       </c>
       <c r="AK82" s="16" t="n">
-        <v>414000000</v>
+        <v>538750000</v>
       </c>
       <c r="AL82" s="16" t="n">
-        <v>538750000</v>
+        <v>405624161</v>
       </c>
       <c r="AM82" s="16" t="n">
-        <v>405624161</v>
+        <v>423748252</v>
       </c>
       <c r="AN82" s="16" t="n">
-        <v>423748252</v>
+        <v>436486188</v>
       </c>
       <c r="AO82" s="16" t="n">
-        <v>436486188</v>
+        <v>453311927</v>
       </c>
       <c r="AP82" s="16" t="n">
-        <v>453311927</v>
+        <v>460440000</v>
       </c>
       <c r="AQ82" s="16" t="n">
-        <v>460440000</v>
+        <v>647282609</v>
       </c>
       <c r="AR82" s="16" t="n">
-        <v>647282609</v>
+        <v>795903226</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>795903226</v>
+        <v>836906250</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>836906250</v>
+        <v>834915344</v>
       </c>
       <c r="AU82" s="16" t="n">
-        <v>834915344</v>
+        <v>817412903</v>
       </c>
       <c r="AV82" s="16" t="n">
-        <v>817412903</v>
+        <v>701384181</v>
       </c>
       <c r="AW82" s="16" t="n">
-        <v>701384181</v>
+        <v>750418239</v>
       </c>
       <c r="AX82" s="16" t="n">
-        <v>750418239</v>
+        <v>686300300</v>
       </c>
       <c r="AY82" s="16" t="n">
-        <v>686300300</v>
+        <v>874238739</v>
       </c>
       <c r="AZ82" s="16" t="n">
-        <v>874238739</v>
+        <v>741491525</v>
       </c>
       <c r="BA82" s="16" t="n">
-        <v>741491525</v>
+        <v>826770833</v>
       </c>
       <c r="BB82" s="16" t="n">
-        <v>826770833</v>
+        <v>1047647059</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12609,80 +12609,80 @@
       <c r="AC83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD83" s="13" t="s">
-        <v>57</v>
+      <c r="AD83" s="13" t="n">
+        <v>105152147</v>
       </c>
       <c r="AE83" s="13" t="n">
-        <v>105152147</v>
+        <v>114405200</v>
       </c>
       <c r="AF83" s="13" t="n">
-        <v>114405200</v>
+        <v>110140835</v>
       </c>
       <c r="AG83" s="13" t="n">
-        <v>110140835</v>
+        <v>117090909</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>117090909</v>
+        <v>126720497</v>
       </c>
       <c r="AI83" s="13" t="n">
-        <v>126720497</v>
+        <v>126262115</v>
       </c>
       <c r="AJ83" s="13" t="n">
-        <v>126262115</v>
+        <v>147153083</v>
       </c>
       <c r="AK83" s="13" t="n">
-        <v>147153083</v>
+        <v>142498745</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>142498745</v>
+        <v>165389382</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>165389382</v>
+        <v>162873528</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>162873528</v>
+        <v>157128350</v>
       </c>
       <c r="AO83" s="13" t="n">
-        <v>157128350</v>
+        <v>157134749</v>
       </c>
       <c r="AP83" s="13" t="n">
-        <v>157134749</v>
+        <v>188863619</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>188863619</v>
+        <v>194817884</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>194817884</v>
+        <v>197859559</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>197859559</v>
+        <v>209283564</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>209283564</v>
+        <v>189434758</v>
       </c>
       <c r="AU83" s="13" t="n">
-        <v>189434758</v>
+        <v>171624083</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>171624083</v>
+        <v>167278068</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>167278068</v>
+        <v>168177470</v>
       </c>
       <c r="AX83" s="13" t="n">
-        <v>168177470</v>
+        <v>166224276</v>
       </c>
       <c r="AY83" s="13" t="n">
-        <v>166224276</v>
+        <v>163821472</v>
       </c>
       <c r="AZ83" s="13" t="n">
-        <v>163821472</v>
+        <v>180435167</v>
       </c>
       <c r="BA83" s="13" t="n">
-        <v>180435167</v>
+        <v>227465116</v>
       </c>
       <c r="BB83" s="13" t="n">
-        <v>227465116</v>
+        <v>227022543</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12768,80 +12768,80 @@
       <c r="AC84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD84" s="16" t="s">
-        <v>57</v>
+      <c r="AD84" s="16" t="n">
+        <v>193416624</v>
       </c>
       <c r="AE84" s="16" t="n">
-        <v>193416624</v>
+        <v>193054206</v>
       </c>
       <c r="AF84" s="16" t="n">
-        <v>193054206</v>
+        <v>199306977</v>
       </c>
       <c r="AG84" s="16" t="n">
-        <v>199306977</v>
+        <v>193658221</v>
       </c>
       <c r="AH84" s="16" t="n">
-        <v>193658221</v>
+        <v>262883622</v>
       </c>
       <c r="AI84" s="16" t="n">
-        <v>262883622</v>
+        <v>265503053</v>
       </c>
       <c r="AJ84" s="16" t="n">
-        <v>265503053</v>
+        <v>255766639</v>
       </c>
       <c r="AK84" s="16" t="n">
-        <v>255766639</v>
+        <v>252928732</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>252928732</v>
+        <v>257814652</v>
       </c>
       <c r="AM84" s="16" t="n">
-        <v>257814652</v>
+        <v>266040788</v>
       </c>
       <c r="AN84" s="16" t="n">
-        <v>266040788</v>
+        <v>274085257</v>
       </c>
       <c r="AO84" s="16" t="n">
-        <v>274085257</v>
+        <v>274655898</v>
       </c>
       <c r="AP84" s="16" t="n">
-        <v>274655898</v>
+        <v>270172489</v>
       </c>
       <c r="AQ84" s="16" t="n">
-        <v>270172489</v>
+        <v>304058911</v>
       </c>
       <c r="AR84" s="16" t="n">
-        <v>304058911</v>
+        <v>347489076</v>
       </c>
       <c r="AS84" s="16" t="n">
-        <v>347489076</v>
+        <v>334169128</v>
       </c>
       <c r="AT84" s="16" t="n">
-        <v>334169128</v>
+        <v>335499403</v>
       </c>
       <c r="AU84" s="16" t="n">
-        <v>335499403</v>
+        <v>352919437</v>
       </c>
       <c r="AV84" s="16" t="n">
-        <v>352919437</v>
+        <v>332988346</v>
       </c>
       <c r="AW84" s="16" t="n">
-        <v>332988346</v>
+        <v>334557193</v>
       </c>
       <c r="AX84" s="16" t="n">
-        <v>334557193</v>
+        <v>337865824</v>
       </c>
       <c r="AY84" s="16" t="n">
-        <v>337865824</v>
+        <v>334864841</v>
       </c>
       <c r="AZ84" s="16" t="n">
-        <v>334864841</v>
+        <v>327010903</v>
       </c>
       <c r="BA84" s="16" t="n">
-        <v>327010903</v>
+        <v>332215680</v>
       </c>
       <c r="BB84" s="16" t="n">
-        <v>332215680</v>
+        <v>324948000</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12927,80 +12927,80 @@
       <c r="AC85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD85" s="13" t="s">
-        <v>57</v>
+      <c r="AD85" s="13" t="n">
+        <v>214685360</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>214685360</v>
+        <v>209981038</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>209981038</v>
+        <v>207627182</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>207627182</v>
+        <v>253204908</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>253204908</v>
+        <v>304955090</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>304955090</v>
+        <v>290654445</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>290654445</v>
+        <v>278241892</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>278241892</v>
+        <v>297561678</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>297561678</v>
+        <v>286394773</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>286394773</v>
+        <v>298922024</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>298922024</v>
+        <v>313071495</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>313071495</v>
+        <v>295770249</v>
       </c>
       <c r="AP85" s="13" t="n">
-        <v>295770249</v>
+        <v>285108227</v>
       </c>
       <c r="AQ85" s="13" t="n">
-        <v>285108227</v>
+        <v>305311244</v>
       </c>
       <c r="AR85" s="13" t="n">
-        <v>305311244</v>
+        <v>343947629</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>343947629</v>
+        <v>364606179</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>364606179</v>
+        <v>379597760</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>379597760</v>
+        <v>373743045</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>373743045</v>
+        <v>363630547</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>363630547</v>
+        <v>366979616</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>366979616</v>
+        <v>368216433</v>
       </c>
       <c r="AY85" s="13" t="n">
-        <v>368216433</v>
+        <v>376718058</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>376718058</v>
+        <v>393502765</v>
       </c>
       <c r="BA85" s="13" t="n">
-        <v>393502765</v>
+        <v>397800000</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>397800000</v>
+        <v>373850087</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13086,80 +13086,80 @@
       <c r="AC86" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD86" s="16" t="s">
-        <v>57</v>
+      <c r="AD86" s="16" t="n">
+        <v>305993373</v>
       </c>
       <c r="AE86" s="16" t="n">
-        <v>305993373</v>
+        <v>334571221</v>
       </c>
       <c r="AF86" s="16" t="n">
-        <v>334571221</v>
+        <v>335521013</v>
       </c>
       <c r="AG86" s="16" t="n">
-        <v>335521013</v>
+        <v>349565986</v>
       </c>
       <c r="AH86" s="16" t="n">
-        <v>349565986</v>
+        <v>354795226</v>
       </c>
       <c r="AI86" s="16" t="n">
-        <v>354795226</v>
+        <v>372546376</v>
       </c>
       <c r="AJ86" s="16" t="n">
-        <v>372546376</v>
+        <v>392967857</v>
       </c>
       <c r="AK86" s="16" t="n">
-        <v>392967857</v>
+        <v>372853731</v>
       </c>
       <c r="AL86" s="16" t="n">
-        <v>372853731</v>
+        <v>386030268</v>
       </c>
       <c r="AM86" s="16" t="n">
-        <v>386030268</v>
+        <v>395557255</v>
       </c>
       <c r="AN86" s="16" t="n">
-        <v>395557255</v>
+        <v>395114754</v>
       </c>
       <c r="AO86" s="16" t="n">
-        <v>395114754</v>
+        <v>424465943</v>
       </c>
       <c r="AP86" s="16" t="n">
-        <v>424465943</v>
+        <v>490558188</v>
       </c>
       <c r="AQ86" s="16" t="n">
-        <v>490558188</v>
+        <v>504809081</v>
       </c>
       <c r="AR86" s="16" t="n">
-        <v>504809081</v>
+        <v>502825058</v>
       </c>
       <c r="AS86" s="16" t="n">
-        <v>502825058</v>
+        <v>541344799</v>
       </c>
       <c r="AT86" s="16" t="n">
-        <v>541344799</v>
+        <v>484119662</v>
       </c>
       <c r="AU86" s="16" t="n">
-        <v>484119662</v>
+        <v>539117046</v>
       </c>
       <c r="AV86" s="16" t="n">
-        <v>539117046</v>
+        <v>542352028</v>
       </c>
       <c r="AW86" s="16" t="n">
-        <v>542352028</v>
+        <v>542800868</v>
       </c>
       <c r="AX86" s="16" t="n">
-        <v>542800868</v>
+        <v>561909639</v>
       </c>
       <c r="AY86" s="16" t="n">
-        <v>561909639</v>
+        <v>533273537</v>
       </c>
       <c r="AZ86" s="16" t="n">
-        <v>533273537</v>
+        <v>528815147</v>
       </c>
       <c r="BA86" s="16" t="n">
-        <v>528815147</v>
+        <v>602899344</v>
       </c>
       <c r="BB86" s="16" t="n">
-        <v>602899344</v>
+        <v>580203721</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13245,80 +13245,80 @@
       <c r="AC87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD87" s="13" t="s">
-        <v>57</v>
+      <c r="AD87" s="13" t="n">
+        <v>75489854</v>
       </c>
       <c r="AE87" s="13" t="n">
-        <v>75489854</v>
+        <v>72858923</v>
       </c>
       <c r="AF87" s="13" t="n">
-        <v>72858923</v>
+        <v>67451335</v>
       </c>
       <c r="AG87" s="13" t="n">
-        <v>67451335</v>
+        <v>77823042</v>
       </c>
       <c r="AH87" s="13" t="n">
-        <v>77823042</v>
+        <v>78063186</v>
       </c>
       <c r="AI87" s="13" t="n">
-        <v>78063186</v>
+        <v>83464541</v>
       </c>
       <c r="AJ87" s="13" t="n">
-        <v>83464541</v>
+        <v>93661428</v>
       </c>
       <c r="AK87" s="13" t="n">
-        <v>93661428</v>
+        <v>95937818</v>
       </c>
       <c r="AL87" s="13" t="n">
-        <v>95937818</v>
+        <v>91732327</v>
       </c>
       <c r="AM87" s="13" t="n">
-        <v>91732327</v>
+        <v>95192323</v>
       </c>
       <c r="AN87" s="13" t="n">
-        <v>95192323</v>
+        <v>102888950</v>
       </c>
       <c r="AO87" s="13" t="n">
-        <v>102888950</v>
+        <v>115388555</v>
       </c>
       <c r="AP87" s="13" t="n">
-        <v>115388555</v>
+        <v>146435995</v>
       </c>
       <c r="AQ87" s="13" t="n">
-        <v>146435995</v>
+        <v>146250673</v>
       </c>
       <c r="AR87" s="13" t="n">
-        <v>146250673</v>
+        <v>150335578</v>
       </c>
       <c r="AS87" s="13" t="n">
-        <v>150335578</v>
+        <v>158862131</v>
       </c>
       <c r="AT87" s="13" t="n">
-        <v>158862131</v>
+        <v>138408152</v>
       </c>
       <c r="AU87" s="13" t="n">
-        <v>138408152</v>
+        <v>115424623</v>
       </c>
       <c r="AV87" s="13" t="n">
-        <v>115424623</v>
+        <v>106516496</v>
       </c>
       <c r="AW87" s="13" t="n">
-        <v>106516496</v>
+        <v>102410297</v>
       </c>
       <c r="AX87" s="13" t="n">
-        <v>102410297</v>
+        <v>110145257</v>
       </c>
       <c r="AY87" s="13" t="n">
-        <v>110145257</v>
+        <v>93572869</v>
       </c>
       <c r="AZ87" s="13" t="n">
-        <v>93572869</v>
+        <v>100452251</v>
       </c>
       <c r="BA87" s="13" t="n">
-        <v>100452251</v>
+        <v>121560837</v>
       </c>
       <c r="BB87" s="13" t="n">
-        <v>121560837</v>
+        <v>141491069</v>
       </c>
     </row>
   </sheetData>
